--- a/RAAL/Production/Input/Concatenated_Hourly_GHI.xlsx
+++ b/RAAL/Production/Input/Concatenated_Hourly_GHI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mynexte-my.sharepoint.com/personal/andrei_ionita_mynexte_com/Documents/Desktop/ML/Forecast_app/RAAL/Production/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_776D13441CCA6AF8C3EADD32522E083178F95C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32B87598-C053-4A1E-9097-4562957BBA83}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_776D13441CCA6AF8C3EADD32522E083178F95C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A7D0BDB-8C26-4F12-A2D3-CDEA8A8B891D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,13 +525,14 @@
   <dimension ref="A1:O289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>

--- a/RAAL/Production/Input/Concatenated_Hourly_GHI.xlsx
+++ b/RAAL/Production/Input/Concatenated_Hourly_GHI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="431">
   <si>
     <t>lat</t>
   </si>
@@ -94,7 +94,7 @@
     <t>2024-02-05T07:43:36</t>
   </si>
   <si>
-    <t>2024-02-06T07:40:27</t>
+    <t>2024-02-06T07:42:17</t>
   </si>
   <si>
     <t>2024-02-07T07:39:02</t>
@@ -103,6 +103,12 @@
     <t>2024-02-08T07:37:35</t>
   </si>
   <si>
+    <t>2024-02-09T07:36:07</t>
+  </si>
+  <si>
+    <t>2024-02-10T07:34:37</t>
+  </si>
+  <si>
     <t>2024-01-26T17:21:25</t>
   </si>
   <si>
@@ -136,7 +142,7 @@
     <t>2024-02-05T17:36:09</t>
   </si>
   <si>
-    <t>2024-02-06T17:30:20</t>
+    <t>2024-02-06T17:37:38</t>
   </si>
   <si>
     <t>2024-02-07T17:31:53</t>
@@ -145,6 +151,12 @@
     <t>2024-02-08T17:33:27</t>
   </si>
   <si>
+    <t>2024-02-09T17:35:00</t>
+  </si>
+  <si>
+    <t>2024-02-10T17:36:34</t>
+  </si>
+  <si>
     <t>26.01.20240</t>
   </si>
   <si>
@@ -1151,6 +1163,150 @@
   </si>
   <si>
     <t>08.02.202423</t>
+  </si>
+  <si>
+    <t>09.02.20240</t>
+  </si>
+  <si>
+    <t>09.02.20241</t>
+  </si>
+  <si>
+    <t>09.02.20242</t>
+  </si>
+  <si>
+    <t>09.02.20243</t>
+  </si>
+  <si>
+    <t>09.02.20244</t>
+  </si>
+  <si>
+    <t>09.02.20245</t>
+  </si>
+  <si>
+    <t>09.02.20246</t>
+  </si>
+  <si>
+    <t>09.02.20247</t>
+  </si>
+  <si>
+    <t>09.02.20248</t>
+  </si>
+  <si>
+    <t>09.02.20249</t>
+  </si>
+  <si>
+    <t>09.02.202410</t>
+  </si>
+  <si>
+    <t>09.02.202411</t>
+  </si>
+  <si>
+    <t>09.02.202412</t>
+  </si>
+  <si>
+    <t>09.02.202413</t>
+  </si>
+  <si>
+    <t>09.02.202414</t>
+  </si>
+  <si>
+    <t>09.02.202415</t>
+  </si>
+  <si>
+    <t>09.02.202416</t>
+  </si>
+  <si>
+    <t>09.02.202417</t>
+  </si>
+  <si>
+    <t>09.02.202418</t>
+  </si>
+  <si>
+    <t>09.02.202419</t>
+  </si>
+  <si>
+    <t>09.02.202420</t>
+  </si>
+  <si>
+    <t>09.02.202421</t>
+  </si>
+  <si>
+    <t>09.02.202422</t>
+  </si>
+  <si>
+    <t>09.02.202423</t>
+  </si>
+  <si>
+    <t>10.02.20240</t>
+  </si>
+  <si>
+    <t>10.02.20241</t>
+  </si>
+  <si>
+    <t>10.02.20242</t>
+  </si>
+  <si>
+    <t>10.02.20243</t>
+  </si>
+  <si>
+    <t>10.02.20244</t>
+  </si>
+  <si>
+    <t>10.02.20245</t>
+  </si>
+  <si>
+    <t>10.02.20246</t>
+  </si>
+  <si>
+    <t>10.02.20247</t>
+  </si>
+  <si>
+    <t>10.02.20248</t>
+  </si>
+  <si>
+    <t>10.02.20249</t>
+  </si>
+  <si>
+    <t>10.02.202410</t>
+  </si>
+  <si>
+    <t>10.02.202411</t>
+  </si>
+  <si>
+    <t>10.02.202412</t>
+  </si>
+  <si>
+    <t>10.02.202413</t>
+  </si>
+  <si>
+    <t>10.02.202414</t>
+  </si>
+  <si>
+    <t>10.02.202415</t>
+  </si>
+  <si>
+    <t>10.02.202416</t>
+  </si>
+  <si>
+    <t>10.02.202417</t>
+  </si>
+  <si>
+    <t>10.02.202418</t>
+  </si>
+  <si>
+    <t>10.02.202419</t>
+  </si>
+  <si>
+    <t>10.02.202420</t>
+  </si>
+  <si>
+    <t>10.02.202421</t>
+  </si>
+  <si>
+    <t>10.02.202422</t>
+  </si>
+  <si>
+    <t>10.02.202423</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N337"/>
+  <dimension ref="A1:N385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1579,7 +1735,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1603,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1623,7 +1779,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1647,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1667,7 +1823,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1691,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1711,7 +1867,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1735,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1755,7 +1911,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -1779,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1799,7 +1955,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1823,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1843,7 +1999,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1867,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1887,7 +2043,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -1911,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1931,7 +2087,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -1955,7 +2111,7 @@
         <v>24.76</v>
       </c>
       <c r="N10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1975,7 +2131,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -1999,7 +2155,7 @@
         <v>90.29000000000001</v>
       </c>
       <c r="N11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2019,7 +2175,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -2043,7 +2199,7 @@
         <v>138.73</v>
       </c>
       <c r="N12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2063,7 +2219,7 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -2087,7 +2243,7 @@
         <v>170.94</v>
       </c>
       <c r="N13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2107,7 +2263,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>12</v>
@@ -2131,7 +2287,7 @@
         <v>183.94</v>
       </c>
       <c r="N14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2151,7 +2307,7 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>13</v>
@@ -2175,7 +2331,7 @@
         <v>181.64</v>
       </c>
       <c r="N15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2195,7 +2351,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>14</v>
@@ -2219,7 +2375,7 @@
         <v>152.71</v>
       </c>
       <c r="N16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2239,7 +2395,7 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>15</v>
@@ -2263,7 +2419,7 @@
         <v>92.7</v>
       </c>
       <c r="N17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2283,7 +2439,7 @@
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>16</v>
@@ -2307,7 +2463,7 @@
         <v>43.31</v>
       </c>
       <c r="N18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2327,7 +2483,7 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19">
         <v>17</v>
@@ -2351,7 +2507,7 @@
         <v>2.02</v>
       </c>
       <c r="N19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2371,7 +2527,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>18</v>
@@ -2395,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2415,7 +2571,7 @@
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>19</v>
@@ -2439,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2459,7 +2615,7 @@
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -2483,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2503,7 +2659,7 @@
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>21</v>
@@ -2527,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2547,7 +2703,7 @@
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>22</v>
@@ -2571,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2591,7 +2747,7 @@
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>23</v>
@@ -2615,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2635,7 +2791,7 @@
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2659,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2679,7 +2835,7 @@
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2703,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2723,7 +2879,7 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2747,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2767,7 +2923,7 @@
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2791,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2811,7 +2967,7 @@
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G30">
         <v>4</v>
@@ -2835,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2855,7 +3011,7 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -2879,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2899,7 +3055,7 @@
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -2923,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2943,7 +3099,7 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G33">
         <v>7</v>
@@ -2967,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2987,7 +3143,7 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G34">
         <v>8</v>
@@ -3011,7 +3167,7 @@
         <v>21.13</v>
       </c>
       <c r="N34" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3031,7 +3187,7 @@
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G35">
         <v>9</v>
@@ -3055,7 +3211,7 @@
         <v>87.98</v>
       </c>
       <c r="N35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3075,7 +3231,7 @@
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -3099,7 +3255,7 @@
         <v>143.81</v>
       </c>
       <c r="N36" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3119,7 +3275,7 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G37">
         <v>11</v>
@@ -3143,7 +3299,7 @@
         <v>161.23</v>
       </c>
       <c r="N37" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3163,7 +3319,7 @@
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G38">
         <v>12</v>
@@ -3187,7 +3343,7 @@
         <v>123.27</v>
       </c>
       <c r="N38" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3207,7 +3363,7 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G39">
         <v>13</v>
@@ -3231,7 +3387,7 @@
         <v>119</v>
       </c>
       <c r="N39" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3251,7 +3407,7 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>14</v>
@@ -3275,7 +3431,7 @@
         <v>136</v>
       </c>
       <c r="N40" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3295,7 +3451,7 @@
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>15</v>
@@ -3319,7 +3475,7 @@
         <v>101.21</v>
       </c>
       <c r="N41" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3339,7 +3495,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>16</v>
@@ -3363,7 +3519,7 @@
         <v>46.46</v>
       </c>
       <c r="N42" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3383,7 +3539,7 @@
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>17</v>
@@ -3407,7 +3563,7 @@
         <v>1.44</v>
       </c>
       <c r="N43" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3427,7 +3583,7 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G44">
         <v>18</v>
@@ -3451,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3471,7 +3627,7 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G45">
         <v>19</v>
@@ -3495,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3515,7 +3671,7 @@
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G46">
         <v>20</v>
@@ -3539,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3559,7 +3715,7 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G47">
         <v>21</v>
@@ -3583,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3603,7 +3759,7 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G48">
         <v>22</v>
@@ -3627,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3647,7 +3803,7 @@
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G49">
         <v>23</v>
@@ -3671,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3691,7 +3847,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3715,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3735,7 +3891,7 @@
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -3759,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3779,7 +3935,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -3803,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3823,7 +3979,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -3847,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3867,7 +4023,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -3891,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3911,7 +4067,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -3935,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3955,7 +4111,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -3979,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3999,7 +4155,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -4023,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -4043,7 +4199,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G58">
         <v>8</v>
@@ -4067,7 +4223,7 @@
         <v>31.86</v>
       </c>
       <c r="N58" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -4087,7 +4243,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G59">
         <v>9</v>
@@ -4111,7 +4267,7 @@
         <v>94.31</v>
       </c>
       <c r="N59" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -4131,7 +4287,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G60">
         <v>10</v>
@@ -4155,7 +4311,7 @@
         <v>144.8</v>
       </c>
       <c r="N60" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -4175,7 +4331,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G61">
         <v>11</v>
@@ -4199,7 +4355,7 @@
         <v>177.37</v>
       </c>
       <c r="N61" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4219,7 +4375,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G62">
         <v>12</v>
@@ -4243,7 +4399,7 @@
         <v>180.1</v>
       </c>
       <c r="N62" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4263,7 +4419,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G63">
         <v>13</v>
@@ -4287,7 +4443,7 @@
         <v>163.3</v>
       </c>
       <c r="N63" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4307,7 +4463,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G64">
         <v>14</v>
@@ -4331,7 +4487,7 @@
         <v>117.84</v>
       </c>
       <c r="N64" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4351,7 +4507,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>15</v>
@@ -4375,7 +4531,7 @@
         <v>61.01</v>
       </c>
       <c r="N65" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -4395,7 +4551,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G66">
         <v>16</v>
@@ -4419,7 +4575,7 @@
         <v>25.82</v>
       </c>
       <c r="N66" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4439,7 +4595,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G67">
         <v>17</v>
@@ -4463,7 +4619,7 @@
         <v>0.98</v>
       </c>
       <c r="N67" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4483,7 +4639,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G68">
         <v>18</v>
@@ -4507,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4527,7 +4683,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G69">
         <v>19</v>
@@ -4551,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4571,7 +4727,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G70">
         <v>20</v>
@@ -4595,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4615,7 +4771,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>21</v>
@@ -4639,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4659,7 +4815,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G72">
         <v>22</v>
@@ -4683,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4703,7 +4859,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G73">
         <v>23</v>
@@ -4727,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4747,7 +4903,7 @@
         <v>18</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -4771,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4791,7 +4947,7 @@
         <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -4815,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4835,7 +4991,7 @@
         <v>18</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -4859,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4879,7 +5035,7 @@
         <v>18</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -4903,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4923,7 +5079,7 @@
         <v>18</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <v>4</v>
@@ -4947,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4967,7 +5123,7 @@
         <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G79">
         <v>5</v>
@@ -4991,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -5011,7 +5167,7 @@
         <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G80">
         <v>6</v>
@@ -5035,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -5055,7 +5211,7 @@
         <v>18</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G81">
         <v>7</v>
@@ -5079,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -5099,7 +5255,7 @@
         <v>18</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G82">
         <v>8</v>
@@ -5123,7 +5279,7 @@
         <v>28.72</v>
       </c>
       <c r="N82" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -5143,7 +5299,7 @@
         <v>18</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G83">
         <v>9</v>
@@ -5167,7 +5323,7 @@
         <v>59.53</v>
       </c>
       <c r="N83" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -5187,7 +5343,7 @@
         <v>18</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G84">
         <v>10</v>
@@ -5211,7 +5367,7 @@
         <v>77.3</v>
       </c>
       <c r="N84" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -5231,7 +5387,7 @@
         <v>18</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>11</v>
@@ -5255,7 +5411,7 @@
         <v>86.92</v>
       </c>
       <c r="N85" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5275,7 +5431,7 @@
         <v>18</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G86">
         <v>12</v>
@@ -5299,7 +5455,7 @@
         <v>92.44</v>
       </c>
       <c r="N86" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -5319,7 +5475,7 @@
         <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G87">
         <v>13</v>
@@ -5343,7 +5499,7 @@
         <v>91.55</v>
       </c>
       <c r="N87" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -5363,7 +5519,7 @@
         <v>18</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G88">
         <v>14</v>
@@ -5387,7 +5543,7 @@
         <v>85.73999999999999</v>
       </c>
       <c r="N88" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5407,7 +5563,7 @@
         <v>18</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G89">
         <v>15</v>
@@ -5431,7 +5587,7 @@
         <v>68.53</v>
       </c>
       <c r="N89" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -5451,7 +5607,7 @@
         <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G90">
         <v>16</v>
@@ -5475,7 +5631,7 @@
         <v>40.86</v>
       </c>
       <c r="N90" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5495,7 +5651,7 @@
         <v>18</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G91">
         <v>17</v>
@@ -5519,7 +5675,7 @@
         <v>3.63</v>
       </c>
       <c r="N91" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -5539,7 +5695,7 @@
         <v>18</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G92">
         <v>18</v>
@@ -5563,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -5583,7 +5739,7 @@
         <v>18</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G93">
         <v>19</v>
@@ -5607,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -5627,7 +5783,7 @@
         <v>18</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>20</v>
@@ -5651,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -5671,7 +5827,7 @@
         <v>18</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G95">
         <v>21</v>
@@ -5695,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5715,7 +5871,7 @@
         <v>18</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>22</v>
@@ -5739,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5759,7 +5915,7 @@
         <v>18</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G97">
         <v>23</v>
@@ -5783,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5803,7 +5959,7 @@
         <v>19</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -5827,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5847,7 +6003,7 @@
         <v>19</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -5871,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5891,7 +6047,7 @@
         <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -5915,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5935,7 +6091,7 @@
         <v>19</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -5959,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5979,7 +6135,7 @@
         <v>19</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G102">
         <v>4</v>
@@ -6003,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -6023,7 +6179,7 @@
         <v>19</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>5</v>
@@ -6047,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -6067,7 +6223,7 @@
         <v>19</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G104">
         <v>6</v>
@@ -6091,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -6111,7 +6267,7 @@
         <v>19</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G105">
         <v>7</v>
@@ -6135,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6155,7 +6311,7 @@
         <v>19</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G106">
         <v>8</v>
@@ -6179,7 +6335,7 @@
         <v>29.78</v>
       </c>
       <c r="N106" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -6199,7 +6355,7 @@
         <v>19</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G107">
         <v>9</v>
@@ -6223,7 +6379,7 @@
         <v>60.2</v>
       </c>
       <c r="N107" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6243,7 +6399,7 @@
         <v>19</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G108">
         <v>10</v>
@@ -6267,7 +6423,7 @@
         <v>77.8</v>
       </c>
       <c r="N108" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -6287,7 +6443,7 @@
         <v>19</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G109">
         <v>11</v>
@@ -6311,7 +6467,7 @@
         <v>87.15000000000001</v>
       </c>
       <c r="N109" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -6331,7 +6487,7 @@
         <v>19</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>12</v>
@@ -6355,7 +6511,7 @@
         <v>91.84</v>
       </c>
       <c r="N110" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -6375,7 +6531,7 @@
         <v>19</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G111">
         <v>13</v>
@@ -6399,7 +6555,7 @@
         <v>89.23999999999999</v>
       </c>
       <c r="N111" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6419,7 +6575,7 @@
         <v>19</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G112">
         <v>14</v>
@@ -6443,7 +6599,7 @@
         <v>80.84999999999999</v>
       </c>
       <c r="N112" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -6463,7 +6619,7 @@
         <v>19</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G113">
         <v>15</v>
@@ -6487,7 +6643,7 @@
         <v>66.63</v>
       </c>
       <c r="N113" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -6507,7 +6663,7 @@
         <v>19</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G114">
         <v>16</v>
@@ -6531,7 +6687,7 @@
         <v>41.13</v>
       </c>
       <c r="N114" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6551,7 +6707,7 @@
         <v>19</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G115">
         <v>17</v>
@@ -6575,7 +6731,7 @@
         <v>4.23</v>
       </c>
       <c r="N115" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6595,7 +6751,7 @@
         <v>19</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G116">
         <v>18</v>
@@ -6619,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6639,7 +6795,7 @@
         <v>19</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G117">
         <v>19</v>
@@ -6663,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="N117" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6683,7 +6839,7 @@
         <v>19</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G118">
         <v>20</v>
@@ -6707,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6727,7 +6883,7 @@
         <v>19</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G119">
         <v>21</v>
@@ -6751,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="N119" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6771,7 +6927,7 @@
         <v>19</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G120">
         <v>22</v>
@@ -6795,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="N120" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6815,7 +6971,7 @@
         <v>19</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G121">
         <v>23</v>
@@ -6839,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6859,7 +7015,7 @@
         <v>20</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6883,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6903,7 +7059,7 @@
         <v>20</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -6927,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6947,7 +7103,7 @@
         <v>20</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -6971,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="N124" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6991,7 +7147,7 @@
         <v>20</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -7015,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="N125" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -7035,7 +7191,7 @@
         <v>20</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -7059,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="N126" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -7079,7 +7235,7 @@
         <v>20</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G127">
         <v>5</v>
@@ -7103,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="N127" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -7123,7 +7279,7 @@
         <v>20</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G128">
         <v>6</v>
@@ -7147,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="N128" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -7167,7 +7323,7 @@
         <v>20</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G129">
         <v>7</v>
@@ -7191,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="N129" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -7211,7 +7367,7 @@
         <v>20</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G130">
         <v>8</v>
@@ -7235,7 +7391,7 @@
         <v>30.85</v>
       </c>
       <c r="N130" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -7255,7 +7411,7 @@
         <v>20</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G131">
         <v>9</v>
@@ -7279,7 +7435,7 @@
         <v>60.85</v>
       </c>
       <c r="N131" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -7299,7 +7455,7 @@
         <v>20</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G132">
         <v>10</v>
@@ -7323,7 +7479,7 @@
         <v>78.22</v>
       </c>
       <c r="N132" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -7343,7 +7499,7 @@
         <v>20</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G133">
         <v>11</v>
@@ -7367,7 +7523,7 @@
         <v>87.69</v>
       </c>
       <c r="N133" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -7387,7 +7543,7 @@
         <v>20</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G134">
         <v>12</v>
@@ -7411,7 +7567,7 @@
         <v>92.5</v>
       </c>
       <c r="N134" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -7431,7 +7587,7 @@
         <v>20</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G135">
         <v>13</v>
@@ -7455,7 +7611,7 @@
         <v>89.93000000000001</v>
       </c>
       <c r="N135" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -7475,7 +7631,7 @@
         <v>20</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G136">
         <v>14</v>
@@ -7499,7 +7655,7 @@
         <v>81.51000000000001</v>
       </c>
       <c r="N136" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -7519,7 +7675,7 @@
         <v>20</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G137">
         <v>15</v>
@@ -7543,7 +7699,7 @@
         <v>67.51000000000001</v>
       </c>
       <c r="N137" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -7563,7 +7719,7 @@
         <v>20</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G138">
         <v>16</v>
@@ -7587,7 +7743,7 @@
         <v>41.99</v>
       </c>
       <c r="N138" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -7607,7 +7763,7 @@
         <v>20</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G139">
         <v>17</v>
@@ -7631,7 +7787,7 @@
         <v>4.85</v>
       </c>
       <c r="N139" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -7651,7 +7807,7 @@
         <v>20</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G140">
         <v>18</v>
@@ -7675,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -7695,7 +7851,7 @@
         <v>20</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G141">
         <v>19</v>
@@ -7719,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="N141" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -7739,7 +7895,7 @@
         <v>20</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G142">
         <v>20</v>
@@ -7763,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="N142" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -7783,7 +7939,7 @@
         <v>20</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G143">
         <v>21</v>
@@ -7807,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="N143" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -7827,7 +7983,7 @@
         <v>20</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G144">
         <v>22</v>
@@ -7851,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="N144" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -7871,7 +8027,7 @@
         <v>20</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G145">
         <v>23</v>
@@ -7895,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="N145" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -7915,7 +8071,7 @@
         <v>21</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -7939,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="N146" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -7959,7 +8115,7 @@
         <v>21</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -7983,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="N147" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -8003,7 +8159,7 @@
         <v>21</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -8027,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="N148" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -8047,7 +8203,7 @@
         <v>21</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -8071,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="N149" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -8091,7 +8247,7 @@
         <v>21</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G150">
         <v>4</v>
@@ -8115,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="N150" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -8135,7 +8291,7 @@
         <v>21</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G151">
         <v>5</v>
@@ -8159,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="N151" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -8179,7 +8335,7 @@
         <v>21</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G152">
         <v>6</v>
@@ -8203,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="N152" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -8223,7 +8379,7 @@
         <v>21</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G153">
         <v>7</v>
@@ -8247,7 +8403,7 @@
         <v>0.04</v>
       </c>
       <c r="N153" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -8267,7 +8423,7 @@
         <v>21</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G154">
         <v>8</v>
@@ -8291,7 +8447,7 @@
         <v>31.86</v>
       </c>
       <c r="N154" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -8311,7 +8467,7 @@
         <v>21</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G155">
         <v>9</v>
@@ -8335,7 +8491,7 @@
         <v>61.77</v>
       </c>
       <c r="N155" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -8355,7 +8511,7 @@
         <v>21</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G156">
         <v>10</v>
@@ -8379,7 +8535,7 @@
         <v>79.14</v>
       </c>
       <c r="N156" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -8399,7 +8555,7 @@
         <v>21</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G157">
         <v>11</v>
@@ -8423,7 +8579,7 @@
         <v>88.66</v>
       </c>
       <c r="N157" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -8443,7 +8599,7 @@
         <v>21</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G158">
         <v>12</v>
@@ -8467,7 +8623,7 @@
         <v>93.48</v>
       </c>
       <c r="N158" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -8487,7 +8643,7 @@
         <v>21</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G159">
         <v>13</v>
@@ -8511,7 +8667,7 @@
         <v>90.81</v>
       </c>
       <c r="N159" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -8531,7 +8687,7 @@
         <v>21</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G160">
         <v>14</v>
@@ -8555,7 +8711,7 @@
         <v>81.64</v>
       </c>
       <c r="N160" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -8575,7 +8731,7 @@
         <v>21</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>15</v>
@@ -8599,7 +8755,7 @@
         <v>68.11</v>
       </c>
       <c r="N161" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -8619,7 +8775,7 @@
         <v>21</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G162">
         <v>16</v>
@@ -8643,7 +8799,7 @@
         <v>42.73</v>
       </c>
       <c r="N162" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -8663,7 +8819,7 @@
         <v>21</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G163">
         <v>17</v>
@@ -8687,7 +8843,7 @@
         <v>6.07</v>
       </c>
       <c r="N163" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -8707,7 +8863,7 @@
         <v>21</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G164">
         <v>18</v>
@@ -8731,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="N164" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -8751,7 +8907,7 @@
         <v>21</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G165">
         <v>19</v>
@@ -8775,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="N165" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -8795,7 +8951,7 @@
         <v>21</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G166">
         <v>20</v>
@@ -8819,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="N166" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -8839,7 +8995,7 @@
         <v>21</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G167">
         <v>21</v>
@@ -8863,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="N167" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -8883,7 +9039,7 @@
         <v>21</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G168">
         <v>22</v>
@@ -8907,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="N168" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -8927,7 +9083,7 @@
         <v>21</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G169">
         <v>23</v>
@@ -8951,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="N169" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -8971,7 +9127,7 @@
         <v>22</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -8995,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="N170" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -9015,7 +9171,7 @@
         <v>22</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -9039,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="N171" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -9059,7 +9215,7 @@
         <v>22</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -9083,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="N172" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -9103,7 +9259,7 @@
         <v>22</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G173">
         <v>3</v>
@@ -9127,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="N173" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -9147,7 +9303,7 @@
         <v>22</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G174">
         <v>4</v>
@@ -9171,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="N174" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -9191,7 +9347,7 @@
         <v>22</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G175">
         <v>5</v>
@@ -9215,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="N175" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -9235,7 +9391,7 @@
         <v>22</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G176">
         <v>6</v>
@@ -9259,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="N176" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -9279,7 +9435,7 @@
         <v>22</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G177">
         <v>7</v>
@@ -9303,7 +9459,7 @@
         <v>0.25</v>
       </c>
       <c r="N177" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -9323,7 +9479,7 @@
         <v>22</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G178">
         <v>8</v>
@@ -9347,7 +9503,7 @@
         <v>18.23</v>
       </c>
       <c r="N178" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -9367,7 +9523,7 @@
         <v>22</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G179">
         <v>9</v>
@@ -9391,7 +9547,7 @@
         <v>51.87</v>
       </c>
       <c r="N179" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -9411,7 +9567,7 @@
         <v>22</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G180">
         <v>10</v>
@@ -9435,7 +9591,7 @@
         <v>82.95999999999999</v>
       </c>
       <c r="N180" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -9455,7 +9611,7 @@
         <v>22</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G181">
         <v>11</v>
@@ -9479,7 +9635,7 @@
         <v>106.83</v>
       </c>
       <c r="N181" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -9499,7 +9655,7 @@
         <v>22</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G182">
         <v>12</v>
@@ -9523,7 +9679,7 @@
         <v>115.54</v>
       </c>
       <c r="N182" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -9543,7 +9699,7 @@
         <v>22</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G183">
         <v>13</v>
@@ -9567,7 +9723,7 @@
         <v>114.53</v>
       </c>
       <c r="N183" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -9587,7 +9743,7 @@
         <v>22</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G184">
         <v>14</v>
@@ -9611,7 +9767,7 @@
         <v>118.84</v>
       </c>
       <c r="N184" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -9631,7 +9787,7 @@
         <v>22</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G185">
         <v>15</v>
@@ -9655,7 +9811,7 @@
         <v>94.94</v>
       </c>
       <c r="N185" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -9675,7 +9831,7 @@
         <v>22</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G186">
         <v>16</v>
@@ -9699,7 +9855,7 @@
         <v>37.15</v>
       </c>
       <c r="N186" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -9719,7 +9875,7 @@
         <v>22</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G187">
         <v>17</v>
@@ -9743,7 +9899,7 @@
         <v>1.72</v>
       </c>
       <c r="N187" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -9763,7 +9919,7 @@
         <v>22</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G188">
         <v>18</v>
@@ -9787,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="N188" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -9807,7 +9963,7 @@
         <v>22</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G189">
         <v>19</v>
@@ -9831,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="N189" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -9851,7 +10007,7 @@
         <v>22</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G190">
         <v>20</v>
@@ -9875,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="N190" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -9895,7 +10051,7 @@
         <v>22</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G191">
         <v>21</v>
@@ -9919,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="N191" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -9939,7 +10095,7 @@
         <v>22</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G192">
         <v>22</v>
@@ -9963,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="N192" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -9983,7 +10139,7 @@
         <v>22</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G193">
         <v>23</v>
@@ -10007,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="N193" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -10027,7 +10183,7 @@
         <v>23</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -10051,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="N194" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -10071,7 +10227,7 @@
         <v>23</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -10095,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="N195" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -10115,7 +10271,7 @@
         <v>23</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -10139,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="N196" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -10159,7 +10315,7 @@
         <v>23</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -10183,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="N197" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -10203,7 +10359,7 @@
         <v>23</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G198">
         <v>4</v>
@@ -10227,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="N198" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -10247,7 +10403,7 @@
         <v>23</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G199">
         <v>5</v>
@@ -10271,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="N199" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -10291,7 +10447,7 @@
         <v>23</v>
       </c>
       <c r="F200" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G200">
         <v>6</v>
@@ -10315,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="N200" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -10335,7 +10491,7 @@
         <v>23</v>
       </c>
       <c r="F201" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G201">
         <v>7</v>
@@ -10359,7 +10515,7 @@
         <v>0.5</v>
       </c>
       <c r="N201" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -10379,7 +10535,7 @@
         <v>23</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G202">
         <v>8</v>
@@ -10403,7 +10559,7 @@
         <v>23.83</v>
       </c>
       <c r="N202" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -10423,7 +10579,7 @@
         <v>23</v>
       </c>
       <c r="F203" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G203">
         <v>9</v>
@@ -10447,7 +10603,7 @@
         <v>52.92</v>
       </c>
       <c r="N203" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -10467,7 +10623,7 @@
         <v>23</v>
       </c>
       <c r="F204" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G204">
         <v>10</v>
@@ -10491,7 +10647,7 @@
         <v>82.61</v>
       </c>
       <c r="N204" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -10511,7 +10667,7 @@
         <v>23</v>
       </c>
       <c r="F205" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G205">
         <v>11</v>
@@ -10535,7 +10691,7 @@
         <v>102.61</v>
       </c>
       <c r="N205" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -10555,7 +10711,7 @@
         <v>23</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G206">
         <v>12</v>
@@ -10579,7 +10735,7 @@
         <v>110.31</v>
       </c>
       <c r="N206" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -10599,7 +10755,7 @@
         <v>23</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G207">
         <v>13</v>
@@ -10623,7 +10779,7 @@
         <v>104.82</v>
       </c>
       <c r="N207" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -10643,7 +10799,7 @@
         <v>23</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G208">
         <v>14</v>
@@ -10667,7 +10823,7 @@
         <v>88.89</v>
       </c>
       <c r="N208" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -10687,7 +10843,7 @@
         <v>23</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G209">
         <v>15</v>
@@ -10711,7 +10867,7 @@
         <v>65.06</v>
       </c>
       <c r="N209" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -10731,7 +10887,7 @@
         <v>23</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G210">
         <v>16</v>
@@ -10755,7 +10911,7 @@
         <v>29.78</v>
       </c>
       <c r="N210" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -10775,7 +10931,7 @@
         <v>23</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G211">
         <v>17</v>
@@ -10799,7 +10955,7 @@
         <v>1.51</v>
       </c>
       <c r="N211" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -10819,7 +10975,7 @@
         <v>23</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G212">
         <v>18</v>
@@ -10843,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="N212" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -10863,7 +11019,7 @@
         <v>23</v>
       </c>
       <c r="F213" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G213">
         <v>19</v>
@@ -10887,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="N213" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -10907,7 +11063,7 @@
         <v>23</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G214">
         <v>20</v>
@@ -10931,7 +11087,7 @@
         <v>0</v>
       </c>
       <c r="N214" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -10951,7 +11107,7 @@
         <v>23</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G215">
         <v>21</v>
@@ -10975,7 +11131,7 @@
         <v>0</v>
       </c>
       <c r="N215" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -10995,7 +11151,7 @@
         <v>23</v>
       </c>
       <c r="F216" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G216">
         <v>22</v>
@@ -11019,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="N216" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -11039,7 +11195,7 @@
         <v>23</v>
       </c>
       <c r="F217" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G217">
         <v>23</v>
@@ -11063,7 +11219,7 @@
         <v>0</v>
       </c>
       <c r="N217" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -11083,7 +11239,7 @@
         <v>24</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -11107,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="N218" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -11127,7 +11283,7 @@
         <v>24</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -11151,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="N219" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -11171,7 +11327,7 @@
         <v>24</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -11195,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="N220" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -11215,7 +11371,7 @@
         <v>24</v>
       </c>
       <c r="F221" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G221">
         <v>3</v>
@@ -11239,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="N221" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -11259,7 +11415,7 @@
         <v>24</v>
       </c>
       <c r="F222" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G222">
         <v>4</v>
@@ -11283,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="N222" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -11303,7 +11459,7 @@
         <v>24</v>
       </c>
       <c r="F223" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G223">
         <v>5</v>
@@ -11327,7 +11483,7 @@
         <v>0</v>
       </c>
       <c r="N223" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -11347,7 +11503,7 @@
         <v>24</v>
       </c>
       <c r="F224" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G224">
         <v>6</v>
@@ -11371,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="N224" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -11391,7 +11547,7 @@
         <v>24</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G225">
         <v>7</v>
@@ -11415,7 +11571,7 @@
         <v>0.42</v>
       </c>
       <c r="N225" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -11435,7 +11591,7 @@
         <v>24</v>
       </c>
       <c r="F226" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G226">
         <v>8</v>
@@ -11459,7 +11615,7 @@
         <v>19.82</v>
       </c>
       <c r="N226" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -11479,7 +11635,7 @@
         <v>24</v>
       </c>
       <c r="F227" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G227">
         <v>9</v>
@@ -11503,7 +11659,7 @@
         <v>53.99</v>
       </c>
       <c r="N227" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -11523,7 +11679,7 @@
         <v>24</v>
       </c>
       <c r="F228" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G228">
         <v>10</v>
@@ -11547,7 +11703,7 @@
         <v>83.81</v>
       </c>
       <c r="N228" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -11567,7 +11723,7 @@
         <v>24</v>
       </c>
       <c r="F229" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G229">
         <v>11</v>
@@ -11591,7 +11747,7 @@
         <v>103.89</v>
       </c>
       <c r="N229" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -11611,7 +11767,7 @@
         <v>24</v>
       </c>
       <c r="F230" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G230">
         <v>12</v>
@@ -11635,7 +11791,7 @@
         <v>111.64</v>
       </c>
       <c r="N230" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -11655,7 +11811,7 @@
         <v>24</v>
       </c>
       <c r="F231" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G231">
         <v>13</v>
@@ -11679,7 +11835,7 @@
         <v>106.16</v>
       </c>
       <c r="N231" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -11699,7 +11855,7 @@
         <v>24</v>
       </c>
       <c r="F232" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G232">
         <v>14</v>
@@ -11723,7 +11879,7 @@
         <v>88.08</v>
       </c>
       <c r="N232" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -11743,7 +11899,7 @@
         <v>24</v>
       </c>
       <c r="F233" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G233">
         <v>15</v>
@@ -11767,7 +11923,7 @@
         <v>59.67</v>
       </c>
       <c r="N233" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -11787,7 +11943,7 @@
         <v>24</v>
       </c>
       <c r="F234" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G234">
         <v>16</v>
@@ -11811,7 +11967,7 @@
         <v>25.61</v>
       </c>
       <c r="N234" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -11831,7 +11987,7 @@
         <v>24</v>
       </c>
       <c r="F235" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G235">
         <v>17</v>
@@ -11855,7 +12011,7 @@
         <v>1.53</v>
       </c>
       <c r="N235" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -11875,7 +12031,7 @@
         <v>24</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G236">
         <v>18</v>
@@ -11899,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="N236" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -11919,7 +12075,7 @@
         <v>24</v>
       </c>
       <c r="F237" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G237">
         <v>19</v>
@@ -11943,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="N237" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -11963,7 +12119,7 @@
         <v>24</v>
       </c>
       <c r="F238" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G238">
         <v>20</v>
@@ -11987,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="N238" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -12007,7 +12163,7 @@
         <v>24</v>
       </c>
       <c r="F239" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G239">
         <v>21</v>
@@ -12031,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="N239" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -12051,7 +12207,7 @@
         <v>24</v>
       </c>
       <c r="F240" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G240">
         <v>22</v>
@@ -12075,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="N240" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -12095,7 +12251,7 @@
         <v>24</v>
       </c>
       <c r="F241" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G241">
         <v>23</v>
@@ -12119,7 +12275,7 @@
         <v>0</v>
       </c>
       <c r="N241" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -12139,7 +12295,7 @@
         <v>25</v>
       </c>
       <c r="F242" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -12163,7 +12319,7 @@
         <v>0</v>
       </c>
       <c r="N242" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -12183,7 +12339,7 @@
         <v>25</v>
       </c>
       <c r="F243" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -12207,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="N243" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -12227,7 +12383,7 @@
         <v>25</v>
       </c>
       <c r="F244" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -12251,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="N244" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -12271,7 +12427,7 @@
         <v>25</v>
       </c>
       <c r="F245" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G245">
         <v>3</v>
@@ -12295,7 +12451,7 @@
         <v>0</v>
       </c>
       <c r="N245" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -12315,7 +12471,7 @@
         <v>25</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G246">
         <v>4</v>
@@ -12339,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="N246" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -12359,7 +12515,7 @@
         <v>25</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G247">
         <v>5</v>
@@ -12383,7 +12539,7 @@
         <v>0</v>
       </c>
       <c r="N247" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -12403,7 +12559,7 @@
         <v>25</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G248">
         <v>6</v>
@@ -12427,7 +12583,7 @@
         <v>0</v>
       </c>
       <c r="N248" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -12447,7 +12603,7 @@
         <v>25</v>
       </c>
       <c r="F249" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G249">
         <v>7</v>
@@ -12471,7 +12627,7 @@
         <v>0.21</v>
       </c>
       <c r="N249" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -12491,7 +12647,7 @@
         <v>25</v>
       </c>
       <c r="F250" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G250">
         <v>8</v>
@@ -12515,7 +12671,7 @@
         <v>18.18</v>
       </c>
       <c r="N250" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -12535,7 +12691,7 @@
         <v>25</v>
       </c>
       <c r="F251" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G251">
         <v>9</v>
@@ -12559,7 +12715,7 @@
         <v>52.53</v>
       </c>
       <c r="N251" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -12579,7 +12735,7 @@
         <v>25</v>
       </c>
       <c r="F252" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G252">
         <v>10</v>
@@ -12603,7 +12759,7 @@
         <v>83.06999999999999</v>
       </c>
       <c r="N252" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -12623,7 +12779,7 @@
         <v>25</v>
       </c>
       <c r="F253" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G253">
         <v>11</v>
@@ -12647,7 +12803,7 @@
         <v>104.09</v>
       </c>
       <c r="N253" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -12667,7 +12823,7 @@
         <v>25</v>
       </c>
       <c r="F254" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G254">
         <v>12</v>
@@ -12691,7 +12847,7 @@
         <v>112.88</v>
       </c>
       <c r="N254" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -12711,7 +12867,7 @@
         <v>25</v>
       </c>
       <c r="F255" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G255">
         <v>13</v>
@@ -12735,7 +12891,7 @@
         <v>108.41</v>
       </c>
       <c r="N255" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -12755,7 +12911,7 @@
         <v>25</v>
       </c>
       <c r="F256" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G256">
         <v>14</v>
@@ -12779,7 +12935,7 @@
         <v>91.38</v>
       </c>
       <c r="N256" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -12799,7 +12955,7 @@
         <v>25</v>
       </c>
       <c r="F257" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G257">
         <v>15</v>
@@ -12823,7 +12979,7 @@
         <v>63.85</v>
       </c>
       <c r="N257" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -12843,7 +12999,7 @@
         <v>25</v>
       </c>
       <c r="F258" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G258">
         <v>16</v>
@@ -12867,7 +13023,7 @@
         <v>29.65</v>
       </c>
       <c r="N258" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -12887,7 +13043,7 @@
         <v>25</v>
       </c>
       <c r="F259" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G259">
         <v>17</v>
@@ -12911,7 +13067,7 @@
         <v>2.69</v>
       </c>
       <c r="N259" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -12931,7 +13087,7 @@
         <v>25</v>
       </c>
       <c r="F260" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G260">
         <v>18</v>
@@ -12955,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="N260" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -12975,7 +13131,7 @@
         <v>25</v>
       </c>
       <c r="F261" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G261">
         <v>19</v>
@@ -12999,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="N261" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -13019,7 +13175,7 @@
         <v>25</v>
       </c>
       <c r="F262" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G262">
         <v>20</v>
@@ -13043,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="N262" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -13063,7 +13219,7 @@
         <v>25</v>
       </c>
       <c r="F263" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G263">
         <v>21</v>
@@ -13087,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="N263" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -13107,7 +13263,7 @@
         <v>25</v>
       </c>
       <c r="F264" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G264">
         <v>22</v>
@@ -13131,7 +13287,7 @@
         <v>0</v>
       </c>
       <c r="N264" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -13151,7 +13307,7 @@
         <v>25</v>
       </c>
       <c r="F265" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G265">
         <v>23</v>
@@ -13175,15 +13331,15 @@
         <v>0</v>
       </c>
       <c r="N265" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="266" spans="1:14">
       <c r="A266">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B266">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C266" s="2">
         <v>45328</v>
@@ -13195,7 +13351,7 @@
         <v>26</v>
       </c>
       <c r="F266" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -13219,15 +13375,15 @@
         <v>0</v>
       </c>
       <c r="N266" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="267" spans="1:14">
       <c r="A267">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B267">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C267" s="2">
         <v>45328</v>
@@ -13239,7 +13395,7 @@
         <v>26</v>
       </c>
       <c r="F267" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -13263,15 +13419,15 @@
         <v>0</v>
       </c>
       <c r="N267" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="268" spans="1:14">
       <c r="A268">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B268">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C268" s="2">
         <v>45328</v>
@@ -13283,7 +13439,7 @@
         <v>26</v>
       </c>
       <c r="F268" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G268">
         <v>2</v>
@@ -13307,15 +13463,15 @@
         <v>0</v>
       </c>
       <c r="N268" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="269" spans="1:14">
       <c r="A269">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B269">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C269" s="2">
         <v>45328</v>
@@ -13327,7 +13483,7 @@
         <v>26</v>
       </c>
       <c r="F269" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G269">
         <v>3</v>
@@ -13351,15 +13507,15 @@
         <v>0</v>
       </c>
       <c r="N269" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="270" spans="1:14">
       <c r="A270">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B270">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C270" s="2">
         <v>45328</v>
@@ -13371,7 +13527,7 @@
         <v>26</v>
       </c>
       <c r="F270" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G270">
         <v>4</v>
@@ -13395,15 +13551,15 @@
         <v>0</v>
       </c>
       <c r="N270" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="271" spans="1:14">
       <c r="A271">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B271">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C271" s="2">
         <v>45328</v>
@@ -13415,7 +13571,7 @@
         <v>26</v>
       </c>
       <c r="F271" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G271">
         <v>5</v>
@@ -13439,15 +13595,15 @@
         <v>0</v>
       </c>
       <c r="N271" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="272" spans="1:14">
       <c r="A272">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B272">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C272" s="2">
         <v>45328</v>
@@ -13459,7 +13615,7 @@
         <v>26</v>
       </c>
       <c r="F272" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G272">
         <v>6</v>
@@ -13483,15 +13639,15 @@
         <v>0</v>
       </c>
       <c r="N272" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="273" spans="1:14">
       <c r="A273">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B273">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C273" s="2">
         <v>45328</v>
@@ -13503,39 +13659,39 @@
         <v>26</v>
       </c>
       <c r="F273" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G273">
         <v>7</v>
       </c>
       <c r="H273">
-        <v>1.59</v>
+        <v>1.16</v>
       </c>
       <c r="I273">
-        <v>14.73</v>
+        <v>10.81</v>
       </c>
       <c r="J273">
-        <v>3.19</v>
+        <v>2.74</v>
       </c>
       <c r="K273">
-        <v>0.62</v>
+        <v>1.16</v>
       </c>
       <c r="L273">
         <v>0</v>
       </c>
       <c r="M273">
-        <v>0.62</v>
+        <v>1.16</v>
       </c>
       <c r="N273" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="274" spans="1:14">
       <c r="A274">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B274">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C274" s="2">
         <v>45328</v>
@@ -13547,39 +13703,39 @@
         <v>26</v>
       </c>
       <c r="F274" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G274">
         <v>8</v>
       </c>
       <c r="H274">
-        <v>76.93000000000001</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="I274">
-        <v>356.82</v>
+        <v>352.91</v>
       </c>
       <c r="J274">
-        <v>41.3</v>
+        <v>40.93</v>
       </c>
       <c r="K274">
-        <v>36.72</v>
+        <v>76</v>
       </c>
       <c r="L274">
-        <v>5.54</v>
+        <v>264.93</v>
       </c>
       <c r="M274">
-        <v>35.77</v>
+        <v>39.64</v>
       </c>
       <c r="N274" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="275" spans="1:14">
       <c r="A275">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B275">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C275" s="2">
         <v>45328</v>
@@ -13591,39 +13747,39 @@
         <v>26</v>
       </c>
       <c r="F275" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G275">
         <v>9</v>
       </c>
       <c r="H275">
-        <v>210.49</v>
+        <v>214.47</v>
       </c>
       <c r="I275">
-        <v>595.58</v>
+        <v>599.88</v>
       </c>
       <c r="J275">
-        <v>67.18000000000001</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="K275">
-        <v>117.51</v>
+        <v>214.42</v>
       </c>
       <c r="L275">
-        <v>57.27</v>
+        <v>593.86</v>
       </c>
       <c r="M275">
-        <v>102.57</v>
+        <v>60.66</v>
       </c>
       <c r="N275" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="276" spans="1:14">
       <c r="A276">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B276">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C276" s="2">
         <v>45328</v>
@@ -13635,39 +13791,39 @@
         <v>26</v>
       </c>
       <c r="F276" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G276">
         <v>10</v>
       </c>
       <c r="H276">
-        <v>327.29</v>
+        <v>337.15</v>
       </c>
       <c r="I276">
-        <v>704.21</v>
+        <v>711.35</v>
       </c>
       <c r="J276">
-        <v>81.58</v>
+        <v>82.61</v>
       </c>
       <c r="K276">
-        <v>200.92</v>
+        <v>336.92</v>
       </c>
       <c r="L276">
-        <v>120.25</v>
+        <v>711.52</v>
       </c>
       <c r="M276">
-        <v>157.17</v>
+        <v>74.81999999999999</v>
       </c>
       <c r="N276" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="277" spans="1:14">
       <c r="A277">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B277">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C277" s="2">
         <v>45328</v>
@@ -13679,39 +13835,39 @@
         <v>26</v>
       </c>
       <c r="F277" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G277">
         <v>11</v>
       </c>
       <c r="H277">
-        <v>406.03</v>
+        <v>421.56</v>
       </c>
       <c r="I277">
-        <v>757.04</v>
+        <v>766.0700000000001</v>
       </c>
       <c r="J277">
-        <v>89.42</v>
+        <v>90.83</v>
       </c>
       <c r="K277">
-        <v>263.89</v>
+        <v>420.16</v>
       </c>
       <c r="L277">
-        <v>163.24</v>
+        <v>760.09</v>
       </c>
       <c r="M277">
-        <v>194.17</v>
+        <v>85</v>
       </c>
       <c r="N277" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="278" spans="1:14">
       <c r="A278">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B278">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C278" s="2">
         <v>45328</v>
@@ -13723,39 +13879,39 @@
         <v>26</v>
       </c>
       <c r="F278" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G278">
         <v>12</v>
       </c>
       <c r="H278">
-        <v>436.54</v>
+        <v>456.88</v>
       </c>
       <c r="I278">
-        <v>774.72</v>
+        <v>785.65</v>
       </c>
       <c r="J278">
-        <v>92.18000000000001</v>
+        <v>93.94</v>
       </c>
       <c r="K278">
-        <v>277.56</v>
+        <v>451.96</v>
       </c>
       <c r="L278">
-        <v>151.43</v>
+        <v>763.83</v>
       </c>
       <c r="M278">
-        <v>208.86</v>
+        <v>92.26000000000001</v>
       </c>
       <c r="N278" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="279" spans="1:14">
       <c r="A279">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B279">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C279" s="2">
         <v>45328</v>
@@ -13767,39 +13923,39 @@
         <v>26</v>
       </c>
       <c r="F279" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G279">
         <v>13</v>
       </c>
       <c r="H279">
-        <v>415.25</v>
+        <v>439.04</v>
       </c>
       <c r="I279">
-        <v>762.62</v>
+        <v>776.04</v>
       </c>
       <c r="J279">
-        <v>90.25</v>
+        <v>92.38</v>
       </c>
       <c r="K279">
-        <v>264.77</v>
+        <v>431.82</v>
       </c>
       <c r="L279">
-        <v>151.81</v>
+        <v>745.9299999999999</v>
       </c>
       <c r="M279">
-        <v>198.67</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="N279" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="280" spans="1:14">
       <c r="A280">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B280">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C280" s="2">
         <v>45328</v>
@@ -13811,39 +13967,39 @@
         <v>26</v>
       </c>
       <c r="F280" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G280">
         <v>14</v>
       </c>
       <c r="H280">
-        <v>344.63</v>
+        <v>370.07</v>
       </c>
       <c r="I280">
-        <v>717.0700000000001</v>
+        <v>734.34</v>
       </c>
       <c r="J280">
-        <v>83.38</v>
+        <v>85.94</v>
       </c>
       <c r="K280">
-        <v>234.29</v>
+        <v>346.31</v>
       </c>
       <c r="L280">
-        <v>190.05</v>
+        <v>606.77</v>
       </c>
       <c r="M280">
-        <v>163.85</v>
+        <v>103.34</v>
       </c>
       <c r="N280" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="281" spans="1:14">
       <c r="A281">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B281">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C281" s="2">
         <v>45328</v>
@@ -13855,39 +14011,39 @@
         <v>26</v>
       </c>
       <c r="F281" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G281">
         <v>15</v>
       </c>
       <c r="H281">
-        <v>233.56</v>
+        <v>258.39</v>
       </c>
       <c r="I281">
-        <v>621.38</v>
+        <v>645.9400000000001</v>
       </c>
       <c r="J281">
-        <v>70.34</v>
+        <v>73.55</v>
       </c>
       <c r="K281">
-        <v>166.71</v>
+        <v>185.99</v>
       </c>
       <c r="L281">
-        <v>189.37</v>
+        <v>213.56</v>
       </c>
       <c r="M281">
-        <v>113.13</v>
+        <v>120.26</v>
       </c>
       <c r="N281" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="282" spans="1:14">
       <c r="A282">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B282">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C282" s="2">
         <v>45328</v>
@@ -13899,39 +14055,39 @@
         <v>26</v>
       </c>
       <c r="F282" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G282">
         <v>16</v>
       </c>
       <c r="H282">
-        <v>100.39</v>
+        <v>121.25</v>
       </c>
       <c r="I282">
-        <v>418</v>
+        <v>461.61</v>
       </c>
       <c r="J282">
-        <v>47.33</v>
+        <v>51.88</v>
       </c>
       <c r="K282">
-        <v>62.96</v>
+        <v>71.28</v>
       </c>
       <c r="L282">
-        <v>52.21</v>
+        <v>44.62</v>
       </c>
       <c r="M282">
-        <v>54.21</v>
+        <v>62.81</v>
       </c>
       <c r="N282" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="283" spans="1:14">
       <c r="A283">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B283">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C283" s="2">
         <v>45328</v>
@@ -13943,39 +14099,39 @@
         <v>26</v>
       </c>
       <c r="F283" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G283">
         <v>17</v>
       </c>
       <c r="H283">
-        <v>6.08</v>
+        <v>11.9</v>
       </c>
       <c r="I283">
-        <v>47.38</v>
+        <v>84.43000000000001</v>
       </c>
       <c r="J283">
-        <v>7.8</v>
+        <v>11.68</v>
       </c>
       <c r="K283">
-        <v>3.58</v>
+        <v>6.33</v>
       </c>
       <c r="L283">
         <v>0</v>
       </c>
       <c r="M283">
-        <v>3.58</v>
+        <v>6.33</v>
       </c>
       <c r="N283" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="284" spans="1:14">
       <c r="A284">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B284">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C284" s="2">
         <v>45328</v>
@@ -13987,7 +14143,7 @@
         <v>26</v>
       </c>
       <c r="F284" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G284">
         <v>18</v>
@@ -14011,15 +14167,15 @@
         <v>0</v>
       </c>
       <c r="N284" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="285" spans="1:14">
       <c r="A285">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B285">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C285" s="2">
         <v>45328</v>
@@ -14031,7 +14187,7 @@
         <v>26</v>
       </c>
       <c r="F285" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G285">
         <v>19</v>
@@ -14055,15 +14211,15 @@
         <v>0</v>
       </c>
       <c r="N285" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="286" spans="1:14">
       <c r="A286">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B286">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C286" s="2">
         <v>45328</v>
@@ -14075,7 +14231,7 @@
         <v>26</v>
       </c>
       <c r="F286" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G286">
         <v>20</v>
@@ -14099,15 +14255,15 @@
         <v>0</v>
       </c>
       <c r="N286" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="287" spans="1:14">
       <c r="A287">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B287">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C287" s="2">
         <v>45328</v>
@@ -14119,7 +14275,7 @@
         <v>26</v>
       </c>
       <c r="F287" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G287">
         <v>21</v>
@@ -14143,15 +14299,15 @@
         <v>0</v>
       </c>
       <c r="N287" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="288" spans="1:14">
       <c r="A288">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B288">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C288" s="2">
         <v>45328</v>
@@ -14163,7 +14319,7 @@
         <v>26</v>
       </c>
       <c r="F288" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G288">
         <v>22</v>
@@ -14187,15 +14343,15 @@
         <v>0</v>
       </c>
       <c r="N288" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="289" spans="1:14">
       <c r="A289">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B289">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C289" s="2">
         <v>45328</v>
@@ -14207,7 +14363,7 @@
         <v>26</v>
       </c>
       <c r="F289" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G289">
         <v>23</v>
@@ -14231,7 +14387,7 @@
         <v>0</v>
       </c>
       <c r="N289" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="290" spans="1:14">
@@ -14251,7 +14407,7 @@
         <v>27</v>
       </c>
       <c r="F290" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -14275,7 +14431,7 @@
         <v>0</v>
       </c>
       <c r="N290" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="291" spans="1:14">
@@ -14295,7 +14451,7 @@
         <v>27</v>
       </c>
       <c r="F291" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -14319,7 +14475,7 @@
         <v>0</v>
       </c>
       <c r="N291" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="292" spans="1:14">
@@ -14339,7 +14495,7 @@
         <v>27</v>
       </c>
       <c r="F292" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G292">
         <v>2</v>
@@ -14363,7 +14519,7 @@
         <v>0</v>
       </c>
       <c r="N292" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="293" spans="1:14">
@@ -14383,7 +14539,7 @@
         <v>27</v>
       </c>
       <c r="F293" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G293">
         <v>3</v>
@@ -14407,7 +14563,7 @@
         <v>0</v>
       </c>
       <c r="N293" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="294" spans="1:14">
@@ -14427,7 +14583,7 @@
         <v>27</v>
       </c>
       <c r="F294" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G294">
         <v>4</v>
@@ -14451,7 +14607,7 @@
         <v>0</v>
       </c>
       <c r="N294" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -14471,7 +14627,7 @@
         <v>27</v>
       </c>
       <c r="F295" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G295">
         <v>5</v>
@@ -14495,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="N295" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="296" spans="1:14">
@@ -14515,7 +14671,7 @@
         <v>27</v>
       </c>
       <c r="F296" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G296">
         <v>6</v>
@@ -14539,7 +14695,7 @@
         <v>0</v>
       </c>
       <c r="N296" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="297" spans="1:14">
@@ -14559,7 +14715,7 @@
         <v>27</v>
       </c>
       <c r="F297" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G297">
         <v>7</v>
@@ -14574,16 +14730,16 @@
         <v>3.6</v>
       </c>
       <c r="K297">
-        <v>0.73</v>
+        <v>1.47</v>
       </c>
       <c r="L297">
         <v>0</v>
       </c>
       <c r="M297">
-        <v>0.73</v>
+        <v>1.47</v>
       </c>
       <c r="N297" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="298" spans="1:14">
@@ -14603,7 +14759,7 @@
         <v>27</v>
       </c>
       <c r="F298" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G298">
         <v>8</v>
@@ -14618,16 +14774,16 @@
         <v>42.24</v>
       </c>
       <c r="K298">
-        <v>26.79</v>
+        <v>41.8</v>
       </c>
       <c r="L298">
-        <v>0</v>
+        <v>13.13</v>
       </c>
       <c r="M298">
-        <v>26.79</v>
+        <v>40.33</v>
       </c>
       <c r="N298" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="299" spans="1:14">
@@ -14647,7 +14803,7 @@
         <v>27</v>
       </c>
       <c r="F299" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G299">
         <v>9</v>
@@ -14662,16 +14818,16 @@
         <v>67.75</v>
       </c>
       <c r="K299">
-        <v>69.95</v>
+        <v>57.79</v>
       </c>
       <c r="L299">
         <v>0</v>
       </c>
       <c r="M299">
-        <v>69.95</v>
+        <v>57.79</v>
       </c>
       <c r="N299" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="300" spans="1:14">
@@ -14691,7 +14847,7 @@
         <v>27</v>
       </c>
       <c r="F300" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G300">
         <v>10</v>
@@ -14700,22 +14856,22 @@
         <v>332.49</v>
       </c>
       <c r="I300">
-        <v>708.34</v>
+        <v>708.35</v>
       </c>
       <c r="J300">
         <v>82.03</v>
       </c>
       <c r="K300">
-        <v>115.28</v>
+        <v>86.63</v>
       </c>
       <c r="L300">
         <v>0</v>
       </c>
       <c r="M300">
-        <v>115.28</v>
+        <v>86.63</v>
       </c>
       <c r="N300" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="301" spans="1:14">
@@ -14735,31 +14891,31 @@
         <v>27</v>
       </c>
       <c r="F301" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G301">
         <v>11</v>
       </c>
       <c r="H301">
-        <v>411.55</v>
+        <v>411.54</v>
       </c>
       <c r="I301">
-        <v>760.59</v>
+        <v>760.5700000000001</v>
       </c>
       <c r="J301">
         <v>89.81</v>
       </c>
       <c r="K301">
-        <v>143.85</v>
+        <v>107.19</v>
       </c>
       <c r="L301">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="M301">
-        <v>143.57</v>
+        <v>107.19</v>
       </c>
       <c r="N301" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="302" spans="1:14">
@@ -14779,31 +14935,31 @@
         <v>27</v>
       </c>
       <c r="F302" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G302">
         <v>12</v>
       </c>
       <c r="H302">
-        <v>442.22</v>
+        <v>442.21</v>
       </c>
       <c r="I302">
-        <v>778.15</v>
+        <v>778.11</v>
       </c>
       <c r="J302">
-        <v>92.54000000000001</v>
+        <v>92.55</v>
       </c>
       <c r="K302">
-        <v>156.25</v>
+        <v>121.03</v>
       </c>
       <c r="L302">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="M302">
-        <v>155.25</v>
+        <v>121.03</v>
       </c>
       <c r="N302" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="303" spans="1:14">
@@ -14823,31 +14979,31 @@
         <v>27</v>
       </c>
       <c r="F303" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G303">
         <v>13</v>
       </c>
       <c r="H303">
-        <v>420.95</v>
+        <v>420.94</v>
       </c>
       <c r="I303">
-        <v>766.27</v>
+        <v>766.25</v>
       </c>
       <c r="J303">
         <v>90.63</v>
       </c>
       <c r="K303">
-        <v>143.72</v>
+        <v>125.65</v>
       </c>
       <c r="L303">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="M303">
-        <v>143.62</v>
+        <v>125.65</v>
       </c>
       <c r="N303" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="304" spans="1:14">
@@ -14867,31 +15023,31 @@
         <v>27</v>
       </c>
       <c r="F304" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G304">
         <v>14</v>
       </c>
       <c r="H304">
-        <v>350.14</v>
+        <v>350.16</v>
       </c>
       <c r="I304">
-        <v>721.3200000000001</v>
+        <v>721.36</v>
       </c>
       <c r="J304">
-        <v>83.81999999999999</v>
+        <v>83.81</v>
       </c>
       <c r="K304">
-        <v>115.26</v>
+        <v>143.96</v>
       </c>
       <c r="L304">
-        <v>0</v>
+        <v>16.45</v>
       </c>
       <c r="M304">
-        <v>115.26</v>
+        <v>138.1</v>
       </c>
       <c r="N304" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -14911,31 +15067,31 @@
         <v>27</v>
       </c>
       <c r="F305" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G305">
         <v>15</v>
       </c>
       <c r="H305">
-        <v>238.66</v>
+        <v>238.68</v>
       </c>
       <c r="I305">
-        <v>627.08</v>
+        <v>627.16</v>
       </c>
       <c r="J305">
-        <v>70.92</v>
+        <v>70.91</v>
       </c>
       <c r="K305">
-        <v>84.06999999999999</v>
+        <v>132.55</v>
       </c>
       <c r="L305">
-        <v>0</v>
+        <v>60.6</v>
       </c>
       <c r="M305">
-        <v>84.06999999999999</v>
+        <v>115.19</v>
       </c>
       <c r="N305" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="306" spans="1:14">
@@ -14955,31 +15111,31 @@
         <v>27</v>
       </c>
       <c r="F306" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G306">
         <v>16</v>
       </c>
       <c r="H306">
-        <v>104.59</v>
+        <v>104.6</v>
       </c>
       <c r="I306">
-        <v>427.86</v>
+        <v>427.93</v>
       </c>
       <c r="J306">
         <v>48.23</v>
       </c>
       <c r="K306">
-        <v>43.56</v>
+        <v>53.41</v>
       </c>
       <c r="L306">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M306">
-        <v>43.56</v>
+        <v>51.29</v>
       </c>
       <c r="N306" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="307" spans="1:14">
@@ -14999,7 +15155,7 @@
         <v>27</v>
       </c>
       <c r="F307" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G307">
         <v>17</v>
@@ -15008,22 +15164,22 @@
         <v>7.15</v>
       </c>
       <c r="I307">
-        <v>54.88</v>
+        <v>54.9</v>
       </c>
       <c r="J307">
         <v>8.67</v>
       </c>
       <c r="K307">
-        <v>3.16</v>
+        <v>3.51</v>
       </c>
       <c r="L307">
         <v>0</v>
       </c>
       <c r="M307">
-        <v>3.16</v>
+        <v>3.51</v>
       </c>
       <c r="N307" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -15043,7 +15199,7 @@
         <v>27</v>
       </c>
       <c r="F308" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G308">
         <v>18</v>
@@ -15067,7 +15223,7 @@
         <v>0</v>
       </c>
       <c r="N308" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="309" spans="1:14">
@@ -15087,7 +15243,7 @@
         <v>27</v>
       </c>
       <c r="F309" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G309">
         <v>19</v>
@@ -15111,7 +15267,7 @@
         <v>0</v>
       </c>
       <c r="N309" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -15131,7 +15287,7 @@
         <v>27</v>
       </c>
       <c r="F310" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G310">
         <v>20</v>
@@ -15155,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="N310" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="311" spans="1:14">
@@ -15175,7 +15331,7 @@
         <v>27</v>
       </c>
       <c r="F311" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G311">
         <v>21</v>
@@ -15199,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="N311" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -15219,7 +15375,7 @@
         <v>27</v>
       </c>
       <c r="F312" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G312">
         <v>22</v>
@@ -15243,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="N312" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -15263,7 +15419,7 @@
         <v>27</v>
       </c>
       <c r="F313" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G313">
         <v>23</v>
@@ -15287,7 +15443,7 @@
         <v>0</v>
       </c>
       <c r="N313" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="314" spans="1:14">
@@ -15307,7 +15463,7 @@
         <v>28</v>
       </c>
       <c r="F314" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -15331,7 +15487,7 @@
         <v>0</v>
       </c>
       <c r="N314" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -15351,7 +15507,7 @@
         <v>28</v>
       </c>
       <c r="F315" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G315">
         <v>1</v>
@@ -15375,7 +15531,7 @@
         <v>0</v>
       </c>
       <c r="N315" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -15395,7 +15551,7 @@
         <v>28</v>
       </c>
       <c r="F316" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G316">
         <v>2</v>
@@ -15419,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="N316" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -15439,7 +15595,7 @@
         <v>28</v>
       </c>
       <c r="F317" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G317">
         <v>3</v>
@@ -15463,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="N317" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="318" spans="1:14">
@@ -15483,7 +15639,7 @@
         <v>28</v>
       </c>
       <c r="F318" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G318">
         <v>4</v>
@@ -15507,7 +15663,7 @@
         <v>0</v>
       </c>
       <c r="N318" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="319" spans="1:14">
@@ -15527,7 +15683,7 @@
         <v>28</v>
       </c>
       <c r="F319" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G319">
         <v>5</v>
@@ -15551,7 +15707,7 @@
         <v>0</v>
       </c>
       <c r="N319" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="320" spans="1:14">
@@ -15571,7 +15727,7 @@
         <v>28</v>
       </c>
       <c r="F320" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G320">
         <v>6</v>
@@ -15595,7 +15751,7 @@
         <v>0</v>
       </c>
       <c r="N320" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="321" spans="1:14">
@@ -15615,7 +15771,7 @@
         <v>28</v>
       </c>
       <c r="F321" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G321">
         <v>7</v>
@@ -15630,16 +15786,16 @@
         <v>4.01</v>
       </c>
       <c r="K321">
-        <v>0.88</v>
+        <v>0.64</v>
       </c>
       <c r="L321">
         <v>0</v>
       </c>
       <c r="M321">
-        <v>0.88</v>
+        <v>0.64</v>
       </c>
       <c r="N321" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="322" spans="1:14">
@@ -15659,31 +15815,31 @@
         <v>28</v>
       </c>
       <c r="F322" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G322">
         <v>8</v>
       </c>
       <c r="H322">
-        <v>84.2</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="I322">
-        <v>377.49</v>
+        <v>377.5</v>
       </c>
       <c r="J322">
         <v>43.19</v>
       </c>
       <c r="K322">
-        <v>30.6</v>
+        <v>21.31</v>
       </c>
       <c r="L322">
         <v>0</v>
       </c>
       <c r="M322">
-        <v>30.6</v>
+        <v>21.31</v>
       </c>
       <c r="N322" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="323" spans="1:14">
@@ -15703,7 +15859,7 @@
         <v>28</v>
       </c>
       <c r="F323" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G323">
         <v>9</v>
@@ -15718,16 +15874,16 @@
         <v>68.34999999999999</v>
       </c>
       <c r="K323">
-        <v>82.94</v>
+        <v>55.31</v>
       </c>
       <c r="L323">
         <v>0</v>
       </c>
       <c r="M323">
-        <v>82.94</v>
+        <v>55.31</v>
       </c>
       <c r="N323" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="324" spans="1:14">
@@ -15747,7 +15903,7 @@
         <v>28</v>
       </c>
       <c r="F324" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G324">
         <v>10</v>
@@ -15756,22 +15912,22 @@
         <v>337.7</v>
       </c>
       <c r="I324">
-        <v>712.23</v>
+        <v>712.24</v>
       </c>
       <c r="J324">
         <v>82.51000000000001</v>
       </c>
       <c r="K324">
-        <v>122</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="L324">
         <v>0</v>
       </c>
       <c r="M324">
-        <v>122</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="N324" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="325" spans="1:14">
@@ -15791,7 +15947,7 @@
         <v>28</v>
       </c>
       <c r="F325" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G325">
         <v>11</v>
@@ -15800,22 +15956,22 @@
         <v>417.05</v>
       </c>
       <c r="I325">
-        <v>763.83</v>
+        <v>763.85</v>
       </c>
       <c r="J325">
         <v>90.23999999999999</v>
       </c>
       <c r="K325">
-        <v>142.53</v>
+        <v>104.57</v>
       </c>
       <c r="L325">
         <v>0</v>
       </c>
       <c r="M325">
-        <v>142.53</v>
+        <v>104.57</v>
       </c>
       <c r="N325" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="326" spans="1:14">
@@ -15835,7 +15991,7 @@
         <v>28</v>
       </c>
       <c r="F326" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G326">
         <v>12</v>
@@ -15844,22 +16000,22 @@
         <v>447.84</v>
       </c>
       <c r="I326">
-        <v>781.1799999999999</v>
+        <v>781.1900000000001</v>
       </c>
       <c r="J326">
         <v>92.97</v>
       </c>
       <c r="K326">
-        <v>146.14</v>
+        <v>112.57</v>
       </c>
       <c r="L326">
         <v>0</v>
       </c>
       <c r="M326">
-        <v>146.14</v>
+        <v>112.57</v>
       </c>
       <c r="N326" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="327" spans="1:14">
@@ -15879,7 +16035,7 @@
         <v>28</v>
       </c>
       <c r="F327" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G327">
         <v>13</v>
@@ -15888,22 +16044,22 @@
         <v>426.54</v>
       </c>
       <c r="I327">
-        <v>769.42</v>
+        <v>769.4400000000001</v>
       </c>
       <c r="J327">
-        <v>91.08</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="K327">
-        <v>133.21</v>
+        <v>107.5</v>
       </c>
       <c r="L327">
         <v>0</v>
       </c>
       <c r="M327">
-        <v>133.21</v>
+        <v>107.5</v>
       </c>
       <c r="N327" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="328" spans="1:14">
@@ -15923,31 +16079,31 @@
         <v>28</v>
       </c>
       <c r="F328" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G328">
         <v>14</v>
       </c>
       <c r="H328">
-        <v>355.55</v>
+        <v>355.57</v>
       </c>
       <c r="I328">
-        <v>725.01</v>
+        <v>725.05</v>
       </c>
       <c r="J328">
-        <v>84.31999999999999</v>
+        <v>84.31</v>
       </c>
       <c r="K328">
-        <v>101.71</v>
+        <v>89.31</v>
       </c>
       <c r="L328">
         <v>0</v>
       </c>
       <c r="M328">
-        <v>101.71</v>
+        <v>89.31</v>
       </c>
       <c r="N328" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="329" spans="1:14">
@@ -15967,31 +16123,31 @@
         <v>28</v>
       </c>
       <c r="F329" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G329">
         <v>15</v>
       </c>
       <c r="H329">
-        <v>243.68</v>
+        <v>243.69</v>
       </c>
       <c r="I329">
-        <v>632.11</v>
+        <v>632.17</v>
       </c>
       <c r="J329">
-        <v>71.54000000000001</v>
+        <v>71.53</v>
       </c>
       <c r="K329">
-        <v>62.05</v>
+        <v>60.92</v>
       </c>
       <c r="L329">
         <v>0</v>
       </c>
       <c r="M329">
-        <v>62.05</v>
+        <v>60.92</v>
       </c>
       <c r="N329" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="330" spans="1:14">
@@ -16011,31 +16167,31 @@
         <v>28</v>
       </c>
       <c r="F330" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G330">
         <v>16</v>
       </c>
       <c r="H330">
-        <v>108.77</v>
+        <v>108.78</v>
       </c>
       <c r="I330">
-        <v>436.93</v>
+        <v>437</v>
       </c>
       <c r="J330">
         <v>49.14</v>
       </c>
       <c r="K330">
-        <v>28.56</v>
+        <v>27.2</v>
       </c>
       <c r="L330">
         <v>0</v>
       </c>
       <c r="M330">
-        <v>28.56</v>
+        <v>27.2</v>
       </c>
       <c r="N330" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="331" spans="1:14">
@@ -16055,7 +16211,7 @@
         <v>28</v>
       </c>
       <c r="F331" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G331">
         <v>17</v>
@@ -16064,22 +16220,22 @@
         <v>8.289999999999999</v>
       </c>
       <c r="I331">
-        <v>62.61</v>
+        <v>62.64</v>
       </c>
       <c r="J331">
         <v>9.49</v>
       </c>
       <c r="K331">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="L331">
         <v>0</v>
       </c>
       <c r="M331">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="N331" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="332" spans="1:14">
@@ -16099,7 +16255,7 @@
         <v>28</v>
       </c>
       <c r="F332" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G332">
         <v>18</v>
@@ -16123,7 +16279,7 @@
         <v>0</v>
       </c>
       <c r="N332" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="333" spans="1:14">
@@ -16143,7 +16299,7 @@
         <v>28</v>
       </c>
       <c r="F333" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G333">
         <v>19</v>
@@ -16167,7 +16323,7 @@
         <v>0</v>
       </c>
       <c r="N333" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="334" spans="1:14">
@@ -16187,7 +16343,7 @@
         <v>28</v>
       </c>
       <c r="F334" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G334">
         <v>20</v>
@@ -16211,7 +16367,7 @@
         <v>0</v>
       </c>
       <c r="N334" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="335" spans="1:14">
@@ -16231,7 +16387,7 @@
         <v>28</v>
       </c>
       <c r="F335" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G335">
         <v>21</v>
@@ -16255,7 +16411,7 @@
         <v>0</v>
       </c>
       <c r="N335" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="336" spans="1:14">
@@ -16275,7 +16431,7 @@
         <v>28</v>
       </c>
       <c r="F336" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G336">
         <v>22</v>
@@ -16299,7 +16455,7 @@
         <v>0</v>
       </c>
       <c r="N336" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="337" spans="1:14">
@@ -16319,7 +16475,7 @@
         <v>28</v>
       </c>
       <c r="F337" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G337">
         <v>23</v>
@@ -16343,7 +16499,2119 @@
         <v>0</v>
       </c>
       <c r="N337" t="s">
-        <v>378</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14">
+      <c r="A338">
+        <v>47.2229</v>
+      </c>
+      <c r="B338">
+        <v>24.7244</v>
+      </c>
+      <c r="C338" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D338" t="s">
+        <v>14</v>
+      </c>
+      <c r="E338" t="s">
+        <v>29</v>
+      </c>
+      <c r="F338" t="s">
+        <v>45</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>0</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>0</v>
+      </c>
+      <c r="L338">
+        <v>0</v>
+      </c>
+      <c r="M338">
+        <v>0</v>
+      </c>
+      <c r="N338" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14">
+      <c r="A339">
+        <v>47.2229</v>
+      </c>
+      <c r="B339">
+        <v>24.7244</v>
+      </c>
+      <c r="C339" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D339" t="s">
+        <v>14</v>
+      </c>
+      <c r="E339" t="s">
+        <v>29</v>
+      </c>
+      <c r="F339" t="s">
+        <v>45</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="H339">
+        <v>0</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+      <c r="L339">
+        <v>0</v>
+      </c>
+      <c r="M339">
+        <v>0</v>
+      </c>
+      <c r="N339" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14">
+      <c r="A340">
+        <v>47.2229</v>
+      </c>
+      <c r="B340">
+        <v>24.7244</v>
+      </c>
+      <c r="C340" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D340" t="s">
+        <v>14</v>
+      </c>
+      <c r="E340" t="s">
+        <v>29</v>
+      </c>
+      <c r="F340" t="s">
+        <v>45</v>
+      </c>
+      <c r="G340">
+        <v>2</v>
+      </c>
+      <c r="H340">
+        <v>0</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>0</v>
+      </c>
+      <c r="L340">
+        <v>0</v>
+      </c>
+      <c r="M340">
+        <v>0</v>
+      </c>
+      <c r="N340" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14">
+      <c r="A341">
+        <v>47.2229</v>
+      </c>
+      <c r="B341">
+        <v>24.7244</v>
+      </c>
+      <c r="C341" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D341" t="s">
+        <v>14</v>
+      </c>
+      <c r="E341" t="s">
+        <v>29</v>
+      </c>
+      <c r="F341" t="s">
+        <v>45</v>
+      </c>
+      <c r="G341">
+        <v>3</v>
+      </c>
+      <c r="H341">
+        <v>0</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
+      <c r="L341">
+        <v>0</v>
+      </c>
+      <c r="M341">
+        <v>0</v>
+      </c>
+      <c r="N341" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14">
+      <c r="A342">
+        <v>47.2229</v>
+      </c>
+      <c r="B342">
+        <v>24.7244</v>
+      </c>
+      <c r="C342" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D342" t="s">
+        <v>14</v>
+      </c>
+      <c r="E342" t="s">
+        <v>29</v>
+      </c>
+      <c r="F342" t="s">
+        <v>45</v>
+      </c>
+      <c r="G342">
+        <v>4</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
+      <c r="L342">
+        <v>0</v>
+      </c>
+      <c r="M342">
+        <v>0</v>
+      </c>
+      <c r="N342" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14">
+      <c r="A343">
+        <v>47.2229</v>
+      </c>
+      <c r="B343">
+        <v>24.7244</v>
+      </c>
+      <c r="C343" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D343" t="s">
+        <v>14</v>
+      </c>
+      <c r="E343" t="s">
+        <v>29</v>
+      </c>
+      <c r="F343" t="s">
+        <v>45</v>
+      </c>
+      <c r="G343">
+        <v>5</v>
+      </c>
+      <c r="H343">
+        <v>0</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>0</v>
+      </c>
+      <c r="L343">
+        <v>0</v>
+      </c>
+      <c r="M343">
+        <v>0</v>
+      </c>
+      <c r="N343" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14">
+      <c r="A344">
+        <v>47.2229</v>
+      </c>
+      <c r="B344">
+        <v>24.7244</v>
+      </c>
+      <c r="C344" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D344" t="s">
+        <v>14</v>
+      </c>
+      <c r="E344" t="s">
+        <v>29</v>
+      </c>
+      <c r="F344" t="s">
+        <v>45</v>
+      </c>
+      <c r="G344">
+        <v>6</v>
+      </c>
+      <c r="H344">
+        <v>0</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
+      <c r="L344">
+        <v>0</v>
+      </c>
+      <c r="M344">
+        <v>0</v>
+      </c>
+      <c r="N344" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14">
+      <c r="A345">
+        <v>47.2229</v>
+      </c>
+      <c r="B345">
+        <v>24.7244</v>
+      </c>
+      <c r="C345" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D345" t="s">
+        <v>14</v>
+      </c>
+      <c r="E345" t="s">
+        <v>29</v>
+      </c>
+      <c r="F345" t="s">
+        <v>45</v>
+      </c>
+      <c r="G345">
+        <v>7</v>
+      </c>
+      <c r="H345">
+        <v>3.06</v>
+      </c>
+      <c r="I345">
+        <v>26.69</v>
+      </c>
+      <c r="J345">
+        <v>4.41</v>
+      </c>
+      <c r="K345">
+        <v>0.82</v>
+      </c>
+      <c r="L345">
+        <v>0</v>
+      </c>
+      <c r="M345">
+        <v>0.82</v>
+      </c>
+      <c r="N345" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14">
+      <c r="A346">
+        <v>47.2229</v>
+      </c>
+      <c r="B346">
+        <v>24.7244</v>
+      </c>
+      <c r="C346" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D346" t="s">
+        <v>14</v>
+      </c>
+      <c r="E346" t="s">
+        <v>29</v>
+      </c>
+      <c r="F346" t="s">
+        <v>45</v>
+      </c>
+      <c r="G346">
+        <v>8</v>
+      </c>
+      <c r="H346">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="I346">
+        <v>387.5</v>
+      </c>
+      <c r="J346">
+        <v>44.14</v>
+      </c>
+      <c r="K346">
+        <v>22.82</v>
+      </c>
+      <c r="L346">
+        <v>0</v>
+      </c>
+      <c r="M346">
+        <v>22.82</v>
+      </c>
+      <c r="N346" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14">
+      <c r="A347">
+        <v>47.2229</v>
+      </c>
+      <c r="B347">
+        <v>24.7244</v>
+      </c>
+      <c r="C347" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D347" t="s">
+        <v>14</v>
+      </c>
+      <c r="E347" t="s">
+        <v>29</v>
+      </c>
+      <c r="F347" t="s">
+        <v>45</v>
+      </c>
+      <c r="G347">
+        <v>9</v>
+      </c>
+      <c r="H347">
+        <v>224.67</v>
+      </c>
+      <c r="I347">
+        <v>612.08</v>
+      </c>
+      <c r="J347">
+        <v>68.95999999999999</v>
+      </c>
+      <c r="K347">
+        <v>56.17</v>
+      </c>
+      <c r="L347">
+        <v>0</v>
+      </c>
+      <c r="M347">
+        <v>56.17</v>
+      </c>
+      <c r="N347" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14">
+      <c r="A348">
+        <v>47.2229</v>
+      </c>
+      <c r="B348">
+        <v>24.7244</v>
+      </c>
+      <c r="C348" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D348" t="s">
+        <v>14</v>
+      </c>
+      <c r="E348" t="s">
+        <v>29</v>
+      </c>
+      <c r="F348" t="s">
+        <v>45</v>
+      </c>
+      <c r="G348">
+        <v>10</v>
+      </c>
+      <c r="H348">
+        <v>343.01</v>
+      </c>
+      <c r="I348">
+        <v>716.13</v>
+      </c>
+      <c r="J348">
+        <v>82.98999999999999</v>
+      </c>
+      <c r="K348">
+        <v>85.78</v>
+      </c>
+      <c r="L348">
+        <v>0</v>
+      </c>
+      <c r="M348">
+        <v>85.78</v>
+      </c>
+      <c r="N348" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14">
+      <c r="A349">
+        <v>47.2229</v>
+      </c>
+      <c r="B349">
+        <v>24.7244</v>
+      </c>
+      <c r="C349" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D349" t="s">
+        <v>14</v>
+      </c>
+      <c r="E349" t="s">
+        <v>29</v>
+      </c>
+      <c r="F349" t="s">
+        <v>45</v>
+      </c>
+      <c r="G349">
+        <v>11</v>
+      </c>
+      <c r="H349">
+        <v>422.65</v>
+      </c>
+      <c r="I349">
+        <v>767.15</v>
+      </c>
+      <c r="J349">
+        <v>90.66</v>
+      </c>
+      <c r="K349">
+        <v>105.74</v>
+      </c>
+      <c r="L349">
+        <v>0</v>
+      </c>
+      <c r="M349">
+        <v>105.74</v>
+      </c>
+      <c r="N349" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14">
+      <c r="A350">
+        <v>47.2229</v>
+      </c>
+      <c r="B350">
+        <v>24.7244</v>
+      </c>
+      <c r="C350" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D350" t="s">
+        <v>14</v>
+      </c>
+      <c r="E350" t="s">
+        <v>29</v>
+      </c>
+      <c r="F350" t="s">
+        <v>45</v>
+      </c>
+      <c r="G350">
+        <v>12</v>
+      </c>
+      <c r="H350">
+        <v>453.56</v>
+      </c>
+      <c r="I350">
+        <v>784.3200000000001</v>
+      </c>
+      <c r="J350">
+        <v>93.37</v>
+      </c>
+      <c r="K350">
+        <v>113.45</v>
+      </c>
+      <c r="L350">
+        <v>0</v>
+      </c>
+      <c r="M350">
+        <v>113.45</v>
+      </c>
+      <c r="N350" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14">
+      <c r="A351">
+        <v>47.2229</v>
+      </c>
+      <c r="B351">
+        <v>24.7244</v>
+      </c>
+      <c r="C351" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D351" t="s">
+        <v>14</v>
+      </c>
+      <c r="E351" t="s">
+        <v>29</v>
+      </c>
+      <c r="F351" t="s">
+        <v>45</v>
+      </c>
+      <c r="G351">
+        <v>13</v>
+      </c>
+      <c r="H351">
+        <v>432.22</v>
+      </c>
+      <c r="I351">
+        <v>772.65</v>
+      </c>
+      <c r="J351">
+        <v>91.51000000000001</v>
+      </c>
+      <c r="K351">
+        <v>108.1</v>
+      </c>
+      <c r="L351">
+        <v>0</v>
+      </c>
+      <c r="M351">
+        <v>108.1</v>
+      </c>
+      <c r="N351" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14">
+      <c r="A352">
+        <v>47.2229</v>
+      </c>
+      <c r="B352">
+        <v>24.7244</v>
+      </c>
+      <c r="C352" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D352" t="s">
+        <v>14</v>
+      </c>
+      <c r="E352" t="s">
+        <v>29</v>
+      </c>
+      <c r="F352" t="s">
+        <v>45</v>
+      </c>
+      <c r="G352">
+        <v>14</v>
+      </c>
+      <c r="H352">
+        <v>361.04</v>
+      </c>
+      <c r="I352">
+        <v>728.79</v>
+      </c>
+      <c r="J352">
+        <v>84.8</v>
+      </c>
+      <c r="K352">
+        <v>90.28</v>
+      </c>
+      <c r="L352">
+        <v>0</v>
+      </c>
+      <c r="M352">
+        <v>90.28</v>
+      </c>
+      <c r="N352" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14">
+      <c r="A353">
+        <v>47.2229</v>
+      </c>
+      <c r="B353">
+        <v>24.7244</v>
+      </c>
+      <c r="C353" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D353" t="s">
+        <v>14</v>
+      </c>
+      <c r="E353" t="s">
+        <v>29</v>
+      </c>
+      <c r="F353" t="s">
+        <v>45</v>
+      </c>
+      <c r="G353">
+        <v>15</v>
+      </c>
+      <c r="H353">
+        <v>248.78</v>
+      </c>
+      <c r="I353">
+        <v>637.29</v>
+      </c>
+      <c r="J353">
+        <v>72.14</v>
+      </c>
+      <c r="K353">
+        <v>62.2</v>
+      </c>
+      <c r="L353">
+        <v>0</v>
+      </c>
+      <c r="M353">
+        <v>62.2</v>
+      </c>
+      <c r="N353" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14">
+      <c r="A354">
+        <v>47.2229</v>
+      </c>
+      <c r="B354">
+        <v>24.7244</v>
+      </c>
+      <c r="C354" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D354" t="s">
+        <v>14</v>
+      </c>
+      <c r="E354" t="s">
+        <v>29</v>
+      </c>
+      <c r="F354" t="s">
+        <v>45</v>
+      </c>
+      <c r="G354">
+        <v>16</v>
+      </c>
+      <c r="H354">
+        <v>113.03</v>
+      </c>
+      <c r="I354">
+        <v>446.04</v>
+      </c>
+      <c r="J354">
+        <v>50.03</v>
+      </c>
+      <c r="K354">
+        <v>28.26</v>
+      </c>
+      <c r="L354">
+        <v>0</v>
+      </c>
+      <c r="M354">
+        <v>28.26</v>
+      </c>
+      <c r="N354" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14">
+      <c r="A355">
+        <v>47.2229</v>
+      </c>
+      <c r="B355">
+        <v>24.7244</v>
+      </c>
+      <c r="C355" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D355" t="s">
+        <v>14</v>
+      </c>
+      <c r="E355" t="s">
+        <v>29</v>
+      </c>
+      <c r="F355" t="s">
+        <v>45</v>
+      </c>
+      <c r="G355">
+        <v>17</v>
+      </c>
+      <c r="H355">
+        <v>9.52</v>
+      </c>
+      <c r="I355">
+        <v>70.58</v>
+      </c>
+      <c r="J355">
+        <v>10.29</v>
+      </c>
+      <c r="K355">
+        <v>2.38</v>
+      </c>
+      <c r="L355">
+        <v>0</v>
+      </c>
+      <c r="M355">
+        <v>2.38</v>
+      </c>
+      <c r="N355" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14">
+      <c r="A356">
+        <v>47.2229</v>
+      </c>
+      <c r="B356">
+        <v>24.7244</v>
+      </c>
+      <c r="C356" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D356" t="s">
+        <v>14</v>
+      </c>
+      <c r="E356" t="s">
+        <v>29</v>
+      </c>
+      <c r="F356" t="s">
+        <v>45</v>
+      </c>
+      <c r="G356">
+        <v>18</v>
+      </c>
+      <c r="H356">
+        <v>0</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>0</v>
+      </c>
+      <c r="L356">
+        <v>0</v>
+      </c>
+      <c r="M356">
+        <v>0</v>
+      </c>
+      <c r="N356" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14">
+      <c r="A357">
+        <v>47.2229</v>
+      </c>
+      <c r="B357">
+        <v>24.7244</v>
+      </c>
+      <c r="C357" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D357" t="s">
+        <v>14</v>
+      </c>
+      <c r="E357" t="s">
+        <v>29</v>
+      </c>
+      <c r="F357" t="s">
+        <v>45</v>
+      </c>
+      <c r="G357">
+        <v>19</v>
+      </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>0</v>
+      </c>
+      <c r="L357">
+        <v>0</v>
+      </c>
+      <c r="M357">
+        <v>0</v>
+      </c>
+      <c r="N357" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14">
+      <c r="A358">
+        <v>47.2229</v>
+      </c>
+      <c r="B358">
+        <v>24.7244</v>
+      </c>
+      <c r="C358" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D358" t="s">
+        <v>14</v>
+      </c>
+      <c r="E358" t="s">
+        <v>29</v>
+      </c>
+      <c r="F358" t="s">
+        <v>45</v>
+      </c>
+      <c r="G358">
+        <v>20</v>
+      </c>
+      <c r="H358">
+        <v>0</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>0</v>
+      </c>
+      <c r="L358">
+        <v>0</v>
+      </c>
+      <c r="M358">
+        <v>0</v>
+      </c>
+      <c r="N358" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14">
+      <c r="A359">
+        <v>47.2229</v>
+      </c>
+      <c r="B359">
+        <v>24.7244</v>
+      </c>
+      <c r="C359" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D359" t="s">
+        <v>14</v>
+      </c>
+      <c r="E359" t="s">
+        <v>29</v>
+      </c>
+      <c r="F359" t="s">
+        <v>45</v>
+      </c>
+      <c r="G359">
+        <v>21</v>
+      </c>
+      <c r="H359">
+        <v>0</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>0</v>
+      </c>
+      <c r="L359">
+        <v>0</v>
+      </c>
+      <c r="M359">
+        <v>0</v>
+      </c>
+      <c r="N359" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14">
+      <c r="A360">
+        <v>47.2229</v>
+      </c>
+      <c r="B360">
+        <v>24.7244</v>
+      </c>
+      <c r="C360" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D360" t="s">
+        <v>14</v>
+      </c>
+      <c r="E360" t="s">
+        <v>29</v>
+      </c>
+      <c r="F360" t="s">
+        <v>45</v>
+      </c>
+      <c r="G360">
+        <v>22</v>
+      </c>
+      <c r="H360">
+        <v>0</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>0</v>
+      </c>
+      <c r="L360">
+        <v>0</v>
+      </c>
+      <c r="M360">
+        <v>0</v>
+      </c>
+      <c r="N360" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14">
+      <c r="A361">
+        <v>47.2229</v>
+      </c>
+      <c r="B361">
+        <v>24.7244</v>
+      </c>
+      <c r="C361" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D361" t="s">
+        <v>14</v>
+      </c>
+      <c r="E361" t="s">
+        <v>29</v>
+      </c>
+      <c r="F361" t="s">
+        <v>45</v>
+      </c>
+      <c r="G361">
+        <v>23</v>
+      </c>
+      <c r="H361">
+        <v>0</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>0</v>
+      </c>
+      <c r="L361">
+        <v>0</v>
+      </c>
+      <c r="M361">
+        <v>0</v>
+      </c>
+      <c r="N361" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14">
+      <c r="A362">
+        <v>47.2229</v>
+      </c>
+      <c r="B362">
+        <v>24.7244</v>
+      </c>
+      <c r="C362" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D362" t="s">
+        <v>14</v>
+      </c>
+      <c r="E362" t="s">
+        <v>30</v>
+      </c>
+      <c r="F362" t="s">
+        <v>46</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362">
+        <v>0</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+      <c r="L362">
+        <v>0</v>
+      </c>
+      <c r="M362">
+        <v>0</v>
+      </c>
+      <c r="N362" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14">
+      <c r="A363">
+        <v>47.2229</v>
+      </c>
+      <c r="B363">
+        <v>24.7244</v>
+      </c>
+      <c r="C363" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D363" t="s">
+        <v>14</v>
+      </c>
+      <c r="E363" t="s">
+        <v>30</v>
+      </c>
+      <c r="F363" t="s">
+        <v>46</v>
+      </c>
+      <c r="G363">
+        <v>1</v>
+      </c>
+      <c r="H363">
+        <v>0</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>0</v>
+      </c>
+      <c r="L363">
+        <v>0</v>
+      </c>
+      <c r="M363">
+        <v>0</v>
+      </c>
+      <c r="N363" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14">
+      <c r="A364">
+        <v>47.2229</v>
+      </c>
+      <c r="B364">
+        <v>24.7244</v>
+      </c>
+      <c r="C364" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D364" t="s">
+        <v>14</v>
+      </c>
+      <c r="E364" t="s">
+        <v>30</v>
+      </c>
+      <c r="F364" t="s">
+        <v>46</v>
+      </c>
+      <c r="G364">
+        <v>2</v>
+      </c>
+      <c r="H364">
+        <v>0</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+      <c r="L364">
+        <v>0</v>
+      </c>
+      <c r="M364">
+        <v>0</v>
+      </c>
+      <c r="N364" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14">
+      <c r="A365">
+        <v>47.2229</v>
+      </c>
+      <c r="B365">
+        <v>24.7244</v>
+      </c>
+      <c r="C365" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D365" t="s">
+        <v>14</v>
+      </c>
+      <c r="E365" t="s">
+        <v>30</v>
+      </c>
+      <c r="F365" t="s">
+        <v>46</v>
+      </c>
+      <c r="G365">
+        <v>3</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>0</v>
+      </c>
+      <c r="L365">
+        <v>0</v>
+      </c>
+      <c r="M365">
+        <v>0</v>
+      </c>
+      <c r="N365" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14">
+      <c r="A366">
+        <v>47.2229</v>
+      </c>
+      <c r="B366">
+        <v>24.7244</v>
+      </c>
+      <c r="C366" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D366" t="s">
+        <v>14</v>
+      </c>
+      <c r="E366" t="s">
+        <v>30</v>
+      </c>
+      <c r="F366" t="s">
+        <v>46</v>
+      </c>
+      <c r="G366">
+        <v>4</v>
+      </c>
+      <c r="H366">
+        <v>0</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>0</v>
+      </c>
+      <c r="L366">
+        <v>0</v>
+      </c>
+      <c r="M366">
+        <v>0</v>
+      </c>
+      <c r="N366" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14">
+      <c r="A367">
+        <v>47.2229</v>
+      </c>
+      <c r="B367">
+        <v>24.7244</v>
+      </c>
+      <c r="C367" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D367" t="s">
+        <v>14</v>
+      </c>
+      <c r="E367" t="s">
+        <v>30</v>
+      </c>
+      <c r="F367" t="s">
+        <v>46</v>
+      </c>
+      <c r="G367">
+        <v>5</v>
+      </c>
+      <c r="H367">
+        <v>0</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
+      <c r="L367">
+        <v>0</v>
+      </c>
+      <c r="M367">
+        <v>0</v>
+      </c>
+      <c r="N367" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14">
+      <c r="A368">
+        <v>47.2229</v>
+      </c>
+      <c r="B368">
+        <v>24.7244</v>
+      </c>
+      <c r="C368" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D368" t="s">
+        <v>14</v>
+      </c>
+      <c r="E368" t="s">
+        <v>30</v>
+      </c>
+      <c r="F368" t="s">
+        <v>46</v>
+      </c>
+      <c r="G368">
+        <v>6</v>
+      </c>
+      <c r="H368">
+        <v>0</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
+      <c r="L368">
+        <v>0</v>
+      </c>
+      <c r="M368">
+        <v>0</v>
+      </c>
+      <c r="N368" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14">
+      <c r="A369">
+        <v>47.2229</v>
+      </c>
+      <c r="B369">
+        <v>24.7244</v>
+      </c>
+      <c r="C369" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D369" t="s">
+        <v>14</v>
+      </c>
+      <c r="E369" t="s">
+        <v>30</v>
+      </c>
+      <c r="F369" t="s">
+        <v>46</v>
+      </c>
+      <c r="G369">
+        <v>7</v>
+      </c>
+      <c r="H369">
+        <v>3.64</v>
+      </c>
+      <c r="I369">
+        <v>30.83</v>
+      </c>
+      <c r="J369">
+        <v>4.99</v>
+      </c>
+      <c r="K369">
+        <v>0.91</v>
+      </c>
+      <c r="L369">
+        <v>0</v>
+      </c>
+      <c r="M369">
+        <v>0.91</v>
+      </c>
+      <c r="N369" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14">
+      <c r="A370">
+        <v>47.2229</v>
+      </c>
+      <c r="B370">
+        <v>24.7244</v>
+      </c>
+      <c r="C370" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D370" t="s">
+        <v>14</v>
+      </c>
+      <c r="E370" t="s">
+        <v>30</v>
+      </c>
+      <c r="F370" t="s">
+        <v>46</v>
+      </c>
+      <c r="G370">
+        <v>8</v>
+      </c>
+      <c r="H370">
+        <v>91.87</v>
+      </c>
+      <c r="I370">
+        <v>397.3</v>
+      </c>
+      <c r="J370">
+        <v>45.09</v>
+      </c>
+      <c r="K370">
+        <v>22.97</v>
+      </c>
+      <c r="L370">
+        <v>0</v>
+      </c>
+      <c r="M370">
+        <v>22.97</v>
+      </c>
+      <c r="N370" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14">
+      <c r="A371">
+        <v>47.2229</v>
+      </c>
+      <c r="B371">
+        <v>24.7244</v>
+      </c>
+      <c r="C371" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D371" t="s">
+        <v>14</v>
+      </c>
+      <c r="E371" t="s">
+        <v>30</v>
+      </c>
+      <c r="F371" t="s">
+        <v>46</v>
+      </c>
+      <c r="G371">
+        <v>9</v>
+      </c>
+      <c r="H371">
+        <v>229.53</v>
+      </c>
+      <c r="I371">
+        <v>617.23</v>
+      </c>
+      <c r="J371">
+        <v>69.59</v>
+      </c>
+      <c r="K371">
+        <v>57.38</v>
+      </c>
+      <c r="L371">
+        <v>0</v>
+      </c>
+      <c r="M371">
+        <v>57.38</v>
+      </c>
+      <c r="N371" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14">
+      <c r="A372">
+        <v>47.2229</v>
+      </c>
+      <c r="B372">
+        <v>24.7244</v>
+      </c>
+      <c r="C372" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D372" t="s">
+        <v>14</v>
+      </c>
+      <c r="E372" t="s">
+        <v>30</v>
+      </c>
+      <c r="F372" t="s">
+        <v>46</v>
+      </c>
+      <c r="G372">
+        <v>10</v>
+      </c>
+      <c r="H372">
+        <v>348.33</v>
+      </c>
+      <c r="I372">
+        <v>719.77</v>
+      </c>
+      <c r="J372">
+        <v>83.5</v>
+      </c>
+      <c r="K372">
+        <v>87.08</v>
+      </c>
+      <c r="L372">
+        <v>0</v>
+      </c>
+      <c r="M372">
+        <v>87.08</v>
+      </c>
+      <c r="N372" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14">
+      <c r="A373">
+        <v>47.2229</v>
+      </c>
+      <c r="B373">
+        <v>24.7244</v>
+      </c>
+      <c r="C373" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D373" t="s">
+        <v>14</v>
+      </c>
+      <c r="E373" t="s">
+        <v>30</v>
+      </c>
+      <c r="F373" t="s">
+        <v>46</v>
+      </c>
+      <c r="G373">
+        <v>11</v>
+      </c>
+      <c r="H373">
+        <v>428.22</v>
+      </c>
+      <c r="I373">
+        <v>770.17</v>
+      </c>
+      <c r="J373">
+        <v>91.13</v>
+      </c>
+      <c r="K373">
+        <v>107.06</v>
+      </c>
+      <c r="L373">
+        <v>0</v>
+      </c>
+      <c r="M373">
+        <v>107.06</v>
+      </c>
+      <c r="N373" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14">
+      <c r="A374">
+        <v>47.2229</v>
+      </c>
+      <c r="B374">
+        <v>24.7244</v>
+      </c>
+      <c r="C374" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D374" t="s">
+        <v>14</v>
+      </c>
+      <c r="E374" t="s">
+        <v>30</v>
+      </c>
+      <c r="F374" t="s">
+        <v>46</v>
+      </c>
+      <c r="G374">
+        <v>12</v>
+      </c>
+      <c r="H374">
+        <v>459.24</v>
+      </c>
+      <c r="I374">
+        <v>787.13</v>
+      </c>
+      <c r="J374">
+        <v>93.83</v>
+      </c>
+      <c r="K374">
+        <v>114.81</v>
+      </c>
+      <c r="L374">
+        <v>0</v>
+      </c>
+      <c r="M374">
+        <v>114.81</v>
+      </c>
+      <c r="N374" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14">
+      <c r="A375">
+        <v>47.2229</v>
+      </c>
+      <c r="B375">
+        <v>24.7244</v>
+      </c>
+      <c r="C375" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D375" t="s">
+        <v>14</v>
+      </c>
+      <c r="E375" t="s">
+        <v>30</v>
+      </c>
+      <c r="F375" t="s">
+        <v>46</v>
+      </c>
+      <c r="G375">
+        <v>13</v>
+      </c>
+      <c r="H375">
+        <v>437.86</v>
+      </c>
+      <c r="I375">
+        <v>775.61</v>
+      </c>
+      <c r="J375">
+        <v>91.97</v>
+      </c>
+      <c r="K375">
+        <v>109.46</v>
+      </c>
+      <c r="L375">
+        <v>0</v>
+      </c>
+      <c r="M375">
+        <v>109.46</v>
+      </c>
+      <c r="N375" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14">
+      <c r="A376">
+        <v>47.2229</v>
+      </c>
+      <c r="B376">
+        <v>24.7244</v>
+      </c>
+      <c r="C376" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D376" t="s">
+        <v>14</v>
+      </c>
+      <c r="E376" t="s">
+        <v>30</v>
+      </c>
+      <c r="F376" t="s">
+        <v>46</v>
+      </c>
+      <c r="G376">
+        <v>14</v>
+      </c>
+      <c r="H376">
+        <v>366.49</v>
+      </c>
+      <c r="I376">
+        <v>732.26</v>
+      </c>
+      <c r="J376">
+        <v>85.31999999999999</v>
+      </c>
+      <c r="K376">
+        <v>91.62</v>
+      </c>
+      <c r="L376">
+        <v>0</v>
+      </c>
+      <c r="M376">
+        <v>91.62</v>
+      </c>
+      <c r="N376" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14">
+      <c r="A377">
+        <v>47.2229</v>
+      </c>
+      <c r="B377">
+        <v>24.7244</v>
+      </c>
+      <c r="C377" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D377" t="s">
+        <v>14</v>
+      </c>
+      <c r="E377" t="s">
+        <v>30</v>
+      </c>
+      <c r="F377" t="s">
+        <v>46</v>
+      </c>
+      <c r="G377">
+        <v>15</v>
+      </c>
+      <c r="H377">
+        <v>253.83</v>
+      </c>
+      <c r="I377">
+        <v>642.03</v>
+      </c>
+      <c r="J377">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="K377">
+        <v>63.46</v>
+      </c>
+      <c r="L377">
+        <v>0</v>
+      </c>
+      <c r="M377">
+        <v>63.46</v>
+      </c>
+      <c r="N377" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14">
+      <c r="A378">
+        <v>47.2229</v>
+      </c>
+      <c r="B378">
+        <v>24.7244</v>
+      </c>
+      <c r="C378" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D378" t="s">
+        <v>14</v>
+      </c>
+      <c r="E378" t="s">
+        <v>30</v>
+      </c>
+      <c r="F378" t="s">
+        <v>46</v>
+      </c>
+      <c r="G378">
+        <v>16</v>
+      </c>
+      <c r="H378">
+        <v>117.29</v>
+      </c>
+      <c r="I378">
+        <v>454.56</v>
+      </c>
+      <c r="J378">
+        <v>50.92</v>
+      </c>
+      <c r="K378">
+        <v>29.32</v>
+      </c>
+      <c r="L378">
+        <v>0</v>
+      </c>
+      <c r="M378">
+        <v>29.32</v>
+      </c>
+      <c r="N378" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14">
+      <c r="A379">
+        <v>47.2229</v>
+      </c>
+      <c r="B379">
+        <v>24.7244</v>
+      </c>
+      <c r="C379" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D379" t="s">
+        <v>14</v>
+      </c>
+      <c r="E379" t="s">
+        <v>30</v>
+      </c>
+      <c r="F379" t="s">
+        <v>46</v>
+      </c>
+      <c r="G379">
+        <v>17</v>
+      </c>
+      <c r="H379">
+        <v>10.82</v>
+      </c>
+      <c r="I379">
+        <v>78.5</v>
+      </c>
+      <c r="J379">
+        <v>11.07</v>
+      </c>
+      <c r="K379">
+        <v>2.71</v>
+      </c>
+      <c r="L379">
+        <v>0</v>
+      </c>
+      <c r="M379">
+        <v>2.71</v>
+      </c>
+      <c r="N379" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14">
+      <c r="A380">
+        <v>47.2229</v>
+      </c>
+      <c r="B380">
+        <v>24.7244</v>
+      </c>
+      <c r="C380" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D380" t="s">
+        <v>14</v>
+      </c>
+      <c r="E380" t="s">
+        <v>30</v>
+      </c>
+      <c r="F380" t="s">
+        <v>46</v>
+      </c>
+      <c r="G380">
+        <v>18</v>
+      </c>
+      <c r="H380">
+        <v>0</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>0</v>
+      </c>
+      <c r="L380">
+        <v>0</v>
+      </c>
+      <c r="M380">
+        <v>0</v>
+      </c>
+      <c r="N380" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14">
+      <c r="A381">
+        <v>47.2229</v>
+      </c>
+      <c r="B381">
+        <v>24.7244</v>
+      </c>
+      <c r="C381" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D381" t="s">
+        <v>14</v>
+      </c>
+      <c r="E381" t="s">
+        <v>30</v>
+      </c>
+      <c r="F381" t="s">
+        <v>46</v>
+      </c>
+      <c r="G381">
+        <v>19</v>
+      </c>
+      <c r="H381">
+        <v>0</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>0</v>
+      </c>
+      <c r="L381">
+        <v>0</v>
+      </c>
+      <c r="M381">
+        <v>0</v>
+      </c>
+      <c r="N381" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14">
+      <c r="A382">
+        <v>47.2229</v>
+      </c>
+      <c r="B382">
+        <v>24.7244</v>
+      </c>
+      <c r="C382" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D382" t="s">
+        <v>14</v>
+      </c>
+      <c r="E382" t="s">
+        <v>30</v>
+      </c>
+      <c r="F382" t="s">
+        <v>46</v>
+      </c>
+      <c r="G382">
+        <v>20</v>
+      </c>
+      <c r="H382">
+        <v>0</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+      <c r="L382">
+        <v>0</v>
+      </c>
+      <c r="M382">
+        <v>0</v>
+      </c>
+      <c r="N382" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14">
+      <c r="A383">
+        <v>47.2229</v>
+      </c>
+      <c r="B383">
+        <v>24.7244</v>
+      </c>
+      <c r="C383" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D383" t="s">
+        <v>14</v>
+      </c>
+      <c r="E383" t="s">
+        <v>30</v>
+      </c>
+      <c r="F383" t="s">
+        <v>46</v>
+      </c>
+      <c r="G383">
+        <v>21</v>
+      </c>
+      <c r="H383">
+        <v>0</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+      <c r="K383">
+        <v>0</v>
+      </c>
+      <c r="L383">
+        <v>0</v>
+      </c>
+      <c r="M383">
+        <v>0</v>
+      </c>
+      <c r="N383" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14">
+      <c r="A384">
+        <v>47.2229</v>
+      </c>
+      <c r="B384">
+        <v>24.7244</v>
+      </c>
+      <c r="C384" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D384" t="s">
+        <v>14</v>
+      </c>
+      <c r="E384" t="s">
+        <v>30</v>
+      </c>
+      <c r="F384" t="s">
+        <v>46</v>
+      </c>
+      <c r="G384">
+        <v>22</v>
+      </c>
+      <c r="H384">
+        <v>0</v>
+      </c>
+      <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+      <c r="K384">
+        <v>0</v>
+      </c>
+      <c r="L384">
+        <v>0</v>
+      </c>
+      <c r="M384">
+        <v>0</v>
+      </c>
+      <c r="N384" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14">
+      <c r="A385">
+        <v>47.2229</v>
+      </c>
+      <c r="B385">
+        <v>24.7244</v>
+      </c>
+      <c r="C385" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D385" t="s">
+        <v>14</v>
+      </c>
+      <c r="E385" t="s">
+        <v>30</v>
+      </c>
+      <c r="F385" t="s">
+        <v>46</v>
+      </c>
+      <c r="G385">
+        <v>23</v>
+      </c>
+      <c r="H385">
+        <v>0</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385">
+        <v>0</v>
+      </c>
+      <c r="L385">
+        <v>0</v>
+      </c>
+      <c r="M385">
+        <v>0</v>
+      </c>
+      <c r="N385" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/RAAL/Production/Input/Concatenated_Hourly_GHI.xlsx
+++ b/RAAL/Production/Input/Concatenated_Hourly_GHI.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mynexte-my.sharepoint.com/personal/andrei_ionita_mynexte_com/Documents/Desktop/ML/Forecast_app/RAAL/Production/Input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_51C901ED7DDB4B6B0B64406CE1AD217F787C78FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4D41D4E-9E22-49FD-8B93-688301070B58}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1858,11 +1877,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1926,13 +1945,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1970,7 +1997,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2004,6 +2031,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2038,9 +2066,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2213,14 +2242,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N553"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2264,9 +2307,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B2">
         <v>23.580489</v>
@@ -2308,9 +2351,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B3">
         <v>23.580489</v>
@@ -2352,9 +2395,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B4">
         <v>23.580489</v>
@@ -2396,9 +2439,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B5">
         <v>23.580489</v>
@@ -2440,9 +2483,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B6">
         <v>23.580489</v>
@@ -2484,9 +2527,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B7">
         <v>23.580489</v>
@@ -2528,9 +2571,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B8">
         <v>23.580489</v>
@@ -2572,9 +2615,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B9">
         <v>23.580489</v>
@@ -2616,9 +2659,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B10">
         <v>23.580489</v>
@@ -2660,9 +2703,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B11">
         <v>23.580489</v>
@@ -2686,7 +2729,7 @@
         <v>172.21</v>
       </c>
       <c r="I11">
-        <v>547.42</v>
+        <v>547.41999999999996</v>
       </c>
       <c r="J11">
         <v>61.52</v>
@@ -2698,15 +2741,15 @@
         <v>76.41</v>
       </c>
       <c r="M11">
-        <v>90.29000000000001</v>
+        <v>90.29</v>
       </c>
       <c r="N11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B12">
         <v>23.580489</v>
@@ -2742,15 +2785,15 @@
         <v>39.17</v>
       </c>
       <c r="M12">
-        <v>138.73</v>
+        <v>138.72999999999999</v>
       </c>
       <c r="N12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B13">
         <v>23.580489</v>
@@ -2792,9 +2835,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B14">
         <v>23.580489</v>
@@ -2836,9 +2879,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B15">
         <v>23.580489</v>
@@ -2880,9 +2923,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B16">
         <v>23.580489</v>
@@ -2924,9 +2967,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B17">
         <v>23.580489</v>
@@ -2968,9 +3011,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B18">
         <v>23.580489</v>
@@ -3012,9 +3055,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B19">
         <v>23.580489</v>
@@ -3056,9 +3099,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B20">
         <v>23.580489</v>
@@ -3100,9 +3143,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B21">
         <v>23.580489</v>
@@ -3144,9 +3187,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B22">
         <v>23.580489</v>
@@ -3188,9 +3231,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B23">
         <v>23.580489</v>
@@ -3232,9 +3275,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B24">
         <v>23.580489</v>
@@ -3276,9 +3319,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B25">
         <v>23.580489</v>
@@ -3320,9 +3363,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B26">
         <v>23.580489</v>
@@ -3364,9 +3407,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B27">
         <v>23.580489</v>
@@ -3408,9 +3451,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B28">
         <v>23.580489</v>
@@ -3452,9 +3495,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B29">
         <v>23.580489</v>
@@ -3496,9 +3539,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B30">
         <v>23.580489</v>
@@ -3540,9 +3583,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B31">
         <v>23.580489</v>
@@ -3584,9 +3627,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B32">
         <v>23.580489</v>
@@ -3628,9 +3671,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B33">
         <v>23.580489</v>
@@ -3672,9 +3715,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B34">
         <v>23.580489</v>
@@ -3716,9 +3759,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B35">
         <v>23.580489</v>
@@ -3760,9 +3803,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B36">
         <v>23.580489</v>
@@ -3783,13 +3826,13 @@
         <v>10</v>
       </c>
       <c r="H36">
-        <v>292.59</v>
+        <v>292.58999999999997</v>
       </c>
       <c r="I36">
         <v>677.41</v>
       </c>
       <c r="J36">
-        <v>77.98999999999999</v>
+        <v>77.989999999999995</v>
       </c>
       <c r="K36">
         <v>217.19</v>
@@ -3804,9 +3847,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B37">
         <v>23.580489</v>
@@ -3842,15 +3885,15 @@
         <v>413.05</v>
       </c>
       <c r="M37">
-        <v>161.23</v>
+        <v>161.22999999999999</v>
       </c>
       <c r="N37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B38">
         <v>23.580489</v>
@@ -3874,7 +3917,7 @@
         <v>406.46</v>
       </c>
       <c r="I38">
-        <v>758.1900000000001</v>
+        <v>758.19</v>
       </c>
       <c r="J38">
         <v>89.8</v>
@@ -3883,7 +3926,7 @@
         <v>373.54</v>
       </c>
       <c r="L38">
-        <v>585.83</v>
+        <v>585.83000000000004</v>
       </c>
       <c r="M38">
         <v>123.27</v>
@@ -3892,9 +3935,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B39">
         <v>23.580489</v>
@@ -3936,9 +3979,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B40">
         <v>23.580489</v>
@@ -3980,9 +4023,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B41">
         <v>23.580489</v>
@@ -4006,10 +4049,10 @@
         <v>211.37</v>
       </c>
       <c r="I41">
-        <v>597.3</v>
+        <v>597.29999999999995</v>
       </c>
       <c r="J41">
-        <v>67.54000000000001</v>
+        <v>67.540000000000006</v>
       </c>
       <c r="K41">
         <v>167.98</v>
@@ -4024,9 +4067,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B42">
         <v>23.580489</v>
@@ -4068,9 +4111,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B43">
         <v>23.580489</v>
@@ -4097,7 +4140,7 @@
         <v>22.89</v>
       </c>
       <c r="J43">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="K43">
         <v>1.44</v>
@@ -4112,9 +4155,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B44">
         <v>23.580489</v>
@@ -4156,9 +4199,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B45">
         <v>23.580489</v>
@@ -4200,9 +4243,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B46">
         <v>23.580489</v>
@@ -4244,9 +4287,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B47">
         <v>23.580489</v>
@@ -4288,9 +4331,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B48">
         <v>23.580489</v>
@@ -4332,9 +4375,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B49">
         <v>23.580489</v>
@@ -4376,9 +4419,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B50">
         <v>23.580489</v>
@@ -4420,9 +4463,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B51">
         <v>23.580489</v>
@@ -4464,9 +4507,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B52">
         <v>23.580489</v>
@@ -4508,9 +4551,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B53">
         <v>23.580489</v>
@@ -4552,9 +4595,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B54">
         <v>23.580489</v>
@@ -4596,9 +4639,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B55">
         <v>23.580489</v>
@@ -4640,9 +4683,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B56">
         <v>23.580489</v>
@@ -4684,9 +4727,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B57">
         <v>23.580489</v>
@@ -4728,9 +4771,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B58">
         <v>23.580489</v>
@@ -4754,13 +4797,13 @@
         <v>50.38</v>
       </c>
       <c r="I58">
-        <v>265.72</v>
+        <v>265.72000000000003</v>
       </c>
       <c r="J58">
         <v>32.68</v>
       </c>
       <c r="K58">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="L58">
         <v>42.05</v>
@@ -4772,9 +4815,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B59">
         <v>23.580489</v>
@@ -4798,7 +4841,7 @@
         <v>178.65</v>
       </c>
       <c r="I59">
-        <v>555.1799999999999</v>
+        <v>555.17999999999995</v>
       </c>
       <c r="J59">
         <v>62.65</v>
@@ -4807,7 +4850,7 @@
         <v>114.9</v>
       </c>
       <c r="L59">
-        <v>93.54000000000001</v>
+        <v>93.54</v>
       </c>
       <c r="M59">
         <v>94.31</v>
@@ -4816,9 +4859,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B60">
         <v>23.580489</v>
@@ -4839,30 +4882,30 @@
         <v>10</v>
       </c>
       <c r="H60">
-        <v>296.28</v>
+        <v>296.27999999999997</v>
       </c>
       <c r="I60">
         <v>679.55</v>
       </c>
       <c r="J60">
-        <v>78.54000000000001</v>
+        <v>78.540000000000006</v>
       </c>
       <c r="K60">
         <v>167.01</v>
       </c>
       <c r="L60">
-        <v>67.45999999999999</v>
+        <v>67.459999999999994</v>
       </c>
       <c r="M60">
-        <v>144.8</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="N60" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B61">
         <v>23.580489</v>
@@ -4904,9 +4947,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B62">
         <v>23.580489</v>
@@ -4933,13 +4976,13 @@
         <v>759.85</v>
       </c>
       <c r="J62">
-        <v>90.34999999999999</v>
+        <v>90.35</v>
       </c>
       <c r="K62">
         <v>187.92</v>
       </c>
       <c r="L62">
-        <v>18.15</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="M62">
         <v>180.1</v>
@@ -4948,9 +4991,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B63">
         <v>23.580489</v>
@@ -4986,15 +5029,15 @@
         <v>11.08</v>
       </c>
       <c r="M63">
-        <v>163.3</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="N63" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B64">
         <v>23.580489</v>
@@ -5021,7 +5064,7 @@
         <v>701.76</v>
       </c>
       <c r="J64">
-        <v>81.68000000000001</v>
+        <v>81.680000000000007</v>
       </c>
       <c r="K64">
         <v>118.53</v>
@@ -5036,9 +5079,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B65">
         <v>23.580489</v>
@@ -5065,7 +5108,7 @@
         <v>601.04</v>
       </c>
       <c r="J65">
-        <v>68.23999999999999</v>
+        <v>68.239999999999995</v>
       </c>
       <c r="K65">
         <v>61.01</v>
@@ -5080,9 +5123,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B66">
         <v>23.580489</v>
@@ -5124,9 +5167,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B67">
         <v>23.580489</v>
@@ -5153,7 +5196,7 @@
         <v>26.63</v>
       </c>
       <c r="J67">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="K67">
         <v>0.98</v>
@@ -5168,9 +5211,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B68">
         <v>23.580489</v>
@@ -5212,9 +5255,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B69">
         <v>23.580489</v>
@@ -5256,9 +5299,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B70">
         <v>23.580489</v>
@@ -5300,9 +5343,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B71">
         <v>23.580489</v>
@@ -5344,9 +5387,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B72">
         <v>23.580489</v>
@@ -5388,9 +5431,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B73">
         <v>23.580489</v>
@@ -5432,9 +5475,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B74">
         <v>23.580489</v>
@@ -5476,9 +5519,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B75">
         <v>23.580489</v>
@@ -5520,9 +5563,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B76">
         <v>23.580489</v>
@@ -5564,9 +5607,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B77">
         <v>23.580489</v>
@@ -5608,9 +5651,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B78">
         <v>23.580489</v>
@@ -5652,9 +5695,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B79">
         <v>23.580489</v>
@@ -5696,9 +5739,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B80">
         <v>23.580489</v>
@@ -5740,9 +5783,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B81">
         <v>23.580489</v>
@@ -5784,9 +5827,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B82">
         <v>23.580489</v>
@@ -5828,9 +5871,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B83">
         <v>23.580489</v>
@@ -5872,9 +5915,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B84">
         <v>23.580489</v>
@@ -5904,7 +5947,7 @@
         <v>79.08</v>
       </c>
       <c r="K84">
-        <v>299.91</v>
+        <v>299.91000000000003</v>
       </c>
       <c r="L84">
         <v>663.01</v>
@@ -5916,9 +5959,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B85">
         <v>23.580489</v>
@@ -5945,7 +5988,7 @@
         <v>741.11</v>
       </c>
       <c r="J85">
-        <v>87.68000000000001</v>
+        <v>87.68</v>
       </c>
       <c r="K85">
         <v>380.81</v>
@@ -5960,9 +6003,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B86">
         <v>23.580489</v>
@@ -5995,7 +6038,7 @@
         <v>413.04</v>
       </c>
       <c r="L86">
-        <v>736.4299999999999</v>
+        <v>736.43</v>
       </c>
       <c r="M86">
         <v>92.44</v>
@@ -6004,9 +6047,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B87">
         <v>23.580489</v>
@@ -6048,9 +6091,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B88">
         <v>23.580489</v>
@@ -6080,21 +6123,21 @@
         <v>82.25</v>
       </c>
       <c r="K88">
-        <v>322.15</v>
+        <v>322.14999999999998</v>
       </c>
       <c r="L88">
         <v>654.72</v>
       </c>
       <c r="M88">
-        <v>85.73999999999999</v>
+        <v>85.74</v>
       </c>
       <c r="N88" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B89">
         <v>23.580489</v>
@@ -6118,7 +6161,7 @@
         <v>219.87</v>
       </c>
       <c r="I89">
-        <v>605.3</v>
+        <v>605.29999999999995</v>
       </c>
       <c r="J89">
         <v>68.91</v>
@@ -6136,9 +6179,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B90">
         <v>23.580489</v>
@@ -6159,7 +6202,7 @@
         <v>16</v>
       </c>
       <c r="H90">
-        <v>89.20999999999999</v>
+        <v>89.21</v>
       </c>
       <c r="I90">
         <v>389.46</v>
@@ -6180,9 +6223,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B91">
         <v>23.580489</v>
@@ -6224,9 +6267,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B92">
         <v>23.580489</v>
@@ -6268,9 +6311,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B93">
         <v>23.580489</v>
@@ -6312,9 +6355,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B94">
         <v>23.580489</v>
@@ -6356,9 +6399,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B95">
         <v>23.580489</v>
@@ -6400,9 +6443,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B96">
         <v>23.580489</v>
@@ -6444,9 +6487,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B97">
         <v>23.580489</v>
@@ -6488,9 +6531,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B98">
         <v>23.580489</v>
@@ -6532,9 +6575,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B99">
         <v>23.580489</v>
@@ -6576,9 +6619,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B100">
         <v>23.580489</v>
@@ -6620,9 +6663,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B101">
         <v>23.580489</v>
@@ -6664,9 +6707,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B102">
         <v>23.580489</v>
@@ -6708,9 +6751,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B103">
         <v>23.580489</v>
@@ -6752,9 +6795,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B104">
         <v>23.580489</v>
@@ -6796,9 +6839,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B105">
         <v>23.580489</v>
@@ -6840,9 +6883,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B106">
         <v>23.580489</v>
@@ -6869,7 +6912,7 @@
         <v>282.86</v>
       </c>
       <c r="J106">
-        <v>34.48</v>
+        <v>34.479999999999997</v>
       </c>
       <c r="K106">
         <v>55.08</v>
@@ -6884,9 +6927,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B107">
         <v>23.580489</v>
@@ -6910,7 +6953,7 @@
         <v>185.51</v>
       </c>
       <c r="I107">
-        <v>563.08</v>
+        <v>563.08000000000004</v>
       </c>
       <c r="J107">
         <v>63.84</v>
@@ -6928,9 +6971,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B108">
         <v>23.580489</v>
@@ -6951,7 +6994,7 @@
         <v>10</v>
       </c>
       <c r="H108">
-        <v>304.22</v>
+        <v>304.22000000000003</v>
       </c>
       <c r="I108">
         <v>684.86</v>
@@ -6963,7 +7006,7 @@
         <v>304.01</v>
       </c>
       <c r="L108">
-        <v>666.1900000000001</v>
+        <v>666.19</v>
       </c>
       <c r="M108">
         <v>77.8</v>
@@ -6972,9 +7015,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B109">
         <v>23.580489</v>
@@ -6998,10 +7041,10 @@
         <v>386.11</v>
       </c>
       <c r="I109">
-        <v>743.5700000000001</v>
+        <v>743.57</v>
       </c>
       <c r="J109">
-        <v>88.15000000000001</v>
+        <v>88.15</v>
       </c>
       <c r="K109">
         <v>385.82</v>
@@ -7010,15 +7053,15 @@
         <v>727.39</v>
       </c>
       <c r="M109">
-        <v>87.15000000000001</v>
+        <v>87.15</v>
       </c>
       <c r="N109" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B110">
         <v>23.580489</v>
@@ -7045,7 +7088,7 @@
         <v>764.24</v>
       </c>
       <c r="J110">
-        <v>91.31999999999999</v>
+        <v>91.32</v>
       </c>
       <c r="K110">
         <v>419.7</v>
@@ -7060,9 +7103,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B111">
         <v>23.580489</v>
@@ -7098,15 +7141,15 @@
         <v>736.63</v>
       </c>
       <c r="M111">
-        <v>89.23999999999999</v>
+        <v>89.24</v>
       </c>
       <c r="N111" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B112">
         <v>23.580489</v>
@@ -7139,18 +7182,18 @@
         <v>333.56</v>
       </c>
       <c r="L112">
-        <v>691.9299999999999</v>
+        <v>691.93</v>
       </c>
       <c r="M112">
-        <v>80.84999999999999</v>
+        <v>80.849999999999994</v>
       </c>
       <c r="N112" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B113">
         <v>23.580489</v>
@@ -7177,7 +7220,7 @@
         <v>610.04</v>
       </c>
       <c r="J113">
-        <v>69.54000000000001</v>
+        <v>69.540000000000006</v>
       </c>
       <c r="K113">
         <v>224.38</v>
@@ -7192,9 +7235,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B114">
         <v>23.580489</v>
@@ -7236,9 +7279,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B115">
         <v>23.580489</v>
@@ -7259,7 +7302,7 @@
         <v>17</v>
       </c>
       <c r="H115">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="I115">
         <v>34.33</v>
@@ -7268,21 +7311,21 @@
         <v>5.19</v>
       </c>
       <c r="K115">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="L115">
         <v>0</v>
       </c>
       <c r="M115">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="N115" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B116">
         <v>23.580489</v>
@@ -7324,9 +7367,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B117">
         <v>23.580489</v>
@@ -7368,9 +7411,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B118">
         <v>23.580489</v>
@@ -7412,9 +7455,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B119">
         <v>23.580489</v>
@@ -7456,9 +7499,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B120">
         <v>23.580489</v>
@@ -7500,9 +7543,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B121">
         <v>23.580489</v>
@@ -7544,9 +7587,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B122">
         <v>23.580489</v>
@@ -7588,9 +7631,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B123">
         <v>23.580489</v>
@@ -7632,9 +7675,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B124">
         <v>23.580489</v>
@@ -7676,9 +7719,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B125">
         <v>23.580489</v>
@@ -7720,9 +7763,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B126">
         <v>23.580489</v>
@@ -7764,9 +7807,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B127">
         <v>23.580489</v>
@@ -7808,9 +7851,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B128">
         <v>23.580489</v>
@@ -7852,9 +7895,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B129">
         <v>23.580489</v>
@@ -7896,9 +7939,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B130">
         <v>23.580489</v>
@@ -7922,10 +7965,10 @@
         <v>57.72</v>
       </c>
       <c r="I130">
-        <v>292.72</v>
+        <v>292.72000000000003</v>
       </c>
       <c r="J130">
-        <v>35.38</v>
+        <v>35.380000000000003</v>
       </c>
       <c r="K130">
         <v>57.72</v>
@@ -7940,9 +7983,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B131">
         <v>23.580489</v>
@@ -7975,7 +8018,7 @@
         <v>189.32</v>
       </c>
       <c r="L131">
-        <v>544.67</v>
+        <v>544.66999999999996</v>
       </c>
       <c r="M131">
         <v>60.85</v>
@@ -7984,9 +8027,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B132">
         <v>23.580489</v>
@@ -8028,9 +8071,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B133">
         <v>23.580489</v>
@@ -8057,7 +8100,7 @@
         <v>746.96</v>
       </c>
       <c r="J133">
-        <v>88.48999999999999</v>
+        <v>88.49</v>
       </c>
       <c r="K133">
         <v>390.89</v>
@@ -8072,9 +8115,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B134">
         <v>23.580489</v>
@@ -8116,9 +8159,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B135">
         <v>23.580489</v>
@@ -8154,15 +8197,15 @@
         <v>739.87</v>
       </c>
       <c r="M135">
-        <v>89.93000000000001</v>
+        <v>89.93</v>
       </c>
       <c r="N135" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B136">
         <v>23.580489</v>
@@ -8189,7 +8232,7 @@
         <v>711.9</v>
       </c>
       <c r="J136">
-        <v>83.20999999999999</v>
+        <v>83.21</v>
       </c>
       <c r="K136">
         <v>338.57</v>
@@ -8198,15 +8241,15 @@
         <v>695.47</v>
       </c>
       <c r="M136">
-        <v>81.51000000000001</v>
+        <v>81.510000000000005</v>
       </c>
       <c r="N136" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B137">
         <v>23.580489</v>
@@ -8233,7 +8276,7 @@
         <v>615.53</v>
       </c>
       <c r="J137">
-        <v>70.09999999999999</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="K137">
         <v>228.92</v>
@@ -8242,15 +8285,15 @@
         <v>593.37</v>
       </c>
       <c r="M137">
-        <v>67.51000000000001</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="N137" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B138">
         <v>23.580489</v>
@@ -8280,7 +8323,7 @@
         <v>46.68</v>
       </c>
       <c r="K138">
-        <v>96.70999999999999</v>
+        <v>96.71</v>
       </c>
       <c r="L138">
         <v>364.82</v>
@@ -8292,9 +8335,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B139">
         <v>23.580489</v>
@@ -8315,7 +8358,7 @@
         <v>17</v>
       </c>
       <c r="H139">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="I139">
         <v>38.29</v>
@@ -8324,21 +8367,21 @@
         <v>5.55</v>
       </c>
       <c r="K139">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="L139">
         <v>0</v>
       </c>
       <c r="M139">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="N139" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B140">
         <v>23.580489</v>
@@ -8380,9 +8423,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B141">
         <v>23.580489</v>
@@ -8424,9 +8467,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B142">
         <v>23.580489</v>
@@ -8468,9 +8511,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B143">
         <v>23.580489</v>
@@ -8512,9 +8555,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B144">
         <v>23.580489</v>
@@ -8556,9 +8599,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B145">
         <v>23.580489</v>
@@ -8600,9 +8643,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B146">
         <v>23.580489</v>
@@ -8644,9 +8687,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B147">
         <v>23.580489</v>
@@ -8688,9 +8731,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B148">
         <v>23.580489</v>
@@ -8732,9 +8775,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B149">
         <v>23.580489</v>
@@ -8776,9 +8819,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B150">
         <v>23.580489</v>
@@ -8820,9 +8863,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B151">
         <v>23.580489</v>
@@ -8864,9 +8907,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B152">
         <v>23.580489</v>
@@ -8908,9 +8951,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B153">
         <v>23.580489</v>
@@ -8937,7 +8980,7 @@
         <v>0.13</v>
       </c>
       <c r="J153">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K153">
         <v>0.04</v>
@@ -8952,9 +8995,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B154">
         <v>23.580489</v>
@@ -8996,9 +9039,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B155">
         <v>23.580489</v>
@@ -9022,7 +9065,7 @@
         <v>193.37</v>
       </c>
       <c r="I155">
-        <v>574.08</v>
+        <v>574.08000000000004</v>
       </c>
       <c r="J155">
         <v>64.87</v>
@@ -9031,7 +9074,7 @@
         <v>192.96</v>
       </c>
       <c r="L155">
-        <v>547.83</v>
+        <v>547.83000000000004</v>
       </c>
       <c r="M155">
         <v>61.77</v>
@@ -9040,9 +9083,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B156">
         <v>23.580489</v>
@@ -9063,13 +9106,13 @@
         <v>10</v>
       </c>
       <c r="H156">
-        <v>313.29</v>
+        <v>313.29000000000002</v>
       </c>
       <c r="I156">
         <v>692.98</v>
       </c>
       <c r="J156">
-        <v>80.34999999999999</v>
+        <v>80.349999999999994</v>
       </c>
       <c r="K156">
         <v>312.77</v>
@@ -9084,9 +9127,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B157">
         <v>23.580489</v>
@@ -9128,9 +9171,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B158">
         <v>23.580489</v>
@@ -9157,13 +9200,13 @@
         <v>771.05</v>
       </c>
       <c r="J158">
-        <v>91.95999999999999</v>
+        <v>91.96</v>
       </c>
       <c r="K158">
         <v>430.11</v>
       </c>
       <c r="L158">
-        <v>751.0700000000001</v>
+        <v>751.07</v>
       </c>
       <c r="M158">
         <v>93.48</v>
@@ -9172,9 +9215,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B159">
         <v>23.580489</v>
@@ -9201,7 +9244,7 @@
         <v>760.72</v>
       </c>
       <c r="J159">
-        <v>90.29000000000001</v>
+        <v>90.29</v>
       </c>
       <c r="K159">
         <v>412.19</v>
@@ -9216,9 +9259,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B160">
         <v>23.580489</v>
@@ -9260,9 +9303,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B161">
         <v>23.580489</v>
@@ -9286,7 +9329,7 @@
         <v>234.03</v>
       </c>
       <c r="I161">
-        <v>621.4400000000001</v>
+        <v>621.44000000000005</v>
       </c>
       <c r="J161">
         <v>70.62</v>
@@ -9295,7 +9338,7 @@
         <v>234</v>
       </c>
       <c r="L161">
-        <v>600.3200000000001</v>
+        <v>600.32000000000005</v>
       </c>
       <c r="M161">
         <v>68.11</v>
@@ -9304,9 +9347,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B162">
         <v>23.580489</v>
@@ -9348,9 +9391,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B163">
         <v>23.580489</v>
@@ -9392,9 +9435,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B164">
         <v>23.580489</v>
@@ -9436,9 +9479,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B165">
         <v>23.580489</v>
@@ -9480,9 +9523,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B166">
         <v>23.580489</v>
@@ -9524,9 +9567,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B167">
         <v>23.580489</v>
@@ -9568,9 +9611,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B168">
         <v>23.580489</v>
@@ -9612,9 +9655,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B169">
         <v>23.580489</v>
@@ -9656,12 +9699,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B170">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C170" s="2">
         <v>45324</v>
@@ -9700,12 +9743,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B171">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C171" s="2">
         <v>45324</v>
@@ -9744,12 +9787,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B172">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C172" s="2">
         <v>45324</v>
@@ -9788,12 +9831,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B173">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C173" s="2">
         <v>45324</v>
@@ -9832,12 +9875,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B174">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C174" s="2">
         <v>45324</v>
@@ -9876,12 +9919,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B175">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C175" s="2">
         <v>45324</v>
@@ -9920,12 +9963,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B176">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C176" s="2">
         <v>45324</v>
@@ -9964,12 +10007,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B177">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C177" s="2">
         <v>45324</v>
@@ -9990,7 +10033,7 @@
         <v>0.98</v>
       </c>
       <c r="I177">
-        <v>9.039999999999999</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="J177">
         <v>2.52</v>
@@ -10008,12 +10051,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B178">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C178" s="2">
         <v>45324</v>
@@ -10052,12 +10095,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B179">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C179" s="2">
         <v>45324</v>
@@ -10096,12 +10139,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B180">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C180" s="2">
         <v>45324</v>
@@ -10119,7 +10162,7 @@
         <v>10</v>
       </c>
       <c r="H180">
-        <v>325.66</v>
+        <v>325.66000000000003</v>
       </c>
       <c r="I180">
         <v>702.51</v>
@@ -10128,24 +10171,24 @@
         <v>81.66</v>
       </c>
       <c r="K180">
-        <v>82.95999999999999</v>
+        <v>82.96</v>
       </c>
       <c r="L180">
         <v>0</v>
       </c>
       <c r="M180">
-        <v>82.95999999999999</v>
+        <v>82.96</v>
       </c>
       <c r="N180" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B181">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C181" s="2">
         <v>45324</v>
@@ -10184,12 +10227,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B182">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C182" s="2">
         <v>45324</v>
@@ -10213,7 +10256,7 @@
         <v>773.99</v>
       </c>
       <c r="J182">
-        <v>92.43000000000001</v>
+        <v>92.43</v>
       </c>
       <c r="K182">
         <v>115.54</v>
@@ -10228,12 +10271,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B183">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C183" s="2">
         <v>45324</v>
@@ -10257,7 +10300,7 @@
         <v>761.39</v>
       </c>
       <c r="J183">
-        <v>90.43000000000001</v>
+        <v>90.43</v>
       </c>
       <c r="K183">
         <v>114.53</v>
@@ -10272,12 +10315,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B184">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C184" s="2">
         <v>45324</v>
@@ -10316,12 +10359,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B185">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C185" s="2">
         <v>45324</v>
@@ -10348,7 +10391,7 @@
         <v>69.95</v>
       </c>
       <c r="K185">
-        <v>95.68000000000001</v>
+        <v>95.68</v>
       </c>
       <c r="L185">
         <v>2.41</v>
@@ -10360,12 +10403,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B186">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C186" s="2">
         <v>45324</v>
@@ -10383,7 +10426,7 @@
         <v>16</v>
       </c>
       <c r="H186">
-        <v>94.48999999999999</v>
+        <v>94.49</v>
       </c>
       <c r="I186">
         <v>402.78</v>
@@ -10404,12 +10447,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B187">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C187" s="2">
         <v>45324</v>
@@ -10427,7 +10470,7 @@
         <v>17</v>
       </c>
       <c r="H187">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="I187">
         <v>34.74</v>
@@ -10448,12 +10491,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B188">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C188" s="2">
         <v>45324</v>
@@ -10492,12 +10535,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B189">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C189" s="2">
         <v>45324</v>
@@ -10536,12 +10579,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B190">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C190" s="2">
         <v>45324</v>
@@ -10580,12 +10623,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B191">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C191" s="2">
         <v>45324</v>
@@ -10624,12 +10667,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B192">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C192" s="2">
         <v>45324</v>
@@ -10668,12 +10711,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B193">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C193" s="2">
         <v>45324</v>
@@ -10712,12 +10755,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B194">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C194" s="2">
         <v>45325</v>
@@ -10756,12 +10799,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B195">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C195" s="2">
         <v>45325</v>
@@ -10800,12 +10843,12 @@
         <v>254</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B196">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C196" s="2">
         <v>45325</v>
@@ -10844,12 +10887,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B197">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C197" s="2">
         <v>45325</v>
@@ -10888,12 +10931,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B198">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C198" s="2">
         <v>45325</v>
@@ -10932,12 +10975,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B199">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C199" s="2">
         <v>45325</v>
@@ -10976,12 +11019,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B200">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C200" s="2">
         <v>45325</v>
@@ -11020,12 +11063,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B201">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C201" s="2">
         <v>45325</v>
@@ -11064,12 +11107,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B202">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C202" s="2">
         <v>45325</v>
@@ -11108,12 +11151,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B203">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C203" s="2">
         <v>45325</v>
@@ -11134,10 +11177,10 @@
         <v>211.67</v>
       </c>
       <c r="I203">
-        <v>596.55</v>
+        <v>596.54999999999995</v>
       </c>
       <c r="J203">
-        <v>67.45999999999999</v>
+        <v>67.459999999999994</v>
       </c>
       <c r="K203">
         <v>52.92</v>
@@ -11152,12 +11195,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B204">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C204" s="2">
         <v>45325</v>
@@ -11181,7 +11224,7 @@
         <v>706.35</v>
       </c>
       <c r="J204">
-        <v>82.06999999999999</v>
+        <v>82.07</v>
       </c>
       <c r="K204">
         <v>82.61</v>
@@ -11196,12 +11239,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B205">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C205" s="2">
         <v>45325</v>
@@ -11222,7 +11265,7 @@
         <v>410.43</v>
       </c>
       <c r="I205">
-        <v>759.5599999999999</v>
+        <v>759.56</v>
       </c>
       <c r="J205">
         <v>90</v>
@@ -11240,12 +11283,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B206">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C206" s="2">
         <v>45325</v>
@@ -11284,12 +11327,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B207">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C207" s="2">
         <v>45325</v>
@@ -11328,12 +11371,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B208">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C208" s="2">
         <v>45325</v>
@@ -11354,7 +11397,7 @@
         <v>347.11</v>
       </c>
       <c r="I208">
-        <v>718.5599999999999</v>
+        <v>718.56</v>
       </c>
       <c r="J208">
         <v>83.8</v>
@@ -11372,12 +11415,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B209">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C209" s="2">
         <v>45325</v>
@@ -11416,12 +11459,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B210">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C210" s="2">
         <v>45325</v>
@@ -11439,7 +11482,7 @@
         <v>16</v>
       </c>
       <c r="H210">
-        <v>98.45999999999999</v>
+        <v>98.46</v>
       </c>
       <c r="I210">
         <v>412.56</v>
@@ -11460,12 +11503,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B211">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C211" s="2">
         <v>45325</v>
@@ -11504,12 +11547,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B212">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C212" s="2">
         <v>45325</v>
@@ -11548,12 +11591,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B213">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C213" s="2">
         <v>45325</v>
@@ -11592,12 +11635,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B214">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C214" s="2">
         <v>45325</v>
@@ -11636,12 +11679,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B215">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C215" s="2">
         <v>45325</v>
@@ -11680,12 +11723,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B216">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C216" s="2">
         <v>45325</v>
@@ -11724,12 +11767,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B217">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C217" s="2">
         <v>45325</v>
@@ -11768,12 +11811,12 @@
         <v>276</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B218">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C218" s="2">
         <v>45326</v>
@@ -11812,12 +11855,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B219">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C219" s="2">
         <v>45326</v>
@@ -11856,12 +11899,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B220">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C220" s="2">
         <v>45326</v>
@@ -11900,12 +11943,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B221">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C221" s="2">
         <v>45326</v>
@@ -11944,12 +11987,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B222">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C222" s="2">
         <v>45326</v>
@@ -11988,12 +12031,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B223">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C223" s="2">
         <v>45326</v>
@@ -12032,12 +12075,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B224">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C224" s="2">
         <v>45326</v>
@@ -12076,12 +12119,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B225">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C225" s="2">
         <v>45326</v>
@@ -12120,12 +12163,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B226">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C226" s="2">
         <v>45326</v>
@@ -12143,7 +12186,7 @@
         <v>8</v>
       </c>
       <c r="H226">
-        <v>79.29000000000001</v>
+        <v>79.290000000000006</v>
       </c>
       <c r="I226">
         <v>362.64</v>
@@ -12164,12 +12207,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B227">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C227" s="2">
         <v>45326</v>
@@ -12193,7 +12236,7 @@
         <v>601.54</v>
       </c>
       <c r="J227">
-        <v>68.01000000000001</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="K227">
         <v>53.99</v>
@@ -12208,12 +12251,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B228">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C228" s="2">
         <v>45326</v>
@@ -12252,12 +12295,12 @@
         <v>287</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B229">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C229" s="2">
         <v>45326</v>
@@ -12296,12 +12339,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B230">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C230" s="2">
         <v>45326</v>
@@ -12325,7 +12368,7 @@
         <v>780.15</v>
       </c>
       <c r="J230">
-        <v>93.18000000000001</v>
+        <v>93.18</v>
       </c>
       <c r="K230">
         <v>111.64</v>
@@ -12340,12 +12383,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B231">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C231" s="2">
         <v>45326</v>
@@ -12366,7 +12409,7 @@
         <v>424.64</v>
       </c>
       <c r="I231">
-        <v>767.9400000000001</v>
+        <v>767.94</v>
       </c>
       <c r="J231">
         <v>91.22</v>
@@ -12384,12 +12427,12 @@
         <v>290</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B232">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C232" s="2">
         <v>45326</v>
@@ -12428,12 +12471,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B233">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C233" s="2">
         <v>45326</v>
@@ -12472,12 +12515,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B234">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C234" s="2">
         <v>45326</v>
@@ -12516,12 +12559,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B235">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C235" s="2">
         <v>45326</v>
@@ -12560,12 +12603,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B236">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C236" s="2">
         <v>45326</v>
@@ -12604,12 +12647,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B237">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C237" s="2">
         <v>45326</v>
@@ -12648,12 +12691,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B238">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C238" s="2">
         <v>45326</v>
@@ -12692,12 +12735,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B239">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C239" s="2">
         <v>45326</v>
@@ -12736,12 +12779,12 @@
         <v>298</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B240">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C240" s="2">
         <v>45326</v>
@@ -12780,12 +12823,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B241">
-        <v>24.724419</v>
+        <v>24.724419000000001</v>
       </c>
       <c r="C241" s="2">
         <v>45326</v>
@@ -12824,9 +12867,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B242">
         <v>23.580489</v>
@@ -12868,9 +12911,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B243">
         <v>23.580489</v>
@@ -12912,9 +12955,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B244">
         <v>23.580489</v>
@@ -12956,9 +12999,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B245">
         <v>23.580489</v>
@@ -13000,9 +13043,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B246">
         <v>23.580489</v>
@@ -13044,9 +13087,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B247">
         <v>23.580489</v>
@@ -13088,9 +13131,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B248">
         <v>23.580489</v>
@@ -13132,9 +13175,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B249">
         <v>23.580489</v>
@@ -13176,9 +13219,9 @@
         <v>308</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B250">
         <v>23.580489</v>
@@ -13220,9 +13263,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B251">
         <v>23.580489</v>
@@ -13249,7 +13292,7 @@
         <v>595.11</v>
       </c>
       <c r="J251">
-        <v>67.09999999999999</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="K251">
         <v>52.53</v>
@@ -13264,9 +13307,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B252">
         <v>23.580489</v>
@@ -13296,21 +13339,21 @@
         <v>82.11</v>
       </c>
       <c r="K252">
-        <v>83.06999999999999</v>
+        <v>83.07</v>
       </c>
       <c r="L252">
         <v>0</v>
       </c>
       <c r="M252">
-        <v>83.06999999999999</v>
+        <v>83.07</v>
       </c>
       <c r="N252" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B253">
         <v>23.580489</v>
@@ -13352,9 +13395,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B254">
         <v>23.580489</v>
@@ -13396,9 +13439,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B255">
         <v>23.580489</v>
@@ -13422,10 +13465,10 @@
         <v>433.64</v>
       </c>
       <c r="I255">
-        <v>773.1900000000001</v>
+        <v>773.19</v>
       </c>
       <c r="J255">
-        <v>91.93000000000001</v>
+        <v>91.93</v>
       </c>
       <c r="K255">
         <v>108.41</v>
@@ -13440,9 +13483,9 @@
         <v>314</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B256">
         <v>23.580489</v>
@@ -13466,7 +13509,7 @@
         <v>364.79</v>
       </c>
       <c r="I256">
-        <v>730.9299999999999</v>
+        <v>730.93</v>
       </c>
       <c r="J256">
         <v>85.45</v>
@@ -13484,9 +13527,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B257">
         <v>23.580489</v>
@@ -13513,7 +13556,7 @@
         <v>641.26</v>
       </c>
       <c r="J257">
-        <v>72.95999999999999</v>
+        <v>72.959999999999994</v>
       </c>
       <c r="K257">
         <v>63.85</v>
@@ -13528,9 +13571,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B258">
         <v>23.580489</v>
@@ -13572,9 +13615,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B259">
         <v>23.580489</v>
@@ -13598,7 +13641,7 @@
         <v>10.59</v>
       </c>
       <c r="I259">
-        <v>76.79000000000001</v>
+        <v>76.790000000000006</v>
       </c>
       <c r="J259">
         <v>10.95</v>
@@ -13616,9 +13659,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B260">
         <v>23.580489</v>
@@ -13660,9 +13703,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B261">
         <v>23.580489</v>
@@ -13704,9 +13747,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B262">
         <v>23.580489</v>
@@ -13748,9 +13791,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B263">
         <v>23.580489</v>
@@ -13792,9 +13835,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B264">
         <v>23.580489</v>
@@ -13836,9 +13879,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B265">
         <v>23.580489</v>
@@ -13880,9 +13923,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B266">
         <v>23.580489</v>
@@ -13924,9 +13967,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B267">
         <v>23.580489</v>
@@ -13968,9 +14011,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B268">
         <v>23.580489</v>
@@ -14012,9 +14055,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B269">
         <v>23.580489</v>
@@ -14056,9 +14099,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B270">
         <v>23.580489</v>
@@ -14100,9 +14143,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B271">
         <v>23.580489</v>
@@ -14144,9 +14187,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B272">
         <v>23.580489</v>
@@ -14188,9 +14231,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B273">
         <v>23.580489</v>
@@ -14211,7 +14254,7 @@
         <v>7</v>
       </c>
       <c r="H273">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I273">
         <v>10.81</v>
@@ -14220,21 +14263,21 @@
         <v>2.74</v>
       </c>
       <c r="K273">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L273">
         <v>0</v>
       </c>
       <c r="M273">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="N273" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B274">
         <v>23.580489</v>
@@ -14255,7 +14298,7 @@
         <v>8</v>
       </c>
       <c r="H274">
-        <v>76.01000000000001</v>
+        <v>76.010000000000005</v>
       </c>
       <c r="I274">
         <v>352.91</v>
@@ -14276,9 +14319,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B275">
         <v>23.580489</v>
@@ -14305,7 +14348,7 @@
         <v>599.88</v>
       </c>
       <c r="J275">
-        <v>67.70999999999999</v>
+        <v>67.709999999999994</v>
       </c>
       <c r="K275">
         <v>214.42</v>
@@ -14320,9 +14363,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B276">
         <v>23.580489</v>
@@ -14358,15 +14401,15 @@
         <v>711.52</v>
       </c>
       <c r="M276">
-        <v>74.81999999999999</v>
+        <v>74.819999999999993</v>
       </c>
       <c r="N276" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B277">
         <v>23.580489</v>
@@ -14390,7 +14433,7 @@
         <v>421.56</v>
       </c>
       <c r="I277">
-        <v>766.0700000000001</v>
+        <v>766.07</v>
       </c>
       <c r="J277">
         <v>90.83</v>
@@ -14408,9 +14451,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B278">
         <v>23.580489</v>
@@ -14446,15 +14489,15 @@
         <v>763.83</v>
       </c>
       <c r="M278">
-        <v>92.26000000000001</v>
+        <v>92.26</v>
       </c>
       <c r="N278" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B279">
         <v>23.580489</v>
@@ -14487,18 +14530,18 @@
         <v>431.82</v>
       </c>
       <c r="L279">
-        <v>745.9299999999999</v>
+        <v>745.93</v>
       </c>
       <c r="M279">
-        <v>91.81999999999999</v>
+        <v>91.82</v>
       </c>
       <c r="N279" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B280">
         <v>23.580489</v>
@@ -14540,9 +14583,9 @@
         <v>339</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B281">
         <v>23.580489</v>
@@ -14566,7 +14609,7 @@
         <v>258.39</v>
       </c>
       <c r="I281">
-        <v>645.9400000000001</v>
+        <v>645.94000000000005</v>
       </c>
       <c r="J281">
         <v>73.55</v>
@@ -14584,9 +14627,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B282">
         <v>23.580489</v>
@@ -14628,9 +14671,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B283">
         <v>23.580489</v>
@@ -14654,7 +14697,7 @@
         <v>11.9</v>
       </c>
       <c r="I283">
-        <v>84.43000000000001</v>
+        <v>84.43</v>
       </c>
       <c r="J283">
         <v>11.68</v>
@@ -14672,9 +14715,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B284">
         <v>23.580489</v>
@@ -14716,9 +14759,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B285">
         <v>23.580489</v>
@@ -14760,9 +14803,9 @@
         <v>344</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B286">
         <v>23.580489</v>
@@ -14804,9 +14847,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B287">
         <v>23.580489</v>
@@ -14848,9 +14891,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B288">
         <v>23.580489</v>
@@ -14892,9 +14935,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>46.073272</v>
+        <v>46.073272000000003</v>
       </c>
       <c r="B289">
         <v>23.580489</v>
@@ -14936,12 +14979,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B290">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C290" s="2">
         <v>45329</v>
@@ -14980,12 +15023,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B291">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C291" s="2">
         <v>45329</v>
@@ -15024,12 +15067,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B292">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C292" s="2">
         <v>45329</v>
@@ -15068,12 +15111,12 @@
         <v>351</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B293">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C293" s="2">
         <v>45329</v>
@@ -15112,12 +15155,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B294">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C294" s="2">
         <v>45329</v>
@@ -15156,12 +15199,12 @@
         <v>353</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B295">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C295" s="2">
         <v>45329</v>
@@ -15200,12 +15243,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B296">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C296" s="2">
         <v>45329</v>
@@ -15244,12 +15287,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B297">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C297" s="2">
         <v>45329</v>
@@ -15267,10 +15310,10 @@
         <v>7</v>
       </c>
       <c r="H297">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I297">
-        <v>18.58</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="J297">
         <v>3.6</v>
@@ -15288,12 +15331,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B298">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C298" s="2">
         <v>45329</v>
@@ -15311,7 +15354,7 @@
         <v>8</v>
       </c>
       <c r="H298">
-        <v>80.51000000000001</v>
+        <v>80.510000000000005</v>
       </c>
       <c r="I298">
         <v>367.22</v>
@@ -15332,12 +15375,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B299">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C299" s="2">
         <v>45329</v>
@@ -15376,12 +15419,12 @@
         <v>358</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B300">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C300" s="2">
         <v>45329</v>
@@ -15420,12 +15463,12 @@
         <v>359</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B301">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C301" s="2">
         <v>45329</v>
@@ -15446,7 +15489,7 @@
         <v>411.54</v>
       </c>
       <c r="I301">
-        <v>760.5700000000001</v>
+        <v>760.57</v>
       </c>
       <c r="J301">
         <v>89.81</v>
@@ -15464,12 +15507,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B302">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C302" s="2">
         <v>45329</v>
@@ -15508,12 +15551,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B303">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C303" s="2">
         <v>45329</v>
@@ -15552,12 +15595,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B304">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C304" s="2">
         <v>45329</v>
@@ -15596,12 +15639,12 @@
         <v>363</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B305">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C305" s="2">
         <v>45329</v>
@@ -15628,7 +15671,7 @@
         <v>70.91</v>
       </c>
       <c r="K305">
-        <v>132.55</v>
+        <v>132.55000000000001</v>
       </c>
       <c r="L305">
         <v>60.6</v>
@@ -15640,12 +15683,12 @@
         <v>364</v>
       </c>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B306">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C306" s="2">
         <v>45329</v>
@@ -15684,12 +15727,12 @@
         <v>365</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B307">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C307" s="2">
         <v>45329</v>
@@ -15728,12 +15771,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B308">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C308" s="2">
         <v>45329</v>
@@ -15772,12 +15815,12 @@
         <v>367</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B309">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C309" s="2">
         <v>45329</v>
@@ -15816,12 +15859,12 @@
         <v>368</v>
       </c>
     </row>
-    <row r="310" spans="1:14">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B310">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C310" s="2">
         <v>45329</v>
@@ -15860,12 +15903,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B311">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C311" s="2">
         <v>45329</v>
@@ -15904,12 +15947,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B312">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C312" s="2">
         <v>45329</v>
@@ -15948,12 +15991,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B313">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C313" s="2">
         <v>45329</v>
@@ -15992,12 +16035,12 @@
         <v>372</v>
       </c>
     </row>
-    <row r="314" spans="1:14">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B314">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C314" s="2">
         <v>45330</v>
@@ -16036,12 +16079,12 @@
         <v>373</v>
       </c>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B315">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C315" s="2">
         <v>45330</v>
@@ -16080,12 +16123,12 @@
         <v>374</v>
       </c>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B316">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C316" s="2">
         <v>45330</v>
@@ -16124,12 +16167,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="317" spans="1:14">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B317">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C317" s="2">
         <v>45330</v>
@@ -16168,12 +16211,12 @@
         <v>376</v>
       </c>
     </row>
-    <row r="318" spans="1:14">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B318">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C318" s="2">
         <v>45330</v>
@@ -16212,12 +16255,12 @@
         <v>377</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B319">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C319" s="2">
         <v>45330</v>
@@ -16256,12 +16299,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="320" spans="1:14">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B320">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C320" s="2">
         <v>45330</v>
@@ -16300,12 +16343,12 @@
         <v>379</v>
       </c>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B321">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C321" s="2">
         <v>45330</v>
@@ -16344,12 +16387,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B322">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C322" s="2">
         <v>45330</v>
@@ -16367,7 +16410,7 @@
         <v>8</v>
       </c>
       <c r="H322">
-        <v>84.20999999999999</v>
+        <v>84.21</v>
       </c>
       <c r="I322">
         <v>377.56</v>
@@ -16388,12 +16431,12 @@
         <v>381</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B323">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C323" s="2">
         <v>45330</v>
@@ -16417,7 +16460,7 @@
         <v>606.79</v>
       </c>
       <c r="J323">
-        <v>68.34999999999999</v>
+        <v>68.349999999999994</v>
       </c>
       <c r="K323">
         <v>55.13</v>
@@ -16432,12 +16475,12 @@
         <v>382</v>
       </c>
     </row>
-    <row r="324" spans="1:14">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B324">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C324" s="2">
         <v>45330</v>
@@ -16476,12 +16519,12 @@
         <v>383</v>
       </c>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B325">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C325" s="2">
         <v>45330</v>
@@ -16505,7 +16548,7 @@
         <v>763.86</v>
       </c>
       <c r="J325">
-        <v>90.23999999999999</v>
+        <v>90.24</v>
       </c>
       <c r="K325">
         <v>104.38</v>
@@ -16520,12 +16563,12 @@
         <v>384</v>
       </c>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B326">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C326" s="2">
         <v>45330</v>
@@ -16549,7 +16592,7 @@
         <v>781.2</v>
       </c>
       <c r="J326">
-        <v>92.95999999999999</v>
+        <v>92.96</v>
       </c>
       <c r="K326">
         <v>112.26</v>
@@ -16564,12 +16607,12 @@
         <v>385</v>
       </c>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B327">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C327" s="2">
         <v>45330</v>
@@ -16593,7 +16636,7 @@
         <v>769.47</v>
       </c>
       <c r="J327">
-        <v>91.06999999999999</v>
+        <v>91.07</v>
       </c>
       <c r="K327">
         <v>107.45</v>
@@ -16608,12 +16651,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="328" spans="1:14">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B328">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C328" s="2">
         <v>45330</v>
@@ -16640,24 +16683,24 @@
         <v>84.3</v>
       </c>
       <c r="K328">
-        <v>89.54000000000001</v>
+        <v>89.54</v>
       </c>
       <c r="L328">
         <v>0</v>
       </c>
       <c r="M328">
-        <v>89.54000000000001</v>
+        <v>89.54</v>
       </c>
       <c r="N328" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B329">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C329" s="2">
         <v>45330</v>
@@ -16696,12 +16739,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="330" spans="1:14">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B330">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C330" s="2">
         <v>45330</v>
@@ -16740,12 +16783,12 @@
         <v>389</v>
       </c>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B331">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C331" s="2">
         <v>45330</v>
@@ -16763,7 +16806,7 @@
         <v>17</v>
       </c>
       <c r="H331">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I331">
         <v>62.66</v>
@@ -16772,24 +16815,24 @@
         <v>9.49</v>
       </c>
       <c r="K331">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="L331">
         <v>0</v>
       </c>
       <c r="M331">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="N331" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="332" spans="1:14">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B332">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C332" s="2">
         <v>45330</v>
@@ -16828,12 +16871,12 @@
         <v>391</v>
       </c>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B333">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C333" s="2">
         <v>45330</v>
@@ -16872,12 +16915,12 @@
         <v>392</v>
       </c>
     </row>
-    <row r="334" spans="1:14">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B334">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C334" s="2">
         <v>45330</v>
@@ -16916,12 +16959,12 @@
         <v>393</v>
       </c>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B335">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C335" s="2">
         <v>45330</v>
@@ -16960,12 +17003,12 @@
         <v>394</v>
       </c>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B336">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C336" s="2">
         <v>45330</v>
@@ -17004,12 +17047,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B337">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C337" s="2">
         <v>45330</v>
@@ -17048,12 +17091,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="338" spans="1:14">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B338">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C338" s="2">
         <v>45331</v>
@@ -17092,12 +17135,12 @@
         <v>397</v>
       </c>
     </row>
-    <row r="339" spans="1:14">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B339">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C339" s="2">
         <v>45331</v>
@@ -17136,12 +17179,12 @@
         <v>398</v>
       </c>
     </row>
-    <row r="340" spans="1:14">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B340">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C340" s="2">
         <v>45331</v>
@@ -17180,12 +17223,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B341">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C341" s="2">
         <v>45331</v>
@@ -17224,12 +17267,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="342" spans="1:14">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B342">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C342" s="2">
         <v>45331</v>
@@ -17268,12 +17311,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="343" spans="1:14">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B343">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C343" s="2">
         <v>45331</v>
@@ -17312,12 +17355,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="344" spans="1:14">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B344">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C344" s="2">
         <v>45331</v>
@@ -17356,12 +17399,12 @@
         <v>403</v>
       </c>
     </row>
-    <row r="345" spans="1:14">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B345">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C345" s="2">
         <v>45331</v>
@@ -17400,12 +17443,12 @@
         <v>404</v>
       </c>
     </row>
-    <row r="346" spans="1:14">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B346">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C346" s="2">
         <v>45331</v>
@@ -17423,7 +17466,7 @@
         <v>8</v>
       </c>
       <c r="H346">
-        <v>87.98999999999999</v>
+        <v>87.99</v>
       </c>
       <c r="I346">
         <v>387.51</v>
@@ -17444,12 +17487,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="347" spans="1:14">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B347">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C347" s="2">
         <v>45331</v>
@@ -17473,7 +17516,7 @@
         <v>612.09</v>
       </c>
       <c r="J347">
-        <v>68.95999999999999</v>
+        <v>68.959999999999994</v>
       </c>
       <c r="K347">
         <v>56.17</v>
@@ -17488,12 +17531,12 @@
         <v>406</v>
       </c>
     </row>
-    <row r="348" spans="1:14">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B348">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C348" s="2">
         <v>45331</v>
@@ -17517,7 +17560,7 @@
         <v>716.12</v>
       </c>
       <c r="J348">
-        <v>82.98999999999999</v>
+        <v>82.99</v>
       </c>
       <c r="K348">
         <v>85.75</v>
@@ -17532,12 +17575,12 @@
         <v>407</v>
       </c>
     </row>
-    <row r="349" spans="1:14">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B349">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C349" s="2">
         <v>45331</v>
@@ -17576,12 +17619,12 @@
         <v>408</v>
       </c>
     </row>
-    <row r="350" spans="1:14">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B350">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C350" s="2">
         <v>45331</v>
@@ -17620,12 +17663,12 @@
         <v>409</v>
       </c>
     </row>
-    <row r="351" spans="1:14">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B351">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C351" s="2">
         <v>45331</v>
@@ -17649,7 +17692,7 @@
         <v>772.61</v>
       </c>
       <c r="J351">
-        <v>91.51000000000001</v>
+        <v>91.51</v>
       </c>
       <c r="K351">
         <v>108.05</v>
@@ -17664,12 +17707,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="352" spans="1:14">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B352">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C352" s="2">
         <v>45331</v>
@@ -17696,24 +17739,24 @@
         <v>84.81</v>
       </c>
       <c r="K352">
-        <v>90.26000000000001</v>
+        <v>90.26</v>
       </c>
       <c r="L352">
         <v>0</v>
       </c>
       <c r="M352">
-        <v>90.26000000000001</v>
+        <v>90.26</v>
       </c>
       <c r="N352" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B353">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C353" s="2">
         <v>45331</v>
@@ -17752,12 +17795,12 @@
         <v>412</v>
       </c>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B354">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C354" s="2">
         <v>45331</v>
@@ -17796,12 +17839,12 @@
         <v>413</v>
       </c>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B355">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C355" s="2">
         <v>45331</v>
@@ -17840,12 +17883,12 @@
         <v>414</v>
       </c>
     </row>
-    <row r="356" spans="1:14">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B356">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C356" s="2">
         <v>45331</v>
@@ -17884,12 +17927,12 @@
         <v>415</v>
       </c>
     </row>
-    <row r="357" spans="1:14">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B357">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C357" s="2">
         <v>45331</v>
@@ -17928,12 +17971,12 @@
         <v>416</v>
       </c>
     </row>
-    <row r="358" spans="1:14">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B358">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C358" s="2">
         <v>45331</v>
@@ -17972,12 +18015,12 @@
         <v>417</v>
       </c>
     </row>
-    <row r="359" spans="1:14">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B359">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C359" s="2">
         <v>45331</v>
@@ -18016,12 +18059,12 @@
         <v>418</v>
       </c>
     </row>
-    <row r="360" spans="1:14">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B360">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C360" s="2">
         <v>45331</v>
@@ -18060,12 +18103,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="361" spans="1:14">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B361">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C361" s="2">
         <v>45331</v>
@@ -18104,12 +18147,12 @@
         <v>420</v>
       </c>
     </row>
-    <row r="362" spans="1:14">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B362">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C362" s="2">
         <v>45332</v>
@@ -18148,12 +18191,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="363" spans="1:14">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B363">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C363" s="2">
         <v>45332</v>
@@ -18192,12 +18235,12 @@
         <v>422</v>
       </c>
     </row>
-    <row r="364" spans="1:14">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B364">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C364" s="2">
         <v>45332</v>
@@ -18236,12 +18279,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="365" spans="1:14">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B365">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C365" s="2">
         <v>45332</v>
@@ -18280,12 +18323,12 @@
         <v>424</v>
       </c>
     </row>
-    <row r="366" spans="1:14">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B366">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C366" s="2">
         <v>45332</v>
@@ -18324,12 +18367,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="367" spans="1:14">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B367">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C367" s="2">
         <v>45332</v>
@@ -18368,12 +18411,12 @@
         <v>426</v>
       </c>
     </row>
-    <row r="368" spans="1:14">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B368">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C368" s="2">
         <v>45332</v>
@@ -18412,12 +18455,12 @@
         <v>427</v>
       </c>
     </row>
-    <row r="369" spans="1:14">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B369">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C369" s="2">
         <v>45332</v>
@@ -18456,12 +18499,12 @@
         <v>428</v>
       </c>
     </row>
-    <row r="370" spans="1:14">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B370">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C370" s="2">
         <v>45332</v>
@@ -18479,7 +18522,7 @@
         <v>8</v>
       </c>
       <c r="H370">
-        <v>91.84999999999999</v>
+        <v>91.85</v>
       </c>
       <c r="I370">
         <v>397.17</v>
@@ -18500,12 +18543,12 @@
         <v>429</v>
       </c>
     </row>
-    <row r="371" spans="1:14">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B371">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C371" s="2">
         <v>45332</v>
@@ -18529,7 +18572,7 @@
         <v>617.1</v>
       </c>
       <c r="J371">
-        <v>69.59999999999999</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="K371">
         <v>57.38</v>
@@ -18544,12 +18587,12 @@
         <v>430</v>
       </c>
     </row>
-    <row r="372" spans="1:14">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B372">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C372" s="2">
         <v>45332</v>
@@ -18573,27 +18616,27 @@
         <v>719.67</v>
       </c>
       <c r="J372">
-        <v>83.51000000000001</v>
+        <v>83.51</v>
       </c>
       <c r="K372">
-        <v>87.06999999999999</v>
+        <v>87.07</v>
       </c>
       <c r="L372">
         <v>0</v>
       </c>
       <c r="M372">
-        <v>87.06999999999999</v>
+        <v>87.07</v>
       </c>
       <c r="N372" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="373" spans="1:14">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B373">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C373" s="2">
         <v>45332</v>
@@ -18632,12 +18675,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="374" spans="1:14">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B374">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C374" s="2">
         <v>45332</v>
@@ -18676,12 +18719,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="375" spans="1:14">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B375">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C375" s="2">
         <v>45332</v>
@@ -18705,7 +18748,7 @@
         <v>775.52</v>
       </c>
       <c r="J375">
-        <v>91.98999999999999</v>
+        <v>91.99</v>
       </c>
       <c r="K375">
         <v>109.46</v>
@@ -18720,12 +18763,12 @@
         <v>434</v>
       </c>
     </row>
-    <row r="376" spans="1:14">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B376">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C376" s="2">
         <v>45332</v>
@@ -18746,7 +18789,7 @@
         <v>366.47</v>
       </c>
       <c r="I376">
-        <v>732.1799999999999</v>
+        <v>732.18</v>
       </c>
       <c r="J376">
         <v>85.33</v>
@@ -18764,12 +18807,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="377" spans="1:14">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B377">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C377" s="2">
         <v>45332</v>
@@ -18790,7 +18833,7 @@
         <v>253.82</v>
       </c>
       <c r="I377">
-        <v>641.95</v>
+        <v>641.95000000000005</v>
       </c>
       <c r="J377">
         <v>72.77</v>
@@ -18808,12 +18851,12 @@
         <v>436</v>
       </c>
     </row>
-    <row r="378" spans="1:14">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B378">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C378" s="2">
         <v>45332</v>
@@ -18852,12 +18895,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="379" spans="1:14">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B379">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C379" s="2">
         <v>45332</v>
@@ -18896,12 +18939,12 @@
         <v>438</v>
       </c>
     </row>
-    <row r="380" spans="1:14">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B380">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C380" s="2">
         <v>45332</v>
@@ -18940,12 +18983,12 @@
         <v>439</v>
       </c>
     </row>
-    <row r="381" spans="1:14">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B381">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C381" s="2">
         <v>45332</v>
@@ -18984,12 +19027,12 @@
         <v>440</v>
       </c>
     </row>
-    <row r="382" spans="1:14">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B382">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C382" s="2">
         <v>45332</v>
@@ -19028,12 +19071,12 @@
         <v>441</v>
       </c>
     </row>
-    <row r="383" spans="1:14">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B383">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C383" s="2">
         <v>45332</v>
@@ -19072,12 +19115,12 @@
         <v>442</v>
       </c>
     </row>
-    <row r="384" spans="1:14">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B384">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C384" s="2">
         <v>45332</v>
@@ -19116,12 +19159,12 @@
         <v>443</v>
       </c>
     </row>
-    <row r="385" spans="1:14">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B385">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C385" s="2">
         <v>45332</v>
@@ -19160,12 +19203,12 @@
         <v>444</v>
       </c>
     </row>
-    <row r="386" spans="1:14">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B386">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C386" s="2">
         <v>45333</v>
@@ -19204,12 +19247,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="387" spans="1:14">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B387">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C387" s="2">
         <v>45333</v>
@@ -19248,12 +19291,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="388" spans="1:14">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B388">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C388" s="2">
         <v>45333</v>
@@ -19292,12 +19335,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="389" spans="1:14">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B389">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C389" s="2">
         <v>45333</v>
@@ -19336,12 +19379,12 @@
         <v>448</v>
       </c>
     </row>
-    <row r="390" spans="1:14">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B390">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C390" s="2">
         <v>45333</v>
@@ -19380,12 +19423,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="391" spans="1:14">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B391">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C391" s="2">
         <v>45333</v>
@@ -19424,12 +19467,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="392" spans="1:14">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B392">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C392" s="2">
         <v>45333</v>
@@ -19468,12 +19511,12 @@
         <v>451</v>
       </c>
     </row>
-    <row r="393" spans="1:14">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B393">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C393" s="2">
         <v>45333</v>
@@ -19491,33 +19534,33 @@
         <v>7</v>
       </c>
       <c r="H393">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="I393">
-        <v>35.37</v>
+        <v>35.369999999999997</v>
       </c>
       <c r="J393">
         <v>5.94</v>
       </c>
       <c r="K393">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L393">
         <v>0</v>
       </c>
       <c r="M393">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="N393" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="394" spans="1:14">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B394">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C394" s="2">
         <v>45333</v>
@@ -19535,7 +19578,7 @@
         <v>8</v>
       </c>
       <c r="H394">
-        <v>95.84999999999999</v>
+        <v>95.85</v>
       </c>
       <c r="I394">
         <v>406.94</v>
@@ -19556,12 +19599,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="395" spans="1:14">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B395">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C395" s="2">
         <v>45333</v>
@@ -19600,12 +19643,12 @@
         <v>454</v>
       </c>
     </row>
-    <row r="396" spans="1:14">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B396">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C396" s="2">
         <v>45333</v>
@@ -19644,12 +19687,12 @@
         <v>455</v>
       </c>
     </row>
-    <row r="397" spans="1:14">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B397">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C397" s="2">
         <v>45333</v>
@@ -19673,7 +19716,7 @@
         <v>773.33</v>
       </c>
       <c r="J397">
-        <v>91.56999999999999</v>
+        <v>91.57</v>
       </c>
       <c r="K397">
         <v>250.03</v>
@@ -19688,12 +19731,12 @@
         <v>456</v>
       </c>
     </row>
-    <row r="398" spans="1:14">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B398">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C398" s="2">
         <v>45333</v>
@@ -19714,10 +19757,10 @@
         <v>465.06</v>
       </c>
       <c r="I398">
-        <v>790.1799999999999</v>
+        <v>790.18</v>
       </c>
       <c r="J398">
-        <v>94.23999999999999</v>
+        <v>94.24</v>
       </c>
       <c r="K398">
         <v>237.99</v>
@@ -19732,12 +19775,12 @@
         <v>457</v>
       </c>
     </row>
-    <row r="399" spans="1:14">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B399">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C399" s="2">
         <v>45333</v>
@@ -19761,7 +19804,7 @@
         <v>778.83</v>
       </c>
       <c r="J399">
-        <v>92.40000000000001</v>
+        <v>92.4</v>
       </c>
       <c r="K399">
         <v>208.05</v>
@@ -19776,12 +19819,12 @@
         <v>458</v>
       </c>
     </row>
-    <row r="400" spans="1:14">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B400">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C400" s="2">
         <v>45333</v>
@@ -19802,10 +19845,10 @@
         <v>372.1</v>
       </c>
       <c r="I400">
-        <v>736.0700000000001</v>
+        <v>736.07</v>
       </c>
       <c r="J400">
-        <v>85.79000000000001</v>
+        <v>85.79</v>
       </c>
       <c r="K400">
         <v>164.54</v>
@@ -19820,12 +19863,12 @@
         <v>459</v>
       </c>
     </row>
-    <row r="401" spans="1:14">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B401">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C401" s="2">
         <v>45333</v>
@@ -19843,7 +19886,7 @@
         <v>15</v>
       </c>
       <c r="H401">
-        <v>259.03</v>
+        <v>259.02999999999997</v>
       </c>
       <c r="I401">
         <v>647.16</v>
@@ -19864,12 +19907,12 @@
         <v>460</v>
       </c>
     </row>
-    <row r="402" spans="1:14">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B402">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C402" s="2">
         <v>45333</v>
@@ -19908,12 +19951,12 @@
         <v>461</v>
       </c>
     </row>
-    <row r="403" spans="1:14">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B403">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C403" s="2">
         <v>45333</v>
@@ -19952,12 +19995,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="404" spans="1:14">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B404">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C404" s="2">
         <v>45333</v>
@@ -19996,12 +20039,12 @@
         <v>463</v>
       </c>
     </row>
-    <row r="405" spans="1:14">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B405">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C405" s="2">
         <v>45333</v>
@@ -20040,12 +20083,12 @@
         <v>464</v>
       </c>
     </row>
-    <row r="406" spans="1:14">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B406">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C406" s="2">
         <v>45333</v>
@@ -20084,12 +20127,12 @@
         <v>465</v>
       </c>
     </row>
-    <row r="407" spans="1:14">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B407">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C407" s="2">
         <v>45333</v>
@@ -20128,12 +20171,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="408" spans="1:14">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B408">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C408" s="2">
         <v>45333</v>
@@ -20172,12 +20215,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="409" spans="1:14">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B409">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C409" s="2">
         <v>45333</v>
@@ -20216,12 +20259,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="410" spans="1:14">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B410">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C410" s="2">
         <v>45334</v>
@@ -20260,12 +20303,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="411" spans="1:14">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B411">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C411" s="2">
         <v>45334</v>
@@ -20304,12 +20347,12 @@
         <v>470</v>
       </c>
     </row>
-    <row r="412" spans="1:14">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B412">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C412" s="2">
         <v>45334</v>
@@ -20348,12 +20391,12 @@
         <v>471</v>
       </c>
     </row>
-    <row r="413" spans="1:14">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B413">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C413" s="2">
         <v>45334</v>
@@ -20392,12 +20435,12 @@
         <v>472</v>
       </c>
     </row>
-    <row r="414" spans="1:14">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B414">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C414" s="2">
         <v>45334</v>
@@ -20436,12 +20479,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="415" spans="1:14">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B415">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C415" s="2">
         <v>45334</v>
@@ -20480,12 +20523,12 @@
         <v>474</v>
       </c>
     </row>
-    <row r="416" spans="1:14">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B416">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C416" s="2">
         <v>45334</v>
@@ -20524,12 +20567,12 @@
         <v>475</v>
       </c>
     </row>
-    <row r="417" spans="1:14">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B417">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C417" s="2">
         <v>45334</v>
@@ -20568,12 +20611,12 @@
         <v>476</v>
       </c>
     </row>
-    <row r="418" spans="1:14">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B418">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C418" s="2">
         <v>45334</v>
@@ -20591,7 +20634,7 @@
         <v>8</v>
       </c>
       <c r="H418">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="I418">
         <v>416.16</v>
@@ -20603,7 +20646,7 @@
         <v>70.33</v>
       </c>
       <c r="L418">
-        <v>132.95</v>
+        <v>132.94999999999999</v>
       </c>
       <c r="M418">
         <v>53.64</v>
@@ -20612,12 +20655,12 @@
         <v>477</v>
       </c>
     </row>
-    <row r="419" spans="1:14">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B419">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C419" s="2">
         <v>45334</v>
@@ -20656,12 +20699,12 @@
         <v>478</v>
       </c>
     </row>
-    <row r="420" spans="1:14">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B420">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C420" s="2">
         <v>45334</v>
@@ -20700,12 +20743,12 @@
         <v>479</v>
       </c>
     </row>
-    <row r="421" spans="1:14">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B421">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C421" s="2">
         <v>45334</v>
@@ -20744,12 +20787,12 @@
         <v>480</v>
       </c>
     </row>
-    <row r="422" spans="1:14">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B422">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C422" s="2">
         <v>45334</v>
@@ -20788,12 +20831,12 @@
         <v>481</v>
       </c>
     </row>
-    <row r="423" spans="1:14">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B423">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C423" s="2">
         <v>45334</v>
@@ -20832,12 +20875,12 @@
         <v>482</v>
       </c>
     </row>
-    <row r="424" spans="1:14">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B424">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C424" s="2">
         <v>45334</v>
@@ -20861,7 +20904,7 @@
         <v>739.09</v>
       </c>
       <c r="J424">
-        <v>86.34999999999999</v>
+        <v>86.35</v>
       </c>
       <c r="K424">
         <v>99.61</v>
@@ -20876,12 +20919,12 @@
         <v>483</v>
       </c>
     </row>
-    <row r="425" spans="1:14">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B425">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C425" s="2">
         <v>45334</v>
@@ -20905,7 +20948,7 @@
         <v>651.37</v>
       </c>
       <c r="J425">
-        <v>73.98999999999999</v>
+        <v>73.989999999999995</v>
       </c>
       <c r="K425">
         <v>66.02</v>
@@ -20920,12 +20963,12 @@
         <v>484</v>
       </c>
     </row>
-    <row r="426" spans="1:14">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B426">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C426" s="2">
         <v>45334</v>
@@ -20964,12 +21007,12 @@
         <v>485</v>
       </c>
     </row>
-    <row r="427" spans="1:14">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B427">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C427" s="2">
         <v>45334</v>
@@ -20990,7 +21033,7 @@
         <v>13.61</v>
       </c>
       <c r="I427">
-        <v>94.09999999999999</v>
+        <v>94.1</v>
       </c>
       <c r="J427">
         <v>12.54</v>
@@ -21008,12 +21051,12 @@
         <v>486</v>
       </c>
     </row>
-    <row r="428" spans="1:14">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B428">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C428" s="2">
         <v>45334</v>
@@ -21052,12 +21095,12 @@
         <v>487</v>
       </c>
     </row>
-    <row r="429" spans="1:14">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B429">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C429" s="2">
         <v>45334</v>
@@ -21096,12 +21139,12 @@
         <v>488</v>
       </c>
     </row>
-    <row r="430" spans="1:14">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B430">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C430" s="2">
         <v>45334</v>
@@ -21140,12 +21183,12 @@
         <v>489</v>
       </c>
     </row>
-    <row r="431" spans="1:14">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B431">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C431" s="2">
         <v>45334</v>
@@ -21184,12 +21227,12 @@
         <v>490</v>
       </c>
     </row>
-    <row r="432" spans="1:14">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B432">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C432" s="2">
         <v>45334</v>
@@ -21228,12 +21271,12 @@
         <v>491</v>
       </c>
     </row>
-    <row r="433" spans="1:14">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B433">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C433" s="2">
         <v>45334</v>
@@ -21272,12 +21315,12 @@
         <v>492</v>
       </c>
     </row>
-    <row r="434" spans="1:14">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B434">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C434" s="2">
         <v>45335</v>
@@ -21316,12 +21359,12 @@
         <v>493</v>
       </c>
     </row>
-    <row r="435" spans="1:14">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B435">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C435" s="2">
         <v>45335</v>
@@ -21360,12 +21403,12 @@
         <v>494</v>
       </c>
     </row>
-    <row r="436" spans="1:14">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B436">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C436" s="2">
         <v>45335</v>
@@ -21404,12 +21447,12 @@
         <v>495</v>
       </c>
     </row>
-    <row r="437" spans="1:14">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B437">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C437" s="2">
         <v>45335</v>
@@ -21448,12 +21491,12 @@
         <v>496</v>
       </c>
     </row>
-    <row r="438" spans="1:14">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B438">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C438" s="2">
         <v>45335</v>
@@ -21492,12 +21535,12 @@
         <v>497</v>
       </c>
     </row>
-    <row r="439" spans="1:14">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B439">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C439" s="2">
         <v>45335</v>
@@ -21536,12 +21579,12 @@
         <v>498</v>
       </c>
     </row>
-    <row r="440" spans="1:14">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B440">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C440" s="2">
         <v>45335</v>
@@ -21580,12 +21623,12 @@
         <v>499</v>
       </c>
     </row>
-    <row r="441" spans="1:14">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B441">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C441" s="2">
         <v>45335</v>
@@ -21624,12 +21667,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="442" spans="1:14">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B442">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C442" s="2">
         <v>45335</v>
@@ -21668,12 +21711,12 @@
         <v>501</v>
       </c>
     </row>
-    <row r="443" spans="1:14">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B443">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C443" s="2">
         <v>45335</v>
@@ -21712,12 +21755,12 @@
         <v>502</v>
       </c>
     </row>
-    <row r="444" spans="1:14">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B444">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C444" s="2">
         <v>45335</v>
@@ -21756,12 +21799,12 @@
         <v>503</v>
       </c>
     </row>
-    <row r="445" spans="1:14">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B445">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C445" s="2">
         <v>45335</v>
@@ -21800,12 +21843,12 @@
         <v>504</v>
       </c>
     </row>
-    <row r="446" spans="1:14">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B446">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C446" s="2">
         <v>45335</v>
@@ -21829,7 +21872,7 @@
         <v>794.85</v>
       </c>
       <c r="J446">
-        <v>95.29000000000001</v>
+        <v>95.29</v>
       </c>
       <c r="K446">
         <v>119.09</v>
@@ -21844,12 +21887,12 @@
         <v>505</v>
       </c>
     </row>
-    <row r="447" spans="1:14">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B447">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C447" s="2">
         <v>45335</v>
@@ -21888,12 +21931,12 @@
         <v>506</v>
       </c>
     </row>
-    <row r="448" spans="1:14">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B448">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C448" s="2">
         <v>45335</v>
@@ -21920,24 +21963,24 @@
         <v>86.95</v>
       </c>
       <c r="K448">
-        <v>95.70999999999999</v>
+        <v>95.71</v>
       </c>
       <c r="L448">
         <v>0</v>
       </c>
       <c r="M448">
-        <v>95.70999999999999</v>
+        <v>95.71</v>
       </c>
       <c r="N448" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="449" spans="1:14">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B449">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C449" s="2">
         <v>45335</v>
@@ -21955,33 +21998,33 @@
         <v>15</v>
       </c>
       <c r="H449">
-        <v>269.03</v>
+        <v>269.02999999999997</v>
       </c>
       <c r="I449">
         <v>655.13</v>
       </c>
       <c r="J449">
-        <v>74.68000000000001</v>
+        <v>74.680000000000007</v>
       </c>
       <c r="K449">
-        <v>67.26000000000001</v>
+        <v>67.260000000000005</v>
       </c>
       <c r="L449">
         <v>0</v>
       </c>
       <c r="M449">
-        <v>67.26000000000001</v>
+        <v>67.260000000000005</v>
       </c>
       <c r="N449" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="450" spans="1:14">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B450">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C450" s="2">
         <v>45335</v>
@@ -22008,24 +22051,24 @@
         <v>53.56</v>
       </c>
       <c r="K450">
-        <v>32.55</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="L450">
         <v>0</v>
       </c>
       <c r="M450">
-        <v>32.55</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="N450" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="451" spans="1:14">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B451">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C451" s="2">
         <v>45335</v>
@@ -22064,12 +22107,12 @@
         <v>510</v>
       </c>
     </row>
-    <row r="452" spans="1:14">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B452">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C452" s="2">
         <v>45335</v>
@@ -22108,12 +22151,12 @@
         <v>511</v>
       </c>
     </row>
-    <row r="453" spans="1:14">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B453">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C453" s="2">
         <v>45335</v>
@@ -22152,12 +22195,12 @@
         <v>512</v>
       </c>
     </row>
-    <row r="454" spans="1:14">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B454">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C454" s="2">
         <v>45335</v>
@@ -22196,12 +22239,12 @@
         <v>513</v>
       </c>
     </row>
-    <row r="455" spans="1:14">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B455">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C455" s="2">
         <v>45335</v>
@@ -22240,12 +22283,12 @@
         <v>514</v>
       </c>
     </row>
-    <row r="456" spans="1:14">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B456">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C456" s="2">
         <v>45335</v>
@@ -22284,12 +22327,12 @@
         <v>515</v>
       </c>
     </row>
-    <row r="457" spans="1:14">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B457">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C457" s="2">
         <v>45335</v>
@@ -22328,12 +22371,12 @@
         <v>516</v>
       </c>
     </row>
-    <row r="458" spans="1:14">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B458">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C458" s="2">
         <v>45336</v>
@@ -22372,12 +22415,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="459" spans="1:14">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B459">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C459" s="2">
         <v>45336</v>
@@ -22416,12 +22459,12 @@
         <v>518</v>
       </c>
     </row>
-    <row r="460" spans="1:14">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B460">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C460" s="2">
         <v>45336</v>
@@ -22460,12 +22503,12 @@
         <v>519</v>
       </c>
     </row>
-    <row r="461" spans="1:14">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B461">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C461" s="2">
         <v>45336</v>
@@ -22504,12 +22547,12 @@
         <v>520</v>
       </c>
     </row>
-    <row r="462" spans="1:14">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B462">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C462" s="2">
         <v>45336</v>
@@ -22548,12 +22591,12 @@
         <v>521</v>
       </c>
     </row>
-    <row r="463" spans="1:14">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B463">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C463" s="2">
         <v>45336</v>
@@ -22592,12 +22635,12 @@
         <v>522</v>
       </c>
     </row>
-    <row r="464" spans="1:14">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B464">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C464" s="2">
         <v>45336</v>
@@ -22636,12 +22679,12 @@
         <v>523</v>
       </c>
     </row>
-    <row r="465" spans="1:14">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B465">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C465" s="2">
         <v>45336</v>
@@ -22680,12 +22723,12 @@
         <v>524</v>
       </c>
     </row>
-    <row r="466" spans="1:14">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B466">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C466" s="2">
         <v>45336</v>
@@ -22724,12 +22767,12 @@
         <v>525</v>
       </c>
     </row>
-    <row r="467" spans="1:14">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B467">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C467" s="2">
         <v>45336</v>
@@ -22768,12 +22811,12 @@
         <v>526</v>
       </c>
     </row>
-    <row r="468" spans="1:14">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B468">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C468" s="2">
         <v>45336</v>
@@ -22797,7 +22840,7 @@
         <v>732.02</v>
       </c>
       <c r="J468">
-        <v>85.84999999999999</v>
+        <v>85.85</v>
       </c>
       <c r="K468">
         <v>95.81</v>
@@ -22812,12 +22855,12 @@
         <v>527</v>
       </c>
     </row>
-    <row r="469" spans="1:14">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B469">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C469" s="2">
         <v>45336</v>
@@ -22856,12 +22899,12 @@
         <v>528</v>
       </c>
     </row>
-    <row r="470" spans="1:14">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B470">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C470" s="2">
         <v>45336</v>
@@ -22900,12 +22943,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="471" spans="1:14">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B471">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C471" s="2">
         <v>45336</v>
@@ -22926,7 +22969,7 @@
         <v>460.2</v>
       </c>
       <c r="I471">
-        <v>785.3200000000001</v>
+        <v>785.32</v>
       </c>
       <c r="J471">
         <v>94.13</v>
@@ -22944,12 +22987,12 @@
         <v>530</v>
       </c>
     </row>
-    <row r="472" spans="1:14">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B472">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C472" s="2">
         <v>45336</v>
@@ -22988,12 +23031,12 @@
         <v>531</v>
       </c>
     </row>
-    <row r="473" spans="1:14">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B473">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C473" s="2">
         <v>45336</v>
@@ -23014,10 +23057,10 @@
         <v>273.92</v>
       </c>
       <c r="I473">
-        <v>658.4299999999999</v>
+        <v>658.43</v>
       </c>
       <c r="J473">
-        <v>75.40000000000001</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="K473">
         <v>68.48</v>
@@ -23032,12 +23075,12 @@
         <v>532</v>
       </c>
     </row>
-    <row r="474" spans="1:14">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B474">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C474" s="2">
         <v>45336</v>
@@ -23076,12 +23119,12 @@
         <v>533</v>
       </c>
     </row>
-    <row r="475" spans="1:14">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B475">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C475" s="2">
         <v>45336</v>
@@ -23120,12 +23163,12 @@
         <v>534</v>
       </c>
     </row>
-    <row r="476" spans="1:14">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B476">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C476" s="2">
         <v>45336</v>
@@ -23164,12 +23207,12 @@
         <v>535</v>
       </c>
     </row>
-    <row r="477" spans="1:14">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B477">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C477" s="2">
         <v>45336</v>
@@ -23208,12 +23251,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="478" spans="1:14">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B478">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C478" s="2">
         <v>45336</v>
@@ -23252,12 +23295,12 @@
         <v>537</v>
       </c>
     </row>
-    <row r="479" spans="1:14">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B479">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C479" s="2">
         <v>45336</v>
@@ -23296,12 +23339,12 @@
         <v>538</v>
       </c>
     </row>
-    <row r="480" spans="1:14">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B480">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C480" s="2">
         <v>45336</v>
@@ -23340,12 +23383,12 @@
         <v>539</v>
       </c>
     </row>
-    <row r="481" spans="1:14">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B481">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C481" s="2">
         <v>45336</v>
@@ -23384,12 +23427,12 @@
         <v>540</v>
       </c>
     </row>
-    <row r="482" spans="1:14">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B482">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C482" s="2">
         <v>45337</v>
@@ -23428,12 +23471,12 @@
         <v>541</v>
       </c>
     </row>
-    <row r="483" spans="1:14">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B483">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C483" s="2">
         <v>45337</v>
@@ -23472,12 +23515,12 @@
         <v>542</v>
       </c>
     </row>
-    <row r="484" spans="1:14">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B484">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C484" s="2">
         <v>45337</v>
@@ -23516,12 +23559,12 @@
         <v>543</v>
       </c>
     </row>
-    <row r="485" spans="1:14">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B485">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C485" s="2">
         <v>45337</v>
@@ -23560,12 +23603,12 @@
         <v>544</v>
       </c>
     </row>
-    <row r="486" spans="1:14">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B486">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C486" s="2">
         <v>45337</v>
@@ -23604,12 +23647,12 @@
         <v>545</v>
       </c>
     </row>
-    <row r="487" spans="1:14">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B487">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C487" s="2">
         <v>45337</v>
@@ -23648,12 +23691,12 @@
         <v>546</v>
       </c>
     </row>
-    <row r="488" spans="1:14">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B488">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C488" s="2">
         <v>45337</v>
@@ -23692,12 +23735,12 @@
         <v>547</v>
       </c>
     </row>
-    <row r="489" spans="1:14">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B489">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C489" s="2">
         <v>45337</v>
@@ -23721,7 +23764,7 @@
         <v>62.87</v>
       </c>
       <c r="J489">
-        <v>9.550000000000001</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="K489">
         <v>8.34</v>
@@ -23736,12 +23779,12 @@
         <v>548</v>
       </c>
     </row>
-    <row r="490" spans="1:14">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B490">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C490" s="2">
         <v>45337</v>
@@ -23780,12 +23823,12 @@
         <v>549</v>
       </c>
     </row>
-    <row r="491" spans="1:14">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B491">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C491" s="2">
         <v>45337</v>
@@ -23806,7 +23849,7 @@
         <v>254.42</v>
       </c>
       <c r="I491">
-        <v>639.5700000000001</v>
+        <v>639.57000000000005</v>
       </c>
       <c r="J491">
         <v>73.03</v>
@@ -23815,21 +23858,21 @@
         <v>254.06</v>
       </c>
       <c r="L491">
-        <v>616.83</v>
+        <v>616.83000000000004</v>
       </c>
       <c r="M491">
-        <v>71.31999999999999</v>
+        <v>71.319999999999993</v>
       </c>
       <c r="N491" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="492" spans="1:14">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B492">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C492" s="2">
         <v>45337</v>
@@ -23862,18 +23905,18 @@
         <v>717.77</v>
       </c>
       <c r="M492">
-        <v>85.73999999999999</v>
+        <v>85.74</v>
       </c>
       <c r="N492" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="493" spans="1:14">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B493">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C493" s="2">
         <v>45337</v>
@@ -23897,7 +23940,7 @@
         <v>782.58</v>
       </c>
       <c r="J493">
-        <v>93.84999999999999</v>
+        <v>93.85</v>
       </c>
       <c r="K493">
         <v>455.85</v>
@@ -23906,18 +23949,18 @@
         <v>759.33</v>
       </c>
       <c r="M493">
-        <v>97.43000000000001</v>
+        <v>97.43</v>
       </c>
       <c r="N493" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="494" spans="1:14">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B494">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C494" s="2">
         <v>45337</v>
@@ -23956,12 +23999,12 @@
         <v>553</v>
       </c>
     </row>
-    <row r="495" spans="1:14">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B495">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C495" s="2">
         <v>45337</v>
@@ -23994,18 +24037,18 @@
         <v>763.72</v>
       </c>
       <c r="M495">
-        <v>98.90000000000001</v>
+        <v>98.9</v>
       </c>
       <c r="N495" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="496" spans="1:14">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B496">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C496" s="2">
         <v>45337</v>
@@ -24029,7 +24072,7 @@
         <v>746.77</v>
       </c>
       <c r="J496">
-        <v>88.18000000000001</v>
+        <v>88.18</v>
       </c>
       <c r="K496">
         <v>392.43</v>
@@ -24038,18 +24081,18 @@
         <v>725.37</v>
       </c>
       <c r="M496">
-        <v>88.76000000000001</v>
+        <v>88.76</v>
       </c>
       <c r="N496" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="497" spans="1:14">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B497">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C497" s="2">
         <v>45337</v>
@@ -24070,16 +24113,16 @@
         <v>279.02</v>
       </c>
       <c r="I497">
-        <v>662.4400000000001</v>
+        <v>662.44</v>
       </c>
       <c r="J497">
-        <v>76.04000000000001</v>
+        <v>76.040000000000006</v>
       </c>
       <c r="K497">
-        <v>275.97</v>
+        <v>275.97000000000003</v>
       </c>
       <c r="L497">
-        <v>626.3099999999999</v>
+        <v>626.30999999999995</v>
       </c>
       <c r="M497">
         <v>76.53</v>
@@ -24088,12 +24131,12 @@
         <v>556</v>
       </c>
     </row>
-    <row r="498" spans="1:14">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B498">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C498" s="2">
         <v>45337</v>
@@ -24132,12 +24175,12 @@
         <v>557</v>
       </c>
     </row>
-    <row r="499" spans="1:14">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B499">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C499" s="2">
         <v>45337</v>
@@ -24164,7 +24207,7 @@
         <v>14.6</v>
       </c>
       <c r="K499">
-        <v>17.85</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="L499">
         <v>55.3</v>
@@ -24176,12 +24219,12 @@
         <v>558</v>
       </c>
     </row>
-    <row r="500" spans="1:14">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B500">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C500" s="2">
         <v>45337</v>
@@ -24220,12 +24263,12 @@
         <v>559</v>
       </c>
     </row>
-    <row r="501" spans="1:14">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B501">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C501" s="2">
         <v>45337</v>
@@ -24264,12 +24307,12 @@
         <v>560</v>
       </c>
     </row>
-    <row r="502" spans="1:14">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B502">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C502" s="2">
         <v>45337</v>
@@ -24308,12 +24351,12 @@
         <v>561</v>
       </c>
     </row>
-    <row r="503" spans="1:14">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B503">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C503" s="2">
         <v>45337</v>
@@ -24352,12 +24395,12 @@
         <v>562</v>
       </c>
     </row>
-    <row r="504" spans="1:14">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B504">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C504" s="2">
         <v>45337</v>
@@ -24396,12 +24439,12 @@
         <v>563</v>
       </c>
     </row>
-    <row r="505" spans="1:14">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B505">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C505" s="2">
         <v>45337</v>
@@ -24440,12 +24483,12 @@
         <v>564</v>
       </c>
     </row>
-    <row r="506" spans="1:14">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B506">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C506" s="2">
         <v>45338</v>
@@ -24484,12 +24527,12 @@
         <v>565</v>
       </c>
     </row>
-    <row r="507" spans="1:14">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B507">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C507" s="2">
         <v>45338</v>
@@ -24528,12 +24571,12 @@
         <v>566</v>
       </c>
     </row>
-    <row r="508" spans="1:14">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B508">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C508" s="2">
         <v>45338</v>
@@ -24572,12 +24615,12 @@
         <v>567</v>
       </c>
     </row>
-    <row r="509" spans="1:14">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B509">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C509" s="2">
         <v>45338</v>
@@ -24616,12 +24659,12 @@
         <v>568</v>
       </c>
     </row>
-    <row r="510" spans="1:14">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B510">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C510" s="2">
         <v>45338</v>
@@ -24660,12 +24703,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="511" spans="1:14">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B511">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C511" s="2">
         <v>45338</v>
@@ -24704,12 +24747,12 @@
         <v>570</v>
       </c>
     </row>
-    <row r="512" spans="1:14">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B512">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C512" s="2">
         <v>45338</v>
@@ -24748,12 +24791,12 @@
         <v>571</v>
       </c>
     </row>
-    <row r="513" spans="1:14">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B513">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C513" s="2">
         <v>45338</v>
@@ -24774,7 +24817,7 @@
         <v>9.74</v>
       </c>
       <c r="I513">
-        <v>71.09999999999999</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="J513">
         <v>10.41</v>
@@ -24792,12 +24835,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="514" spans="1:14">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B514">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C514" s="2">
         <v>45338</v>
@@ -24836,12 +24879,12 @@
         <v>573</v>
       </c>
     </row>
-    <row r="515" spans="1:14">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B515">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C515" s="2">
         <v>45338</v>
@@ -24865,7 +24908,7 @@
         <v>644.23</v>
       </c>
       <c r="J515">
-        <v>73.70999999999999</v>
+        <v>73.709999999999994</v>
       </c>
       <c r="K515">
         <v>259.58</v>
@@ -24874,18 +24917,18 @@
         <v>624.36</v>
       </c>
       <c r="M515">
-        <v>71.45999999999999</v>
+        <v>71.459999999999994</v>
       </c>
       <c r="N515" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="516" spans="1:14">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B516">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C516" s="2">
         <v>45338</v>
@@ -24918,18 +24961,18 @@
         <v>721.4</v>
       </c>
       <c r="M516">
-        <v>86.40000000000001</v>
+        <v>86.4</v>
       </c>
       <c r="N516" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="517" spans="1:14">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B517">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C517" s="2">
         <v>45338</v>
@@ -24968,12 +25011,12 @@
         <v>576</v>
       </c>
     </row>
-    <row r="518" spans="1:14">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B518">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C518" s="2">
         <v>45338</v>
@@ -25012,12 +25055,12 @@
         <v>577</v>
       </c>
     </row>
-    <row r="519" spans="1:14">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B519">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C519" s="2">
         <v>45338</v>
@@ -25056,12 +25099,12 @@
         <v>578</v>
       </c>
     </row>
-    <row r="520" spans="1:14">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B520">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C520" s="2">
         <v>45338</v>
@@ -25100,12 +25143,12 @@
         <v>579</v>
       </c>
     </row>
-    <row r="521" spans="1:14">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B521">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C521" s="2">
         <v>45338</v>
@@ -25126,7 +25169,7 @@
         <v>284.19</v>
       </c>
       <c r="I521">
-        <v>666.5599999999999</v>
+        <v>666.56</v>
       </c>
       <c r="J521">
         <v>76.66</v>
@@ -25138,18 +25181,18 @@
         <v>647</v>
       </c>
       <c r="M521">
-        <v>74.98999999999999</v>
+        <v>74.989999999999995</v>
       </c>
       <c r="N521" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="522" spans="1:14">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B522">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C522" s="2">
         <v>45338</v>
@@ -25188,12 +25231,12 @@
         <v>581</v>
       </c>
     </row>
-    <row r="523" spans="1:14">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B523">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C523" s="2">
         <v>45338</v>
@@ -25214,10 +25257,10 @@
         <v>20.45</v>
       </c>
       <c r="I523">
-        <v>128.89</v>
+        <v>128.88999999999999</v>
       </c>
       <c r="J523">
-        <v>17.42</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="K523">
         <v>20.45</v>
@@ -25232,12 +25275,12 @@
         <v>582</v>
       </c>
     </row>
-    <row r="524" spans="1:14">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B524">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C524" s="2">
         <v>45338</v>
@@ -25276,12 +25319,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="525" spans="1:14">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B525">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C525" s="2">
         <v>45338</v>
@@ -25320,12 +25363,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="526" spans="1:14">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B526">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C526" s="2">
         <v>45338</v>
@@ -25364,12 +25407,12 @@
         <v>585</v>
       </c>
     </row>
-    <row r="527" spans="1:14">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B527">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C527" s="2">
         <v>45338</v>
@@ -25408,12 +25451,12 @@
         <v>586</v>
       </c>
     </row>
-    <row r="528" spans="1:14">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B528">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C528" s="2">
         <v>45338</v>
@@ -25452,12 +25495,12 @@
         <v>587</v>
       </c>
     </row>
-    <row r="529" spans="1:14">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B529">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C529" s="2">
         <v>45338</v>
@@ -25496,12 +25539,12 @@
         <v>588</v>
       </c>
     </row>
-    <row r="530" spans="1:14">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B530">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C530" s="2">
         <v>45339</v>
@@ -25540,12 +25583,12 @@
         <v>589</v>
       </c>
     </row>
-    <row r="531" spans="1:14">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B531">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C531" s="2">
         <v>45339</v>
@@ -25584,12 +25627,12 @@
         <v>590</v>
       </c>
     </row>
-    <row r="532" spans="1:14">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B532">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C532" s="2">
         <v>45339</v>
@@ -25628,12 +25671,12 @@
         <v>591</v>
       </c>
     </row>
-    <row r="533" spans="1:14">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B533">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C533" s="2">
         <v>45339</v>
@@ -25672,12 +25715,12 @@
         <v>592</v>
       </c>
     </row>
-    <row r="534" spans="1:14">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B534">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C534" s="2">
         <v>45339</v>
@@ -25716,12 +25759,12 @@
         <v>593</v>
       </c>
     </row>
-    <row r="535" spans="1:14">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B535">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C535" s="2">
         <v>45339</v>
@@ -25760,12 +25803,12 @@
         <v>594</v>
       </c>
     </row>
-    <row r="536" spans="1:14">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B536">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C536" s="2">
         <v>45339</v>
@@ -25804,12 +25847,12 @@
         <v>595</v>
       </c>
     </row>
-    <row r="537" spans="1:14">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B537">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C537" s="2">
         <v>45339</v>
@@ -25839,21 +25882,21 @@
         <v>11.15</v>
       </c>
       <c r="L537">
-        <v>33.05</v>
+        <v>33.049999999999997</v>
       </c>
       <c r="M537">
-        <v>8.869999999999999</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="N537" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="538" spans="1:14">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B538">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C538" s="2">
         <v>45339</v>
@@ -25892,12 +25935,12 @@
         <v>597</v>
       </c>
     </row>
-    <row r="539" spans="1:14">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B539">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C539" s="2">
         <v>45339</v>
@@ -25915,7 +25958,7 @@
         <v>9</v>
       </c>
       <c r="H539">
-        <v>265.1</v>
+        <v>265.10000000000002</v>
       </c>
       <c r="I539">
         <v>649.01</v>
@@ -25924,7 +25967,7 @@
         <v>74.37</v>
       </c>
       <c r="K539">
-        <v>265.09</v>
+        <v>265.08999999999997</v>
       </c>
       <c r="L539">
         <v>647.26</v>
@@ -25936,12 +25979,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="540" spans="1:14">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B540">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C540" s="2">
         <v>45339</v>
@@ -25980,12 +26023,12 @@
         <v>599</v>
       </c>
     </row>
-    <row r="541" spans="1:14">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B541">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C541" s="2">
         <v>45339</v>
@@ -26024,12 +26067,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="542" spans="1:14">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B542">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C542" s="2">
         <v>45339</v>
@@ -26059,7 +26102,7 @@
         <v>499.4</v>
       </c>
       <c r="L542">
-        <v>796.0599999999999</v>
+        <v>796.06</v>
       </c>
       <c r="M542">
         <v>94.3</v>
@@ -26068,12 +26111,12 @@
         <v>601</v>
       </c>
     </row>
-    <row r="543" spans="1:14">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B543">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C543" s="2">
         <v>45339</v>
@@ -26106,18 +26149,18 @@
         <v>787.65</v>
       </c>
       <c r="M543">
-        <v>91.20999999999999</v>
+        <v>91.21</v>
       </c>
       <c r="N543" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="544" spans="1:14">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B544">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C544" s="2">
         <v>45339</v>
@@ -26150,18 +26193,18 @@
         <v>753.64</v>
       </c>
       <c r="M544">
-        <v>81.73999999999999</v>
+        <v>81.739999999999995</v>
       </c>
       <c r="N544" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="545" spans="1:14">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B545">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C545" s="2">
         <v>45339</v>
@@ -26185,10 +26228,10 @@
         <v>670.77</v>
       </c>
       <c r="J545">
-        <v>77.26000000000001</v>
+        <v>77.260000000000005</v>
       </c>
       <c r="K545">
-        <v>289.4</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="L545">
         <v>669.98</v>
@@ -26200,12 +26243,12 @@
         <v>604</v>
       </c>
     </row>
-    <row r="546" spans="1:14">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B546">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C546" s="2">
         <v>45339</v>
@@ -26223,7 +26266,7 @@
         <v>16</v>
       </c>
       <c r="H546">
-        <v>147.83</v>
+        <v>147.83000000000001</v>
       </c>
       <c r="I546">
         <v>506.45</v>
@@ -26232,7 +26275,7 @@
         <v>56.97</v>
       </c>
       <c r="K546">
-        <v>147.8</v>
+        <v>147.80000000000001</v>
       </c>
       <c r="L546">
         <v>481.18</v>
@@ -26244,12 +26287,12 @@
         <v>605</v>
       </c>
     </row>
-    <row r="547" spans="1:14">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B547">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C547" s="2">
         <v>45339</v>
@@ -26279,7 +26322,7 @@
         <v>22.48</v>
       </c>
       <c r="L547">
-        <v>72.31999999999999</v>
+        <v>72.319999999999993</v>
       </c>
       <c r="M547">
         <v>15.92</v>
@@ -26288,12 +26331,12 @@
         <v>606</v>
       </c>
     </row>
-    <row r="548" spans="1:14">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B548">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C548" s="2">
         <v>45339</v>
@@ -26332,12 +26375,12 @@
         <v>607</v>
       </c>
     </row>
-    <row r="549" spans="1:14">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B549">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C549" s="2">
         <v>45339</v>
@@ -26376,12 +26419,12 @@
         <v>608</v>
       </c>
     </row>
-    <row r="550" spans="1:14">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B550">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C550" s="2">
         <v>45339</v>
@@ -26420,12 +26463,12 @@
         <v>609</v>
       </c>
     </row>
-    <row r="551" spans="1:14">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B551">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C551" s="2">
         <v>45339</v>
@@ -26464,12 +26507,12 @@
         <v>610</v>
       </c>
     </row>
-    <row r="552" spans="1:14">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B552">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C552" s="2">
         <v>45339</v>
@@ -26508,12 +26551,12 @@
         <v>611</v>
       </c>
     </row>
-    <row r="553" spans="1:14">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>47.2229</v>
+        <v>47.222900000000003</v>
       </c>
       <c r="B553">
-        <v>24.7244</v>
+        <v>24.724399999999999</v>
       </c>
       <c r="C553" s="2">
         <v>45339</v>
